--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース一覧_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース一覧_サンプル.xlsx
@@ -39,7 +39,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)</t>
+          <t>インタフェースの授受相手先を記載する(外部機関名称、部署名、システム名など)。</t>
         </r>
       </text>
     </comment>
@@ -70,7 +70,7 @@
             <charset val="128"/>
           </rPr>
           <t>インタフェースを入出力する処理サイクルを記載する。
-  ・ 「日時」  ・ 「週次」
+  ・ 「日次」  ・ 「週次」
   ・ 「月次」  ・ 「年次」
   ・ 「随時」  ・ 「その他」</t>
         </r>
@@ -121,7 +121,7 @@
           <t>インタフェースのピーク時件数を記載する。
 データレコードの行数を記載する。
 　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
-　※XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
+　※JSON、XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
         </r>
       </text>
     </comment>
@@ -720,62 +720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)
-※同一ファイルを複数の相手先に送る場合は、同一セル内に複数記載する(新たに採番しない。)。</t>
-    <rPh sb="8" eb="10">
-      <t>ジュジュ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>アイテサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ブショメイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>アイテサキ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="67" eb="71">
-      <t>フクスウキサイ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>インタフェースを授受媒体を記載する。
 ※JSON、XML形式の場合は「-」と記載する。</t>
     <rPh sb="8" eb="10">
@@ -892,41 +836,6 @@
     <t>インタフェースの文字コードを記載する。</t>
     <rPh sb="8" eb="10">
       <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>インタフェースを入出力する処理サイクルを記載する。
-例)「日時」「週次」「月次」「年次」「随時」「その他」</t>
-    <rPh sb="8" eb="11">
-      <t>ニュウシュツリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ネンジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -984,13 +893,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>インタフェースのピーク時件数を記載する。
-データレコードの行数を記載する。
-　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
-　※XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>インタフェースについて特記事項があれば記載する。</t>
     <rPh sb="11" eb="13">
       <t>トッキ</t>
@@ -1137,6 +1039,104 @@
   </si>
   <si>
     <t>有り</t>
+  </si>
+  <si>
+    <t>インタフェースを入出力する処理サイクルを記載する。
+例)「日次」「週次」「月次」「年次」「随時」「その他」</t>
+    <rPh sb="8" eb="11">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ネンジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)
+※同一ファイルを複数の相手先に送る場合は、同一セル内に複数記載する(新たに採番しない)。</t>
+    <rPh sb="8" eb="10">
+      <t>ジュジュ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>アイテサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ブショメイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>アイテサキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>フクスウキサイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタフェースのピーク時件数を記載する。
+データレコードの行数を記載する。
+　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
+　※JSON、XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1147,7 +1147,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2754,60 +2754,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="30" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="30" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="29" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2844,104 +2940,8 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="30" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="30" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="29" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4533,7 +4533,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>を意識し検索しやすい位置を考えて追加すること（むやみに最終行に追加しない。）。</a:t>
+            <a:t>を意識し検索しやすい位置を考えて追加すること（むやみに最終行に追加しない）。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -4611,7 +4611,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>同一ファイルを複数の相手先に送る場合は、複数の相手先を記載すること。</a:t>
+            <a:t>同一ファイルを複数の相手先に送る場合は、複数の相手先を記載すること</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4671,7 +4671,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>を新たに採番しない。</a:t>
+            <a:t>を新たに採番しない</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4683,13 +4683,16 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5267,8 +5270,8 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:from>
@@ -5287,8 +5290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="247650" y="3257550"/>
-          <a:ext cx="15544800" cy="342900"/>
+          <a:off x="228600" y="3257550"/>
+          <a:ext cx="15840075" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5328,8 +5331,8 @@
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5341,7 +5344,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="10201275" y="5391150"/>
-          <a:ext cx="5429250" cy="390525"/>
+          <a:ext cx="5429250" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -5349,8 +5352,8 @@
             <a:gd name="adj2" fmla="val -1403"/>
             <a:gd name="adj3" fmla="val 35296"/>
             <a:gd name="adj4" fmla="val -3509"/>
-            <a:gd name="adj5" fmla="val -468615"/>
-            <a:gd name="adj6" fmla="val -15265"/>
+            <a:gd name="adj5" fmla="val -607325"/>
+            <a:gd name="adj6" fmla="val -13335"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -5385,20 +5388,8 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>廃止する場合は、背景をグレーの網掛けに変更する。</a:t>
+            <a:t>廃止する場合は、背景をグレーの網掛けに変更する</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -5417,7 +5408,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>物理削除はしないこと。</a:t>
+            <a:t>物理削除はしない</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5429,13 +5420,16 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5799,42 +5793,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -5845,7 +5839,7 @@
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -5854,7 +5848,7 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -5866,7 +5860,7 @@
       <c r="K25" s="94"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -5875,7 +5869,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -5884,7 +5878,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -5893,7 +5887,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="37"/>
@@ -5901,7 +5895,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="17"/>
       <c r="H30" s="14"/>
@@ -5910,7 +5904,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
@@ -5919,7 +5913,7 @@
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="14"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14"/>
@@ -5928,7 +5922,7 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="37"/>
@@ -5940,7 +5934,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="37"/>
@@ -5955,515 +5949,515 @@
       <c r="R34" s="98"/>
       <c r="S34" s="98"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="98"/>
       <c r="R35" s="98"/>
       <c r="S35" s="98"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="99"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="99"/>
       <c r="R36" s="98"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="95"/>
       <c r="P37" s="96"/>
       <c r="Q37" s="95"/>
       <c r="R37" s="96"/>
       <c r="S37" s="95"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="96"/>
       <c r="P38" s="96"/>
       <c r="Q38" s="96"/>
       <c r="R38" s="96"/>
       <c r="S38" s="96"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="96"/>
       <c r="P39" s="96"/>
       <c r="Q39" s="96"/>
       <c r="R39" s="96"/>
       <c r="S39" s="96"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -6494,12 +6488,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="136" t="s">
         <v>6</v>
       </c>
@@ -6557,7 +6551,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="136" t="s">
         <v>7</v>
       </c>
@@ -6611,7 +6605,7 @@
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
-    <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="136" t="s">
         <v>8</v>
       </c>
@@ -6657,7 +6651,7 @@
       <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
     </row>
-    <row r="5" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6671,7 +6665,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="4"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
@@ -6683,7 +6677,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
@@ -6734,7 +6728,7 @@
       <c r="AH7" s="129"/>
       <c r="AI7" s="128"/>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85">
         <v>1</v>
       </c>
@@ -6785,7 +6779,7 @@
       <c r="AH8" s="116"/>
       <c r="AI8" s="117"/>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
       <c r="B9" s="124"/>
       <c r="C9" s="126"/>
@@ -6823,7 +6817,7 @@
       <c r="AI9" s="102"/>
       <c r="AJ9" s="32"/>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
       <c r="B10" s="124"/>
       <c r="C10" s="126"/>
@@ -6860,7 +6854,7 @@
       <c r="AH10" s="101"/>
       <c r="AI10" s="102"/>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
       <c r="B11" s="124"/>
       <c r="C11" s="126"/>
@@ -6897,7 +6891,7 @@
       <c r="AH11" s="101"/>
       <c r="AI11" s="102"/>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
       <c r="B12" s="124"/>
       <c r="C12" s="126"/>
@@ -6934,7 +6928,7 @@
       <c r="AH12" s="101"/>
       <c r="AI12" s="102"/>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
       <c r="B13" s="124"/>
       <c r="C13" s="126"/>
@@ -6971,7 +6965,7 @@
       <c r="AH13" s="101"/>
       <c r="AI13" s="102"/>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
       <c r="B14" s="124"/>
       <c r="C14" s="126"/>
@@ -7008,7 +7002,7 @@
       <c r="AH14" s="101"/>
       <c r="AI14" s="102"/>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
       <c r="B15" s="124"/>
       <c r="C15" s="126"/>
@@ -7045,7 +7039,7 @@
       <c r="AH15" s="101"/>
       <c r="AI15" s="102"/>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
       <c r="B16" s="124"/>
       <c r="C16" s="126"/>
@@ -7082,7 +7076,7 @@
       <c r="AH16" s="101"/>
       <c r="AI16" s="102"/>
     </row>
-    <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
       <c r="B17" s="124"/>
       <c r="C17" s="126"/>
@@ -7119,7 +7113,7 @@
       <c r="AH17" s="101"/>
       <c r="AI17" s="102"/>
     </row>
-    <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
       <c r="B18" s="124"/>
       <c r="C18" s="126"/>
@@ -7156,7 +7150,7 @@
       <c r="AH18" s="101"/>
       <c r="AI18" s="102"/>
     </row>
-    <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
       <c r="B19" s="124"/>
       <c r="C19" s="126"/>
@@ -7193,7 +7187,7 @@
       <c r="AH19" s="101"/>
       <c r="AI19" s="102"/>
     </row>
-    <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
       <c r="B20" s="124"/>
       <c r="C20" s="126"/>
@@ -7230,7 +7224,7 @@
       <c r="AH20" s="101"/>
       <c r="AI20" s="102"/>
     </row>
-    <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
       <c r="B21" s="124"/>
       <c r="C21" s="126"/>
@@ -7267,7 +7261,7 @@
       <c r="AH21" s="101"/>
       <c r="AI21" s="102"/>
     </row>
-    <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
       <c r="B22" s="124"/>
       <c r="C22" s="126"/>
@@ -7304,7 +7298,7 @@
       <c r="AH22" s="101"/>
       <c r="AI22" s="102"/>
     </row>
-    <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
       <c r="B23" s="124"/>
       <c r="C23" s="126"/>
@@ -7341,7 +7335,7 @@
       <c r="AH23" s="101"/>
       <c r="AI23" s="102"/>
     </row>
-    <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
       <c r="B24" s="124"/>
       <c r="C24" s="126"/>
@@ -7378,7 +7372,7 @@
       <c r="AH24" s="101"/>
       <c r="AI24" s="102"/>
     </row>
-    <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="124"/>
       <c r="C25" s="126"/>
@@ -7415,7 +7409,7 @@
       <c r="AH25" s="101"/>
       <c r="AI25" s="102"/>
     </row>
-    <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
       <c r="B26" s="124"/>
       <c r="C26" s="126"/>
@@ -7452,7 +7446,7 @@
       <c r="AH26" s="101"/>
       <c r="AI26" s="102"/>
     </row>
-    <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
       <c r="B27" s="124"/>
       <c r="C27" s="126"/>
@@ -7489,7 +7483,7 @@
       <c r="AH27" s="101"/>
       <c r="AI27" s="102"/>
     </row>
-    <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="124"/>
       <c r="C28" s="126"/>
@@ -7526,7 +7520,7 @@
       <c r="AH28" s="101"/>
       <c r="AI28" s="102"/>
     </row>
-    <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
       <c r="B29" s="124"/>
       <c r="C29" s="126"/>
@@ -7563,7 +7557,7 @@
       <c r="AH29" s="101"/>
       <c r="AI29" s="102"/>
     </row>
-    <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
       <c r="B30" s="124"/>
       <c r="C30" s="126"/>
@@ -7600,7 +7594,7 @@
       <c r="AH30" s="101"/>
       <c r="AI30" s="102"/>
     </row>
-    <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
       <c r="B31" s="124"/>
       <c r="C31" s="126"/>
@@ -7638,7 +7632,7 @@
       <c r="AI31" s="102"/>
       <c r="AJ31" s="32"/>
     </row>
-    <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
       <c r="B32" s="124"/>
       <c r="C32" s="126"/>
@@ -7676,7 +7670,7 @@
       <c r="AI32" s="102"/>
       <c r="AJ32" s="32"/>
     </row>
-    <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
       <c r="B33" s="124"/>
       <c r="C33" s="126"/>
@@ -7714,7 +7708,7 @@
       <c r="AI33" s="102"/>
       <c r="AJ33" s="32"/>
     </row>
-    <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -7752,7 +7746,7 @@
       <c r="AI34" s="32"/>
       <c r="AJ34" s="32"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:36">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -7790,7 +7784,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:36">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -7828,7 +7822,7 @@
       <c r="AI36" s="32"/>
       <c r="AJ36" s="33"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:36">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -7866,7 +7860,7 @@
       <c r="AI37" s="32"/>
       <c r="AJ37" s="33"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:36">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -8106,7 +8100,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="74" customWidth="1"/>
@@ -8241,7 +8235,7 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="136" t="s">
         <v>6</v>
       </c>
@@ -8296,7 +8290,7 @@
       <c r="AH1" s="107"/>
       <c r="AI1" s="108"/>
     </row>
-    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="136" t="s">
         <v>7</v>
       </c>
@@ -8346,7 +8340,7 @@
       <c r="AH2" s="107"/>
       <c r="AI2" s="108"/>
     </row>
-    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="136" t="s">
         <v>8</v>
       </c>
@@ -8394,7 +8388,7 @@
       <c r="AH3" s="107"/>
       <c r="AI3" s="108"/>
     </row>
-    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -8431,7 +8425,7 @@
       <c r="AH4" s="42"/>
       <c r="AI4" s="42"/>
     </row>
-    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -8470,7 +8464,7 @@
       <c r="AH5" s="42"/>
       <c r="AI5" s="42"/>
     </row>
-    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -8507,7 +8501,7 @@
       <c r="AH6" s="42"/>
       <c r="AI6" s="42"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="46"/>
       <c r="B7" s="47" t="s">
         <v>33</v>
@@ -8546,7 +8540,7 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -8583,7 +8577,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="48"/>
@@ -8620,7 +8614,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="46"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="46"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -8657,7 +8651,7 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="46"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -8694,7 +8688,7 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="46"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -8731,7 +8725,7 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -8768,7 +8762,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="46"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -8805,7 +8799,7 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="46"/>
       <c r="B15" s="58"/>
       <c r="C15" s="48"/>
@@ -8842,7 +8836,7 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="46"/>
       <c r="B16" s="42"/>
       <c r="C16" s="46"/>
@@ -8879,7 +8873,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="46"/>
       <c r="B17" s="42"/>
       <c r="C17" s="46"/>
@@ -8916,7 +8910,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="46"/>
       <c r="B18" s="42"/>
       <c r="C18" s="46"/>
@@ -8953,7 +8947,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="46"/>
       <c r="B19" s="42"/>
       <c r="C19" s="46"/>
@@ -8990,7 +8984,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="46"/>
       <c r="B20" s="42"/>
       <c r="C20" s="46"/>
@@ -9027,7 +9021,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="46"/>
       <c r="B21" s="42"/>
       <c r="C21" s="46"/>
@@ -9064,7 +9058,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="46"/>
       <c r="B22" s="42"/>
       <c r="C22" s="46"/>
@@ -9101,7 +9095,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="58"/>
       <c r="C23" s="48"/>
@@ -9138,7 +9132,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="46"/>
       <c r="B24" s="42"/>
       <c r="C24" s="46"/>
@@ -9175,7 +9169,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="42"/>
       <c r="C25" s="46"/>
@@ -9212,7 +9206,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="42"/>
       <c r="C26" s="46"/>
@@ -9249,7 +9243,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="46"/>
       <c r="B27" s="42"/>
       <c r="C27" s="46"/>
@@ -9286,7 +9280,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="46"/>
       <c r="B28" s="42"/>
       <c r="C28" s="46"/>
@@ -9323,7 +9317,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="46"/>
       <c r="B29" s="42"/>
       <c r="C29" s="46"/>
@@ -9360,7 +9354,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="59"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -9397,7 +9391,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="63"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
@@ -9434,7 +9428,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="63"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="59"/>
       <c r="B32" s="66"/>
       <c r="C32" s="46"/>
@@ -9471,7 +9465,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="63"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="59"/>
       <c r="B33" s="66"/>
       <c r="C33" s="46"/>
@@ -9508,7 +9502,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="63"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="59"/>
       <c r="B34" s="66"/>
       <c r="C34" s="46"/>
@@ -9545,7 +9539,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="63"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="59"/>
       <c r="B35" s="66"/>
       <c r="C35" s="46"/>
@@ -9582,7 +9576,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="63"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -9619,7 +9613,7 @@
       <c r="AH36" s="71"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -9651,7 +9645,7 @@
       <c r="AH37" s="79"/>
       <c r="AI37" s="75"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
       <c r="U38" s="76"/>
@@ -9670,7 +9664,7 @@
       <c r="AH38" s="82"/>
       <c r="AI38" s="75"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="83"/>
       <c r="S39" s="75"/>
       <c r="T39" s="76"/>
@@ -9690,7 +9684,7 @@
       <c r="AH39" s="82"/>
       <c r="AI39" s="75"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="75"/>
       <c r="T40" s="75"/>
       <c r="U40" s="75"/>
@@ -9709,7 +9703,7 @@
       <c r="AH40" s="82"/>
       <c r="AI40" s="75"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="72"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -9723,37 +9717,37 @@
       <c r="AH41" s="82"/>
       <c r="AI41" s="75"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="75"/>
       <c r="AF42" s="80"/>
       <c r="AG42" s="81"/>
       <c r="AH42" s="82"/>
       <c r="AI42" s="75"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="75"/>
       <c r="AF43" s="80"/>
       <c r="AG43" s="80"/>
       <c r="AH43" s="82"/>
       <c r="AI43" s="75"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="72"/>
       <c r="AF44" s="84"/>
       <c r="AG44" s="84"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="72"/>
       <c r="AG45" s="84"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="84"/>
       <c r="AG46" s="84"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="84"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="V48" s="72"/>
@@ -9766,7 +9760,7 @@
       <c r="AC48" s="72"/>
       <c r="AD48" s="72"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="72"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
@@ -9781,10 +9775,10 @@
       <c r="AD49" s="72"/>
       <c r="AG49" s="84"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="72"/>
     </row>
-    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -9817,7 +9811,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="83"/>
     </row>
-    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -9890,7 +9884,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" style="7" customWidth="1"/>
@@ -9899,7 +9893,7 @@
     <col min="19" max="16384" width="4.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="136" t="s">
         <v>36</v>
       </c>
@@ -9947,17 +9941,17 @@
       <c r="AD1" s="113"/>
       <c r="AE1" s="113"/>
       <c r="AF1" s="114"/>
-      <c r="AG1" s="270">
+      <c r="AG1" s="252">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
-    <row r="2" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="136" t="s">
         <v>7</v>
       </c>
@@ -10000,17 +9994,17 @@
       <c r="AD2" s="113"/>
       <c r="AE2" s="113"/>
       <c r="AF2" s="114"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AG2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
-    <row r="3" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="136" t="s">
         <v>8</v>
       </c>
@@ -10051,68 +10045,68 @@
       <c r="AD3" s="113"/>
       <c r="AE3" s="113"/>
       <c r="AF3" s="114"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
     </row>
-    <row r="5" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="23" customFormat="1">
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="23" customFormat="1">
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
     </row>
-    <row r="7" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="23" customFormat="1">
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="23" customFormat="1">
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="23" customFormat="1">
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="23" customFormat="1">
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="23" customFormat="1">
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="23" customFormat="1">
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="23" customFormat="1">
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="23" customFormat="1">
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="23" customFormat="1">
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="23" customFormat="1">
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="2:61" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:61" ht="12" customHeight="1">
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="V17" s="9"/>
@@ -10128,7 +10122,7 @@
       <c r="BH17" s="27"/>
       <c r="BI17" s="25"/>
     </row>
-    <row r="18" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="B18" s="302" t="s">
         <v>90</v>
       </c>
@@ -10137,56 +10131,56 @@
       </c>
       <c r="D18" s="256"/>
       <c r="E18" s="256"/>
-      <c r="F18" s="278" t="s">
+      <c r="F18" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="278"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="278"/>
-      <c r="K18" s="278"/>
-      <c r="L18" s="278"/>
-      <c r="M18" s="263" t="s">
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="262"/>
+      <c r="M18" s="295" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="264"/>
-      <c r="O18" s="257" t="s">
+      <c r="N18" s="296"/>
+      <c r="O18" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="258"/>
-      <c r="S18" s="259"/>
+      <c r="P18" s="290"/>
+      <c r="Q18" s="290"/>
+      <c r="R18" s="290"/>
+      <c r="S18" s="291"/>
       <c r="T18" s="256" t="s">
         <v>16</v>
       </c>
       <c r="U18" s="256"/>
-      <c r="V18" s="263" t="s">
+      <c r="V18" s="295" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="267"/>
-      <c r="X18" s="267"/>
-      <c r="Y18" s="264"/>
+      <c r="W18" s="299"/>
+      <c r="X18" s="299"/>
+      <c r="Y18" s="296"/>
       <c r="Z18" s="256" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AA18" s="256"/>
-      <c r="AB18" s="257" t="s">
+      <c r="AB18" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="AC18" s="258"/>
-      <c r="AD18" s="259"/>
-      <c r="AE18" s="298" t="s">
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="291"/>
+      <c r="AE18" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="AF18" s="300"/>
-      <c r="AG18" s="300"/>
-      <c r="AH18" s="300"/>
-      <c r="AI18" s="300"/>
-      <c r="AJ18" s="300"/>
-      <c r="AK18" s="300"/>
-      <c r="AL18" s="300"/>
-      <c r="AM18" s="299"/>
+      <c r="AF18" s="301"/>
+      <c r="AG18" s="301"/>
+      <c r="AH18" s="301"/>
+      <c r="AI18" s="301"/>
+      <c r="AJ18" s="301"/>
+      <c r="AK18" s="301"/>
+      <c r="AL18" s="301"/>
+      <c r="AM18" s="286"/>
       <c r="AN18" s="256" t="s">
         <v>0</v>
       </c>
@@ -10214,41 +10208,41 @@
       <c r="BF18" s="256"/>
       <c r="BG18" s="26"/>
     </row>
-    <row r="19" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="B19" s="303"/>
       <c r="C19" s="256"/>
       <c r="D19" s="256"/>
       <c r="E19" s="256"/>
-      <c r="F19" s="278"/>
-      <c r="G19" s="278"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="278"/>
-      <c r="J19" s="278"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="278"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="260"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="262"/>
+      <c r="M19" s="297"/>
+      <c r="N19" s="298"/>
+      <c r="O19" s="292"/>
+      <c r="P19" s="293"/>
+      <c r="Q19" s="293"/>
+      <c r="R19" s="293"/>
+      <c r="S19" s="294"/>
       <c r="T19" s="256"/>
       <c r="U19" s="256"/>
-      <c r="V19" s="265"/>
-      <c r="W19" s="268"/>
-      <c r="X19" s="268"/>
-      <c r="Y19" s="266"/>
+      <c r="V19" s="297"/>
+      <c r="W19" s="300"/>
+      <c r="X19" s="300"/>
+      <c r="Y19" s="298"/>
       <c r="Z19" s="256"/>
       <c r="AA19" s="256"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="262"/>
-      <c r="AE19" s="298" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF19" s="300"/>
-      <c r="AG19" s="299"/>
+      <c r="AB19" s="292"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="294"/>
+      <c r="AE19" s="285" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF19" s="301"/>
+      <c r="AG19" s="286"/>
       <c r="AH19" s="256" t="s">
         <v>32</v>
       </c>
@@ -10257,10 +10251,10 @@
       <c r="AK19" s="256"/>
       <c r="AL19" s="256"/>
       <c r="AM19" s="256"/>
-      <c r="AN19" s="298" t="s">
+      <c r="AN19" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="AO19" s="299"/>
+      <c r="AO19" s="286"/>
       <c r="AP19" s="256" t="s">
         <v>14</v>
       </c>
@@ -10282,893 +10276,893 @@
       <c r="BF19" s="256"/>
       <c r="BG19" s="26"/>
     </row>
-    <row r="20" spans="2:61" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:61" ht="37.5" customHeight="1">
       <c r="B20" s="92">
         <v>1</v>
       </c>
-      <c r="C20" s="273" t="s">
+      <c r="C20" s="255" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="273"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273" t="s">
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="273"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="273"/>
-      <c r="J20" s="273"/>
-      <c r="K20" s="273"/>
-      <c r="L20" s="273"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="255"/>
       <c r="M20" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="105"/>
-      <c r="O20" s="244" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="245"/>
-      <c r="Q20" s="245"/>
-      <c r="R20" s="245"/>
-      <c r="S20" s="246"/>
-      <c r="T20" s="243" t="s">
+      <c r="O20" s="240" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="241"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="242"/>
+      <c r="T20" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U20" s="243"/>
-      <c r="V20" s="244" t="s">
+      <c r="U20" s="239"/>
+      <c r="V20" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="245"/>
-      <c r="X20" s="245"/>
-      <c r="Y20" s="246"/>
-      <c r="Z20" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA20" s="273"/>
-      <c r="AB20" s="244" t="s">
+      <c r="W20" s="241"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="242"/>
+      <c r="Z20" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA20" s="255"/>
+      <c r="AB20" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC20" s="245"/>
-      <c r="AD20" s="246"/>
-      <c r="AE20" s="280" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF20" s="281"/>
-      <c r="AG20" s="282"/>
-      <c r="AH20" s="244" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI20" s="245"/>
-      <c r="AJ20" s="245"/>
-      <c r="AK20" s="245"/>
-      <c r="AL20" s="245"/>
-      <c r="AM20" s="246"/>
-      <c r="AN20" s="283">
+      <c r="AC20" s="241"/>
+      <c r="AD20" s="242"/>
+      <c r="AE20" s="264" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF20" s="265"/>
+      <c r="AG20" s="266"/>
+      <c r="AH20" s="240" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI20" s="241"/>
+      <c r="AJ20" s="241"/>
+      <c r="AK20" s="241"/>
+      <c r="AL20" s="241"/>
+      <c r="AM20" s="242"/>
+      <c r="AN20" s="267">
         <v>711</v>
       </c>
-      <c r="AO20" s="284"/>
-      <c r="AP20" s="285">
+      <c r="AO20" s="268"/>
+      <c r="AP20" s="269">
         <v>100000</v>
       </c>
-      <c r="AQ20" s="285"/>
-      <c r="AR20" s="285"/>
-      <c r="AS20" s="285"/>
-      <c r="AT20" s="291" t="s">
+      <c r="AQ20" s="269"/>
+      <c r="AR20" s="269"/>
+      <c r="AS20" s="269"/>
+      <c r="AT20" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="AU20" s="291"/>
-      <c r="AV20" s="291"/>
-      <c r="AW20" s="291"/>
-      <c r="AX20" s="273" t="s">
+      <c r="AU20" s="278"/>
+      <c r="AV20" s="278"/>
+      <c r="AW20" s="278"/>
+      <c r="AX20" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="AY20" s="273"/>
-      <c r="AZ20" s="273"/>
-      <c r="BA20" s="273"/>
-      <c r="BB20" s="273"/>
-      <c r="BC20" s="273"/>
-      <c r="BD20" s="273"/>
-      <c r="BE20" s="273"/>
-      <c r="BF20" s="273"/>
+      <c r="AY20" s="255"/>
+      <c r="AZ20" s="255"/>
+      <c r="BA20" s="255"/>
+      <c r="BB20" s="255"/>
+      <c r="BC20" s="255"/>
+      <c r="BD20" s="255"/>
+      <c r="BE20" s="255"/>
+      <c r="BF20" s="255"/>
       <c r="BG20" s="27"/>
     </row>
-    <row r="21" spans="2:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:61" ht="11.25" customHeight="1">
       <c r="B21" s="93">
         <v>2</v>
       </c>
-      <c r="C21" s="274" t="s">
+      <c r="C21" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="274"/>
-      <c r="F21" s="269" t="s">
+      <c r="D21" s="257"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="269"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="269"/>
-      <c r="J21" s="269"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="276" t="s">
+      <c r="G21" s="258"/>
+      <c r="H21" s="258"/>
+      <c r="I21" s="258"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="277"/>
-      <c r="O21" s="240" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="242"/>
-      <c r="T21" s="275" t="s">
+      <c r="N21" s="261"/>
+      <c r="O21" s="271" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="272"/>
+      <c r="Q21" s="272"/>
+      <c r="R21" s="272"/>
+      <c r="S21" s="273"/>
+      <c r="T21" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="275"/>
-      <c r="V21" s="240" t="s">
+      <c r="U21" s="259"/>
+      <c r="V21" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="W21" s="241"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="242"/>
-      <c r="Z21" s="274" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA21" s="274"/>
-      <c r="AB21" s="240" t="s">
+      <c r="W21" s="272"/>
+      <c r="X21" s="272"/>
+      <c r="Y21" s="273"/>
+      <c r="Z21" s="257" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA21" s="257"/>
+      <c r="AB21" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="AC21" s="241"/>
-      <c r="AD21" s="242"/>
-      <c r="AE21" s="295" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF21" s="296"/>
-      <c r="AG21" s="297"/>
-      <c r="AH21" s="274" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI21" s="274"/>
-      <c r="AJ21" s="274"/>
-      <c r="AK21" s="274"/>
-      <c r="AL21" s="274"/>
-      <c r="AM21" s="274"/>
-      <c r="AN21" s="287">
+      <c r="AC21" s="272"/>
+      <c r="AD21" s="273"/>
+      <c r="AE21" s="282" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF21" s="283"/>
+      <c r="AG21" s="284"/>
+      <c r="AH21" s="257" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI21" s="257"/>
+      <c r="AJ21" s="257"/>
+      <c r="AK21" s="257"/>
+      <c r="AL21" s="257"/>
+      <c r="AM21" s="257"/>
+      <c r="AN21" s="274">
         <v>1500</v>
       </c>
-      <c r="AO21" s="288"/>
-      <c r="AP21" s="286" t="s">
+      <c r="AO21" s="275"/>
+      <c r="AP21" s="270" t="s">
         <v>91</v>
       </c>
-      <c r="AQ21" s="286"/>
-      <c r="AR21" s="286"/>
-      <c r="AS21" s="286"/>
-      <c r="AT21" s="290" t="s">
+      <c r="AQ21" s="270"/>
+      <c r="AR21" s="270"/>
+      <c r="AS21" s="270"/>
+      <c r="AT21" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="AU21" s="290"/>
-      <c r="AV21" s="290"/>
-      <c r="AW21" s="290"/>
-      <c r="AX21" s="274"/>
-      <c r="AY21" s="274"/>
-      <c r="AZ21" s="274"/>
-      <c r="BA21" s="274"/>
-      <c r="BB21" s="274"/>
-      <c r="BC21" s="274"/>
-      <c r="BD21" s="274"/>
-      <c r="BE21" s="274"/>
-      <c r="BF21" s="274"/>
-    </row>
-    <row r="22" spans="2:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU21" s="277"/>
+      <c r="AV21" s="277"/>
+      <c r="AW21" s="277"/>
+      <c r="AX21" s="257"/>
+      <c r="AY21" s="257"/>
+      <c r="AZ21" s="257"/>
+      <c r="BA21" s="257"/>
+      <c r="BB21" s="257"/>
+      <c r="BC21" s="257"/>
+      <c r="BD21" s="257"/>
+      <c r="BE21" s="257"/>
+      <c r="BF21" s="257"/>
+    </row>
+    <row r="22" spans="2:61" ht="11.25" customHeight="1">
       <c r="B22" s="93">
         <v>3</v>
       </c>
-      <c r="C22" s="253" t="s">
+      <c r="C22" s="249" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="254"/>
-      <c r="E22" s="255"/>
-      <c r="F22" s="269" t="s">
+      <c r="D22" s="250"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="269"/>
-      <c r="H22" s="269"/>
-      <c r="I22" s="269"/>
-      <c r="J22" s="269"/>
-      <c r="K22" s="269"/>
-      <c r="L22" s="269"/>
-      <c r="M22" s="276" t="s">
+      <c r="G22" s="258"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
+      <c r="M22" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="277"/>
-      <c r="O22" s="253" t="s">
-        <v>126</v>
-      </c>
-      <c r="P22" s="254"/>
-      <c r="Q22" s="254"/>
-      <c r="R22" s="254"/>
-      <c r="S22" s="255"/>
-      <c r="T22" s="239" t="s">
+      <c r="N22" s="261"/>
+      <c r="O22" s="249" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="250"/>
+      <c r="Q22" s="250"/>
+      <c r="R22" s="250"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="288" t="s">
         <v>59</v>
       </c>
-      <c r="U22" s="239"/>
-      <c r="V22" s="253" t="s">
+      <c r="U22" s="288"/>
+      <c r="V22" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="W22" s="254"/>
-      <c r="X22" s="254"/>
-      <c r="Y22" s="255"/>
-      <c r="Z22" s="269" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA22" s="269"/>
-      <c r="AB22" s="253" t="s">
+      <c r="W22" s="250"/>
+      <c r="X22" s="250"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="258" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="AC22" s="254"/>
-      <c r="AD22" s="255"/>
-      <c r="AE22" s="292" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF22" s="293"/>
-      <c r="AG22" s="294"/>
-      <c r="AH22" s="269" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI22" s="269"/>
-      <c r="AJ22" s="269"/>
-      <c r="AK22" s="269"/>
-      <c r="AL22" s="269"/>
-      <c r="AM22" s="269"/>
-      <c r="AN22" s="287">
+      <c r="AC22" s="250"/>
+      <c r="AD22" s="251"/>
+      <c r="AE22" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF22" s="280"/>
+      <c r="AG22" s="281"/>
+      <c r="AH22" s="258" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI22" s="258"/>
+      <c r="AJ22" s="258"/>
+      <c r="AK22" s="258"/>
+      <c r="AL22" s="258"/>
+      <c r="AM22" s="258"/>
+      <c r="AN22" s="274">
         <v>2000</v>
       </c>
-      <c r="AO22" s="288"/>
-      <c r="AP22" s="289" t="s">
+      <c r="AO22" s="275"/>
+      <c r="AP22" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="AQ22" s="289"/>
-      <c r="AR22" s="289"/>
-      <c r="AS22" s="289"/>
-      <c r="AT22" s="290" t="s">
+      <c r="AQ22" s="276"/>
+      <c r="AR22" s="276"/>
+      <c r="AS22" s="276"/>
+      <c r="AT22" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="AU22" s="290"/>
-      <c r="AV22" s="290"/>
-      <c r="AW22" s="290"/>
-      <c r="AX22" s="269" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY22" s="269"/>
-      <c r="AZ22" s="269"/>
-      <c r="BA22" s="269"/>
-      <c r="BB22" s="269"/>
-      <c r="BC22" s="269"/>
-      <c r="BD22" s="269"/>
-      <c r="BE22" s="269"/>
-      <c r="BF22" s="269"/>
-    </row>
-    <row r="23" spans="2:61" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU22" s="277"/>
+      <c r="AV22" s="277"/>
+      <c r="AW22" s="277"/>
+      <c r="AX22" s="258" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY22" s="258"/>
+      <c r="AZ22" s="258"/>
+      <c r="BA22" s="258"/>
+      <c r="BB22" s="258"/>
+      <c r="BC22" s="258"/>
+      <c r="BD22" s="258"/>
+      <c r="BE22" s="258"/>
+      <c r="BF22" s="258"/>
+    </row>
+    <row r="23" spans="2:61" ht="22.5" customHeight="1">
       <c r="B23" s="92">
         <v>4</v>
       </c>
-      <c r="C23" s="273" t="s">
+      <c r="C23" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="273"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="273" t="s">
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="273"/>
-      <c r="H23" s="273"/>
-      <c r="I23" s="273"/>
-      <c r="J23" s="273"/>
-      <c r="K23" s="273"/>
-      <c r="L23" s="273"/>
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="255"/>
+      <c r="L23" s="255"/>
       <c r="M23" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="105"/>
-      <c r="O23" s="244" t="s">
-        <v>127</v>
-      </c>
-      <c r="P23" s="245"/>
-      <c r="Q23" s="245"/>
-      <c r="R23" s="245"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="243" t="s">
+      <c r="O23" s="240" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="239" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="243"/>
-      <c r="V23" s="248" t="s">
+      <c r="U23" s="239"/>
+      <c r="V23" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="W23" s="249"/>
-      <c r="X23" s="249"/>
-      <c r="Y23" s="250"/>
-      <c r="Z23" s="273" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA23" s="273"/>
-      <c r="AB23" s="244" t="s">
+      <c r="W23" s="245"/>
+      <c r="X23" s="245"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="255" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA23" s="255"/>
+      <c r="AB23" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="AC23" s="245"/>
-      <c r="AD23" s="246"/>
-      <c r="AE23" s="280" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF23" s="281"/>
-      <c r="AG23" s="282"/>
-      <c r="AH23" s="244" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI23" s="245"/>
-      <c r="AJ23" s="245"/>
-      <c r="AK23" s="245"/>
-      <c r="AL23" s="245"/>
-      <c r="AM23" s="246"/>
-      <c r="AN23" s="283">
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="264" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF23" s="265"/>
+      <c r="AG23" s="266"/>
+      <c r="AH23" s="240" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI23" s="241"/>
+      <c r="AJ23" s="241"/>
+      <c r="AK23" s="241"/>
+      <c r="AL23" s="241"/>
+      <c r="AM23" s="242"/>
+      <c r="AN23" s="267">
         <v>520</v>
       </c>
-      <c r="AO23" s="284"/>
-      <c r="AP23" s="285">
+      <c r="AO23" s="268"/>
+      <c r="AP23" s="269">
         <v>2000</v>
       </c>
-      <c r="AQ23" s="285"/>
-      <c r="AR23" s="285"/>
-      <c r="AS23" s="285"/>
-      <c r="AT23" s="291" t="s">
+      <c r="AQ23" s="269"/>
+      <c r="AR23" s="269"/>
+      <c r="AS23" s="269"/>
+      <c r="AT23" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU23" s="291"/>
-      <c r="AV23" s="291"/>
-      <c r="AW23" s="291"/>
-      <c r="AX23" s="273" t="s">
+      <c r="AU23" s="278"/>
+      <c r="AV23" s="278"/>
+      <c r="AW23" s="278"/>
+      <c r="AX23" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="AY23" s="273"/>
-      <c r="AZ23" s="273"/>
-      <c r="BA23" s="273"/>
-      <c r="BB23" s="273"/>
-      <c r="BC23" s="273"/>
-      <c r="BD23" s="273"/>
-      <c r="BE23" s="273"/>
-      <c r="BF23" s="273"/>
-    </row>
-    <row r="24" spans="2:61" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY23" s="255"/>
+      <c r="AZ23" s="255"/>
+      <c r="BA23" s="255"/>
+      <c r="BB23" s="255"/>
+      <c r="BC23" s="255"/>
+      <c r="BD23" s="255"/>
+      <c r="BE23" s="255"/>
+      <c r="BF23" s="255"/>
+    </row>
+    <row r="24" spans="2:61" ht="45" customHeight="1">
       <c r="B24" s="92">
         <v>5</v>
       </c>
-      <c r="C24" s="273" t="s">
+      <c r="C24" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273" t="s">
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="273"/>
-      <c r="H24" s="273"/>
-      <c r="I24" s="273"/>
-      <c r="J24" s="273"/>
-      <c r="K24" s="273"/>
-      <c r="L24" s="273"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="255"/>
+      <c r="L24" s="255"/>
       <c r="M24" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="105"/>
-      <c r="O24" s="244" t="s">
-        <v>128</v>
-      </c>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="245"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="243" t="s">
+      <c r="O24" s="240" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="242"/>
+      <c r="T24" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U24" s="243"/>
-      <c r="V24" s="244" t="s">
+      <c r="U24" s="239"/>
+      <c r="V24" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W24" s="245"/>
-      <c r="X24" s="245"/>
-      <c r="Y24" s="246"/>
-      <c r="Z24" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA24" s="273"/>
-      <c r="AB24" s="244" t="s">
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="242"/>
+      <c r="Z24" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA24" s="255"/>
+      <c r="AB24" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC24" s="245"/>
-      <c r="AD24" s="246"/>
-      <c r="AE24" s="280" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF24" s="281"/>
-      <c r="AG24" s="282"/>
-      <c r="AH24" s="273" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI24" s="273"/>
-      <c r="AJ24" s="273"/>
-      <c r="AK24" s="273"/>
-      <c r="AL24" s="273"/>
-      <c r="AM24" s="273"/>
-      <c r="AN24" s="283">
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="242"/>
+      <c r="AE24" s="264" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF24" s="265"/>
+      <c r="AG24" s="266"/>
+      <c r="AH24" s="255" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI24" s="255"/>
+      <c r="AJ24" s="255"/>
+      <c r="AK24" s="255"/>
+      <c r="AL24" s="255"/>
+      <c r="AM24" s="255"/>
+      <c r="AN24" s="267">
         <v>1200</v>
       </c>
-      <c r="AO24" s="284"/>
-      <c r="AP24" s="285">
+      <c r="AO24" s="268"/>
+      <c r="AP24" s="269">
         <v>1200000</v>
       </c>
-      <c r="AQ24" s="285"/>
-      <c r="AR24" s="285"/>
-      <c r="AS24" s="285"/>
-      <c r="AT24" s="291" t="s">
+      <c r="AQ24" s="269"/>
+      <c r="AR24" s="269"/>
+      <c r="AS24" s="269"/>
+      <c r="AT24" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU24" s="291"/>
-      <c r="AV24" s="291"/>
-      <c r="AW24" s="291"/>
-      <c r="AX24" s="273" t="s">
+      <c r="AU24" s="278"/>
+      <c r="AV24" s="278"/>
+      <c r="AW24" s="278"/>
+      <c r="AX24" s="255" t="s">
         <v>68</v>
       </c>
-      <c r="AY24" s="273"/>
-      <c r="AZ24" s="273"/>
-      <c r="BA24" s="273"/>
-      <c r="BB24" s="273"/>
-      <c r="BC24" s="273"/>
-      <c r="BD24" s="273"/>
-      <c r="BE24" s="273"/>
-      <c r="BF24" s="273"/>
-    </row>
-    <row r="25" spans="2:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY24" s="255"/>
+      <c r="AZ24" s="255"/>
+      <c r="BA24" s="255"/>
+      <c r="BB24" s="255"/>
+      <c r="BC24" s="255"/>
+      <c r="BD24" s="255"/>
+      <c r="BE24" s="255"/>
+      <c r="BF24" s="255"/>
+    </row>
+    <row r="25" spans="2:61" ht="11.25" customHeight="1">
       <c r="B25" s="92">
         <v>6</v>
       </c>
-      <c r="C25" s="273" t="s">
+      <c r="C25" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="273"/>
-      <c r="E25" s="273"/>
-      <c r="F25" s="273" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="273"/>
-      <c r="H25" s="273"/>
-      <c r="I25" s="273"/>
-      <c r="J25" s="273"/>
-      <c r="K25" s="273"/>
-      <c r="L25" s="273"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="255"/>
       <c r="M25" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="105"/>
-      <c r="O25" s="244" t="s">
-        <v>129</v>
-      </c>
-      <c r="P25" s="245"/>
-      <c r="Q25" s="245"/>
-      <c r="R25" s="245"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="243" t="s">
+      <c r="O25" s="240" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U25" s="243"/>
-      <c r="V25" s="244" t="s">
+      <c r="U25" s="239"/>
+      <c r="V25" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W25" s="245"/>
-      <c r="X25" s="245"/>
-      <c r="Y25" s="246"/>
-      <c r="Z25" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA25" s="273"/>
-      <c r="AB25" s="244" t="s">
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA25" s="255"/>
+      <c r="AB25" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC25" s="245"/>
-      <c r="AD25" s="246"/>
-      <c r="AE25" s="280" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF25" s="281"/>
-      <c r="AG25" s="282"/>
-      <c r="AH25" s="273" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI25" s="273"/>
-      <c r="AJ25" s="273"/>
-      <c r="AK25" s="273"/>
-      <c r="AL25" s="273"/>
-      <c r="AM25" s="273"/>
-      <c r="AN25" s="283">
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="242"/>
+      <c r="AE25" s="264" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF25" s="265"/>
+      <c r="AG25" s="266"/>
+      <c r="AH25" s="255" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI25" s="255"/>
+      <c r="AJ25" s="255"/>
+      <c r="AK25" s="255"/>
+      <c r="AL25" s="255"/>
+      <c r="AM25" s="255"/>
+      <c r="AN25" s="267">
         <v>500</v>
       </c>
-      <c r="AO25" s="284"/>
-      <c r="AP25" s="285">
+      <c r="AO25" s="268"/>
+      <c r="AP25" s="269">
         <v>23000</v>
       </c>
-      <c r="AQ25" s="285"/>
-      <c r="AR25" s="285"/>
-      <c r="AS25" s="285"/>
-      <c r="AT25" s="291" t="s">
+      <c r="AQ25" s="269"/>
+      <c r="AR25" s="269"/>
+      <c r="AS25" s="269"/>
+      <c r="AT25" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU25" s="291"/>
-      <c r="AV25" s="291"/>
-      <c r="AW25" s="291"/>
-      <c r="AX25" s="273"/>
-      <c r="AY25" s="273"/>
-      <c r="AZ25" s="273"/>
-      <c r="BA25" s="273"/>
-      <c r="BB25" s="273"/>
-      <c r="BC25" s="273"/>
-      <c r="BD25" s="273"/>
-      <c r="BE25" s="273"/>
-      <c r="BF25" s="273"/>
-    </row>
-    <row r="26" spans="2:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU25" s="278"/>
+      <c r="AV25" s="278"/>
+      <c r="AW25" s="278"/>
+      <c r="AX25" s="255"/>
+      <c r="AY25" s="255"/>
+      <c r="AZ25" s="255"/>
+      <c r="BA25" s="255"/>
+      <c r="BB25" s="255"/>
+      <c r="BC25" s="255"/>
+      <c r="BD25" s="255"/>
+      <c r="BE25" s="255"/>
+      <c r="BF25" s="255"/>
+    </row>
+    <row r="26" spans="2:61" ht="11.25" customHeight="1">
       <c r="B26" s="92">
         <v>7</v>
       </c>
-      <c r="C26" s="273" t="s">
+      <c r="C26" s="255" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="273"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="273"/>
-      <c r="H26" s="273"/>
-      <c r="I26" s="273"/>
-      <c r="J26" s="273"/>
-      <c r="K26" s="273"/>
-      <c r="L26" s="273"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="255"/>
+      <c r="L26" s="255"/>
       <c r="M26" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="105"/>
-      <c r="O26" s="244" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="245"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="243" t="s">
+      <c r="O26" s="240" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U26" s="243"/>
-      <c r="V26" s="244" t="s">
+      <c r="U26" s="239"/>
+      <c r="V26" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W26" s="245"/>
-      <c r="X26" s="245"/>
-      <c r="Y26" s="246"/>
-      <c r="Z26" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA26" s="273"/>
-      <c r="AB26" s="244" t="s">
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA26" s="255"/>
+      <c r="AB26" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC26" s="245"/>
-      <c r="AD26" s="246"/>
-      <c r="AE26" s="280" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF26" s="281"/>
-      <c r="AG26" s="282"/>
-      <c r="AH26" s="273" t="s">
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="264" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF26" s="265"/>
+      <c r="AG26" s="266"/>
+      <c r="AH26" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="273"/>
-      <c r="AJ26" s="273"/>
-      <c r="AK26" s="273"/>
-      <c r="AL26" s="273"/>
-      <c r="AM26" s="273"/>
-      <c r="AN26" s="283">
+      <c r="AI26" s="255"/>
+      <c r="AJ26" s="255"/>
+      <c r="AK26" s="255"/>
+      <c r="AL26" s="255"/>
+      <c r="AM26" s="255"/>
+      <c r="AN26" s="267">
         <v>500</v>
       </c>
-      <c r="AO26" s="284"/>
-      <c r="AP26" s="285">
+      <c r="AO26" s="268"/>
+      <c r="AP26" s="269">
         <v>16000</v>
       </c>
-      <c r="AQ26" s="285"/>
-      <c r="AR26" s="285"/>
-      <c r="AS26" s="285"/>
-      <c r="AT26" s="291" t="s">
+      <c r="AQ26" s="269"/>
+      <c r="AR26" s="269"/>
+      <c r="AS26" s="269"/>
+      <c r="AT26" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU26" s="291"/>
-      <c r="AV26" s="291"/>
-      <c r="AW26" s="291"/>
-      <c r="AX26" s="273"/>
-      <c r="AY26" s="273"/>
-      <c r="AZ26" s="273"/>
-      <c r="BA26" s="273"/>
-      <c r="BB26" s="273"/>
-      <c r="BC26" s="273"/>
-      <c r="BD26" s="273"/>
-      <c r="BE26" s="273"/>
-      <c r="BF26" s="273"/>
-    </row>
-    <row r="27" spans="2:61" s="29" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU26" s="278"/>
+      <c r="AV26" s="278"/>
+      <c r="AW26" s="278"/>
+      <c r="AX26" s="255"/>
+      <c r="AY26" s="255"/>
+      <c r="AZ26" s="255"/>
+      <c r="BA26" s="255"/>
+      <c r="BB26" s="255"/>
+      <c r="BC26" s="255"/>
+      <c r="BD26" s="255"/>
+      <c r="BE26" s="255"/>
+      <c r="BF26" s="255"/>
+    </row>
+    <row r="27" spans="2:61" s="29" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="92">
         <v>8</v>
       </c>
-      <c r="C27" s="273" t="s">
+      <c r="C27" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="279" t="s">
+      <c r="D27" s="255"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="263" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="279"/>
-      <c r="L27" s="279"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="263"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
       <c r="M27" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N27" s="105"/>
-      <c r="O27" s="248" t="s">
-        <v>131</v>
-      </c>
-      <c r="P27" s="249"/>
-      <c r="Q27" s="249"/>
-      <c r="R27" s="249"/>
-      <c r="S27" s="250"/>
-      <c r="T27" s="247" t="s">
+      <c r="O27" s="244" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="245"/>
+      <c r="Q27" s="245"/>
+      <c r="R27" s="245"/>
+      <c r="S27" s="246"/>
+      <c r="T27" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="247"/>
-      <c r="V27" s="248" t="s">
+      <c r="U27" s="243"/>
+      <c r="V27" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="W27" s="249"/>
-      <c r="X27" s="249"/>
-      <c r="Y27" s="250"/>
-      <c r="Z27" s="279" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA27" s="279"/>
-      <c r="AB27" s="248" t="s">
+      <c r="W27" s="245"/>
+      <c r="X27" s="245"/>
+      <c r="Y27" s="246"/>
+      <c r="Z27" s="263" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA27" s="263"/>
+      <c r="AB27" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="AC27" s="249"/>
-      <c r="AD27" s="250"/>
-      <c r="AE27" s="280" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="282"/>
-      <c r="AH27" s="279" t="s">
+      <c r="AC27" s="245"/>
+      <c r="AD27" s="246"/>
+      <c r="AE27" s="264" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF27" s="265"/>
+      <c r="AG27" s="266"/>
+      <c r="AH27" s="263" t="s">
         <v>61</v>
       </c>
-      <c r="AI27" s="279"/>
-      <c r="AJ27" s="279"/>
-      <c r="AK27" s="279"/>
-      <c r="AL27" s="279"/>
-      <c r="AM27" s="279"/>
-      <c r="AN27" s="283">
+      <c r="AI27" s="263"/>
+      <c r="AJ27" s="263"/>
+      <c r="AK27" s="263"/>
+      <c r="AL27" s="263"/>
+      <c r="AM27" s="263"/>
+      <c r="AN27" s="267">
         <v>2000</v>
       </c>
-      <c r="AO27" s="284"/>
-      <c r="AP27" s="285">
+      <c r="AO27" s="268"/>
+      <c r="AP27" s="269">
         <v>10000</v>
       </c>
-      <c r="AQ27" s="285"/>
-      <c r="AR27" s="285"/>
-      <c r="AS27" s="285"/>
-      <c r="AT27" s="291" t="s">
+      <c r="AQ27" s="269"/>
+      <c r="AR27" s="269"/>
+      <c r="AS27" s="269"/>
+      <c r="AT27" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU27" s="291"/>
-      <c r="AV27" s="291"/>
-      <c r="AW27" s="291"/>
-      <c r="AX27" s="279" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY27" s="279"/>
-      <c r="AZ27" s="279"/>
-      <c r="BA27" s="279"/>
-      <c r="BB27" s="279"/>
-      <c r="BC27" s="279"/>
-      <c r="BD27" s="279"/>
-      <c r="BE27" s="279"/>
-      <c r="BF27" s="279"/>
-    </row>
-    <row r="28" spans="2:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU27" s="278"/>
+      <c r="AV27" s="278"/>
+      <c r="AW27" s="278"/>
+      <c r="AX27" s="263" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY27" s="263"/>
+      <c r="AZ27" s="263"/>
+      <c r="BA27" s="263"/>
+      <c r="BB27" s="263"/>
+      <c r="BC27" s="263"/>
+      <c r="BD27" s="263"/>
+      <c r="BE27" s="263"/>
+      <c r="BF27" s="263"/>
+    </row>
+    <row r="28" spans="2:61" ht="11.25" customHeight="1">
       <c r="B28" s="92">
         <v>9</v>
       </c>
-      <c r="C28" s="244" t="s">
+      <c r="C28" s="240" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="245"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="244" t="s">
+      <c r="D28" s="241"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="240" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="245"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="245"/>
-      <c r="J28" s="245"/>
-      <c r="K28" s="245"/>
-      <c r="L28" s="246"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="242"/>
       <c r="M28" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N28" s="105"/>
-      <c r="O28" s="244" t="s">
+      <c r="O28" s="240" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="245"/>
-      <c r="Q28" s="245"/>
-      <c r="R28" s="245"/>
-      <c r="S28" s="246"/>
-      <c r="T28" s="251" t="s">
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="242"/>
+      <c r="T28" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="U28" s="252"/>
-      <c r="V28" s="244" t="s">
+      <c r="U28" s="248"/>
+      <c r="V28" s="240" t="s">
         <v>76</v>
       </c>
-      <c r="W28" s="245"/>
-      <c r="X28" s="245"/>
-      <c r="Y28" s="246"/>
-      <c r="Z28" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA28" s="273"/>
-      <c r="AB28" s="244" t="s">
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="242"/>
+      <c r="Z28" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA28" s="255"/>
+      <c r="AB28" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC28" s="245"/>
-      <c r="AD28" s="246"/>
-      <c r="AE28" s="280" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF28" s="281"/>
-      <c r="AG28" s="282"/>
-      <c r="AH28" s="244" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI28" s="245"/>
-      <c r="AJ28" s="245"/>
-      <c r="AK28" s="245"/>
-      <c r="AL28" s="245"/>
-      <c r="AM28" s="246"/>
-      <c r="AN28" s="283">
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="242"/>
+      <c r="AE28" s="264" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF28" s="265"/>
+      <c r="AG28" s="266"/>
+      <c r="AH28" s="240" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI28" s="241"/>
+      <c r="AJ28" s="241"/>
+      <c r="AK28" s="241"/>
+      <c r="AL28" s="241"/>
+      <c r="AM28" s="242"/>
+      <c r="AN28" s="267">
         <v>230</v>
       </c>
-      <c r="AO28" s="284"/>
-      <c r="AP28" s="283" t="s">
+      <c r="AO28" s="268"/>
+      <c r="AP28" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="AQ28" s="301"/>
-      <c r="AR28" s="301"/>
-      <c r="AS28" s="284"/>
-      <c r="AT28" s="291" t="s">
+      <c r="AQ28" s="287"/>
+      <c r="AR28" s="287"/>
+      <c r="AS28" s="268"/>
+      <c r="AT28" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="AU28" s="291"/>
-      <c r="AV28" s="291"/>
-      <c r="AW28" s="291"/>
-      <c r="AX28" s="244"/>
-      <c r="AY28" s="245"/>
-      <c r="AZ28" s="245"/>
-      <c r="BA28" s="245"/>
-      <c r="BB28" s="245"/>
-      <c r="BC28" s="245"/>
-      <c r="BD28" s="245"/>
-      <c r="BE28" s="245"/>
-      <c r="BF28" s="246"/>
-    </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.15">
+      <c r="AU28" s="278"/>
+      <c r="AV28" s="278"/>
+      <c r="AW28" s="278"/>
+      <c r="AX28" s="240"/>
+      <c r="AY28" s="241"/>
+      <c r="AZ28" s="241"/>
+      <c r="BA28" s="241"/>
+      <c r="BB28" s="241"/>
+      <c r="BC28" s="241"/>
+      <c r="BD28" s="241"/>
+      <c r="BE28" s="241"/>
+      <c r="BF28" s="242"/>
+    </row>
+    <row r="29" spans="2:61">
       <c r="B29" s="92">
         <v>10</v>
       </c>
-      <c r="C29" s="273" t="s">
+      <c r="C29" s="255" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="273"/>
-      <c r="E29" s="273"/>
-      <c r="F29" s="273" t="s">
+      <c r="D29" s="255"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="273"/>
-      <c r="H29" s="273"/>
-      <c r="I29" s="273"/>
-      <c r="J29" s="273"/>
-      <c r="K29" s="273"/>
-      <c r="L29" s="273"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="255"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="255"/>
+      <c r="L29" s="255"/>
       <c r="M29" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N29" s="105"/>
-      <c r="O29" s="244" t="s">
+      <c r="O29" s="240" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="245"/>
-      <c r="Q29" s="245"/>
-      <c r="R29" s="245"/>
-      <c r="S29" s="246"/>
-      <c r="T29" s="251" t="s">
+      <c r="P29" s="241"/>
+      <c r="Q29" s="241"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="242"/>
+      <c r="T29" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="U29" s="252"/>
-      <c r="V29" s="244" t="s">
+      <c r="U29" s="248"/>
+      <c r="V29" s="240" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="245"/>
-      <c r="X29" s="245"/>
-      <c r="Y29" s="246"/>
-      <c r="Z29" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA29" s="273"/>
-      <c r="AB29" s="244" t="s">
+      <c r="W29" s="241"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="242"/>
+      <c r="Z29" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA29" s="255"/>
+      <c r="AB29" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC29" s="245"/>
-      <c r="AD29" s="246"/>
-      <c r="AE29" s="280" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF29" s="281"/>
-      <c r="AG29" s="282"/>
-      <c r="AH29" s="244" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI29" s="245"/>
-      <c r="AJ29" s="245"/>
-      <c r="AK29" s="245"/>
-      <c r="AL29" s="245"/>
-      <c r="AM29" s="246"/>
-      <c r="AN29" s="283">
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="242"/>
+      <c r="AE29" s="264" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF29" s="265"/>
+      <c r="AG29" s="266"/>
+      <c r="AH29" s="240" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI29" s="241"/>
+      <c r="AJ29" s="241"/>
+      <c r="AK29" s="241"/>
+      <c r="AL29" s="241"/>
+      <c r="AM29" s="242"/>
+      <c r="AN29" s="267">
         <v>750</v>
       </c>
-      <c r="AO29" s="284"/>
-      <c r="AP29" s="285" t="s">
+      <c r="AO29" s="268"/>
+      <c r="AP29" s="269" t="s">
         <v>77</v>
       </c>
-      <c r="AQ29" s="285"/>
-      <c r="AR29" s="285"/>
-      <c r="AS29" s="285"/>
-      <c r="AT29" s="291" t="s">
+      <c r="AQ29" s="269"/>
+      <c r="AR29" s="269"/>
+      <c r="AS29" s="269"/>
+      <c r="AT29" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="AU29" s="291"/>
-      <c r="AV29" s="291"/>
-      <c r="AW29" s="291"/>
-      <c r="AX29" s="273"/>
-      <c r="AY29" s="273"/>
-      <c r="AZ29" s="273"/>
-      <c r="BA29" s="273"/>
-      <c r="BB29" s="273"/>
-      <c r="BC29" s="273"/>
-      <c r="BD29" s="273"/>
-      <c r="BE29" s="273"/>
-      <c r="BF29" s="273"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="AU29" s="278"/>
+      <c r="AV29" s="278"/>
+      <c r="AW29" s="278"/>
+      <c r="AX29" s="255"/>
+      <c r="AY29" s="255"/>
+      <c r="AZ29" s="255"/>
+      <c r="BA29" s="255"/>
+      <c r="BB29" s="255"/>
+      <c r="BC29" s="255"/>
+      <c r="BD29" s="255"/>
+      <c r="BE29" s="255"/>
+      <c r="BF29" s="255"/>
+    </row>
+    <row r="40" spans="2:35">
       <c r="B40" s="87" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:35">
       <c r="B41" s="88" t="s">
         <v>90</v>
       </c>
@@ -11210,7 +11204,7 @@
       <c r="AH41" s="190"/>
       <c r="AI41" s="191"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:35">
       <c r="B42" s="89">
         <v>1</v>
       </c>
@@ -11252,7 +11246,7 @@
       <c r="AH42" s="196"/>
       <c r="AI42" s="197"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:35">
       <c r="B43" s="90">
         <v>2</v>
       </c>
@@ -11294,7 +11288,7 @@
       <c r="AH43" s="196"/>
       <c r="AI43" s="197"/>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35">
       <c r="B44" s="90">
         <v>3</v>
       </c>
@@ -11336,7 +11330,7 @@
       <c r="AH44" s="196"/>
       <c r="AI44" s="197"/>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:35">
       <c r="B45" s="187">
         <v>4</v>
       </c>
@@ -11350,7 +11344,7 @@
       <c r="H45" s="213"/>
       <c r="I45" s="214"/>
       <c r="J45" s="201" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="K45" s="202"/>
       <c r="L45" s="202"/>
@@ -11378,7 +11372,7 @@
       <c r="AH45" s="202"/>
       <c r="AI45" s="203"/>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:35">
       <c r="B46" s="210"/>
       <c r="C46" s="215"/>
       <c r="D46" s="216"/>
@@ -11414,7 +11408,7 @@
       <c r="AH46" s="205"/>
       <c r="AI46" s="206"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:35">
       <c r="B47" s="211"/>
       <c r="C47" s="218"/>
       <c r="D47" s="219"/>
@@ -11450,7 +11444,7 @@
       <c r="AH47" s="208"/>
       <c r="AI47" s="209"/>
     </row>
-    <row r="48" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35" ht="11.25" customHeight="1">
       <c r="B48" s="221">
         <v>5</v>
       </c>
@@ -11464,7 +11458,7 @@
       <c r="H48" s="170"/>
       <c r="I48" s="171"/>
       <c r="J48" s="169" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K48" s="170"/>
       <c r="L48" s="170"/>
@@ -11492,7 +11486,7 @@
       <c r="AH48" s="170"/>
       <c r="AI48" s="171"/>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:35">
       <c r="B49" s="222"/>
       <c r="C49" s="223"/>
       <c r="D49" s="224"/>
@@ -11528,7 +11522,7 @@
       <c r="AH49" s="173"/>
       <c r="AI49" s="174"/>
     </row>
-    <row r="50" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:35" ht="11.25" customHeight="1">
       <c r="B50" s="221">
         <v>6</v>
       </c>
@@ -11542,7 +11536,7 @@
       <c r="H50" s="230"/>
       <c r="I50" s="231"/>
       <c r="J50" s="169" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K50" s="170"/>
       <c r="L50" s="170"/>
@@ -11570,7 +11564,7 @@
       <c r="AH50" s="170"/>
       <c r="AI50" s="171"/>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:35">
       <c r="B51" s="238"/>
       <c r="C51" s="232"/>
       <c r="D51" s="233"/>
@@ -11606,7 +11600,7 @@
       <c r="AH51" s="227"/>
       <c r="AI51" s="228"/>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:35">
       <c r="B52" s="222"/>
       <c r="C52" s="223"/>
       <c r="D52" s="224"/>
@@ -11642,12 +11636,12 @@
       <c r="AH52" s="173"/>
       <c r="AI52" s="174"/>
     </row>
-    <row r="53" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:35" ht="11.25" customHeight="1">
       <c r="B53" s="187">
         <v>7</v>
       </c>
       <c r="C53" s="175" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" s="176"/>
       <c r="E53" s="176"/>
@@ -11656,7 +11650,7 @@
       <c r="H53" s="176"/>
       <c r="I53" s="177"/>
       <c r="J53" s="169" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K53" s="170"/>
       <c r="L53" s="170"/>
@@ -11684,7 +11678,7 @@
       <c r="AH53" s="170"/>
       <c r="AI53" s="171"/>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:35">
       <c r="B54" s="188"/>
       <c r="C54" s="178"/>
       <c r="D54" s="179"/>
@@ -11720,7 +11714,7 @@
       <c r="AH54" s="173"/>
       <c r="AI54" s="174"/>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:35">
       <c r="B55" s="90">
         <v>8</v>
       </c>
@@ -11734,7 +11728,7 @@
       <c r="H55" s="196"/>
       <c r="I55" s="197"/>
       <c r="J55" s="195" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K55" s="196"/>
       <c r="L55" s="196"/>
@@ -11762,7 +11756,7 @@
       <c r="AH55" s="196"/>
       <c r="AI55" s="197"/>
     </row>
-    <row r="56" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:35" ht="11.25" customHeight="1">
       <c r="B56" s="187">
         <v>9</v>
       </c>
@@ -11776,7 +11770,7 @@
       <c r="H56" s="182"/>
       <c r="I56" s="183"/>
       <c r="J56" s="169" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="K56" s="170"/>
       <c r="L56" s="170"/>
@@ -11804,7 +11798,7 @@
       <c r="AH56" s="170"/>
       <c r="AI56" s="171"/>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:35">
       <c r="B57" s="188"/>
       <c r="C57" s="184"/>
       <c r="D57" s="185"/>
@@ -11840,7 +11834,7 @@
       <c r="AH57" s="173"/>
       <c r="AI57" s="174"/>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:35">
       <c r="B58" s="90">
         <v>10</v>
       </c>
@@ -11854,7 +11848,7 @@
       <c r="H58" s="196"/>
       <c r="I58" s="197"/>
       <c r="J58" s="195" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K58" s="196"/>
       <c r="L58" s="196"/>
@@ -11882,7 +11876,7 @@
       <c r="AH58" s="196"/>
       <c r="AI58" s="197"/>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:35">
       <c r="B59" s="187">
         <v>11</v>
       </c>
@@ -11896,7 +11890,7 @@
       <c r="H59" s="213"/>
       <c r="I59" s="214"/>
       <c r="J59" s="201" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K59" s="202"/>
       <c r="L59" s="202"/>
@@ -11924,7 +11918,7 @@
       <c r="AH59" s="202"/>
       <c r="AI59" s="203"/>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:35">
       <c r="B60" s="210"/>
       <c r="C60" s="215"/>
       <c r="D60" s="216"/>
@@ -11960,7 +11954,7 @@
       <c r="AH60" s="205"/>
       <c r="AI60" s="206"/>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:35">
       <c r="B61" s="210"/>
       <c r="C61" s="215"/>
       <c r="D61" s="216"/>
@@ -11996,7 +11990,7 @@
       <c r="AH61" s="205"/>
       <c r="AI61" s="206"/>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:35">
       <c r="B62" s="211"/>
       <c r="C62" s="218"/>
       <c r="D62" s="219"/>
@@ -12032,7 +12026,7 @@
       <c r="AH62" s="208"/>
       <c r="AI62" s="209"/>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:35">
       <c r="B63" s="235">
         <v>12</v>
       </c>
@@ -12046,7 +12040,7 @@
       <c r="H63" s="213"/>
       <c r="I63" s="214"/>
       <c r="J63" s="201" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K63" s="213"/>
       <c r="L63" s="213"/>
@@ -12074,7 +12068,7 @@
       <c r="AH63" s="213"/>
       <c r="AI63" s="214"/>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:35">
       <c r="B64" s="236"/>
       <c r="C64" s="215"/>
       <c r="D64" s="216"/>
@@ -12110,7 +12104,7 @@
       <c r="AH64" s="216"/>
       <c r="AI64" s="217"/>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:35">
       <c r="B65" s="236"/>
       <c r="C65" s="215"/>
       <c r="D65" s="216"/>
@@ -12146,7 +12140,7 @@
       <c r="AH65" s="216"/>
       <c r="AI65" s="217"/>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:35">
       <c r="B66" s="237"/>
       <c r="C66" s="218"/>
       <c r="D66" s="219"/>
@@ -12182,7 +12176,7 @@
       <c r="AH66" s="219"/>
       <c r="AI66" s="220"/>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:35">
       <c r="B67" s="91">
         <v>13</v>
       </c>
@@ -12224,7 +12218,7 @@
       <c r="AH67" s="196"/>
       <c r="AI67" s="197"/>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:35">
       <c r="B68" s="91">
         <v>14</v>
       </c>
@@ -12238,7 +12232,7 @@
       <c r="H68" s="196"/>
       <c r="I68" s="197"/>
       <c r="J68" s="195" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K68" s="196"/>
       <c r="L68" s="196"/>
@@ -12280,6 +12274,10 @@
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="AB18:AD19"/>
     <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AE25:AG25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -12291,9 +12289,19 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="O18:S19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="AX29:BF29"/>
     <mergeCell ref="AX27:BF27"/>
     <mergeCell ref="AX28:BF28"/>
@@ -12313,7 +12321,6 @@
     <mergeCell ref="AT29:AW29"/>
     <mergeCell ref="AN28:AO28"/>
     <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AE25:AG25"/>
     <mergeCell ref="AX18:BF19"/>
     <mergeCell ref="AN19:AO19"/>
     <mergeCell ref="AP19:AS19"/>
@@ -12418,11 +12425,6 @@
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="F18:L19"/>
     <mergeCell ref="O22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:Y24"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:Y26"/>
     <mergeCell ref="O28:S28"/>
@@ -12432,16 +12434,8 @@
     <mergeCell ref="O24:S24"/>
     <mergeCell ref="O25:S25"/>
     <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="T18:U19"/>
     <mergeCell ref="O27:S27"/>
     <mergeCell ref="T25:U25"/>
-    <mergeCell ref="O18:S19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="C67:I67"/>
     <mergeCell ref="C68:I68"/>
     <mergeCell ref="J67:AI67"/>

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース一覧_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース一覧_サンプル.xlsx
@@ -43,6 +43,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="T18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ 明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>インタフェースを授受媒体を記載する。
+※「JSON、XML」の場合、「-」と記載する。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V18" authorId="0">
       <text>
         <r>
@@ -54,7 +69,7 @@
             <charset val="128"/>
           </rPr>
           <t>伝送の場合は伝送方式、その他の場合は媒体送付方法を記載する。
-例1)伝送ファイルの場合、「FTP」または「HULFT」
+例1)伝送の場合、「FTP」または「HULFT」
 例2)MT/FD/MOの場合、「オフラインMTサーバ」</t>
         </r>
       </text>
@@ -102,9 +117,9 @@
             <charset val="128"/>
           </rPr>
           <t>インタフェースのレコード長を記載する。
-  ・固定長の場合、バイト数
-  ・可変長の場合、最大バイト数
-※JSON、XML形式の場合は「-」と記載する。</t>
+  ・「固定長」の場合、バイト数
+  ・「可変長」の場合、最大バイト数
+ ※ 「JSON、XML形式」の場合、「-」と記載する。</t>
         </r>
       </text>
     </comment>
@@ -120,8 +135,8 @@
           </rPr>
           <t>インタフェースのピーク時件数を記載する。
 データレコードの行数を記載する。
-　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
-　※JSON、XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
+　※「固定長」など改行のないインタフェースの場合、レコード長で区切った場合の件数を記載する。
+　※「JSON、XML」の場合、行数ではなく論理的なデータ件数を記載する。</t>
         </r>
       </text>
     </comment>
@@ -720,68 +735,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>インタフェースを授受媒体を記載する。
-※JSON、XML形式の場合は「-」と記載する。</t>
-    <rPh sb="8" eb="10">
-      <t>ジュジュ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バイタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>伝送の場合は伝送方式、その他の場合は媒体送付方法を記載する。
-例1)伝送ファイルの場合、「FTP」または「HULFT」
-例2)MT/FD/MOの場合、「オフラインMTサーバ」</t>
-    <rPh sb="0" eb="2">
-      <t>デンソウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>デンソウホウシキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="24">
-      <t>バイタイソウフホウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>デンソウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>暗号化有無</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
@@ -858,37 +811,6 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>インタフェースのレコード長を記載する。
-  ・固定長の場合、バイト数
-  ・可変長の場合、最大バイト数
-※JSON、XML形式の場合は「-」と記載する。</t>
-    <rPh sb="12" eb="13">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>コテイチョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>カヘンチョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -990,9 +912,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Cとの取引を停止</t>
-  </si>
-  <si>
     <t>Cシステム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1076,11 +995,101 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)
-※同一ファイルを複数の相手先に送る場合は、同一セル内に複数記載する(新たに採番しない)。</t>
+    <t>伝送の場合は伝送方式、その他の場合は媒体送付方法を記載する。
+例1)伝送の場合、「FTP」または「HULFT」
+例2)MT/FD/MOの場合、「オフラインMTサーバ」</t>
+    <rPh sb="0" eb="2">
+      <t>デンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>デンソウホウシキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>バイタイソウフホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デンソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタフェースのレコード長を記載する。
+  ・「固定長」の場合、バイト数
+  ・「可変長」の場合、最大バイト数
+※「JSON、XML」の場合、「-」と記載する。</t>
+    <rPh sb="12" eb="13">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>コテイチョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタフェースを授受媒体を記載する。
+※「JSON、XML」の場合、「-」と記載する。</t>
     <rPh sb="8" eb="10">
       <t>ジュジュ</t>
     </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)
+※同一ファイルを複数の相手先に送る場合、同一セル内に複数記載する(新たに採番しない)。</t>
+    <rPh sb="8" eb="10">
+      <t>ジュジュ</t>
+    </rPh>
     <rPh sb="10" eb="13">
       <t>アイテサキ</t>
     </rPh>
@@ -1114,19 +1123,19 @@
     <rPh sb="57" eb="59">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="61" eb="63">
+    <rPh sb="60" eb="62">
       <t>ドウイツ</t>
     </rPh>
-    <rPh sb="65" eb="66">
+    <rPh sb="64" eb="65">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="67" eb="71">
+    <rPh sb="66" eb="70">
       <t>フクスウキサイ</t>
     </rPh>
-    <rPh sb="74" eb="75">
+    <rPh sb="73" eb="74">
       <t>アラ</t>
     </rPh>
-    <rPh sb="77" eb="79">
+    <rPh sb="76" eb="78">
       <t>サイバン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1134,8 +1143,15 @@
   <si>
     <t>インタフェースのピーク時件数を記載する。
 データレコードの行数を記載する。
-　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
-　※JSON、XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
+　※「固定長」など改行のないインタフェースの場合、レコード長で区切った場合の件数を記載する。
+　※「JSON、XML」の場合、行数ではなく論理的なデータ件数を記載する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引を停止</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1147,7 +1163,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1446,6 +1462,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -2355,6 +2378,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2373,15 +2513,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2409,114 +2540,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2544,6 +2567,279 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="30" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="30" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="29" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2562,6 +2858,54 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2598,9 +2942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2622,15 +2963,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2639,315 +2971,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="30" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="30" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="29" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -4611,7 +4634,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>同一ファイルを複数の相手先に送る場合は、複数の相手先を記載すること</a:t>
+            <a:t>同一ファイルを複数の相手先に送る場合、複数の相手先を記載すること</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4911,7 +4934,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>が異なる場合は、ファイル</a:t>
+            <a:t>が異なる場合、ファイル</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5388,7 +5411,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>廃止する場合は、背景をグレーの網掛けに変更する</a:t>
+            <a:t>廃止する場合、背景をグレーの網掛けに変更する</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6494,57 +6517,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="121" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="139" t="s">
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="148" t="s">
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="136" t="s">
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="115" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="106">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="145">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="108"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -6552,53 +6575,53 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="121" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="136" t="s">
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="109" t="str">
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="106" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="145" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="108"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -6606,45 +6629,45 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="121" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="108"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -6681,114 +6704,114 @@
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="127" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="127" t="s">
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="127" t="s">
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="128"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="113"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85">
         <v>1</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="119"/>
+      <c r="D8" s="120">
         <v>43336</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="130" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="155"/>
+      <c r="U8" s="155"/>
+      <c r="V8" s="155"/>
+      <c r="W8" s="155"/>
+      <c r="X8" s="155"/>
+      <c r="Y8" s="155"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="155"/>
+      <c r="AB8" s="155"/>
+      <c r="AC8" s="155"/>
+      <c r="AD8" s="155"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="153"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="107"/>
       <c r="J9" s="100"/>
       <c r="K9" s="101"/>
       <c r="L9" s="101"/>
@@ -6819,14 +6842,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="107"/>
       <c r="J10" s="100"/>
       <c r="K10" s="101"/>
       <c r="L10" s="101"/>
@@ -6856,14 +6879,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="107"/>
       <c r="J11" s="100"/>
       <c r="K11" s="101"/>
       <c r="L11" s="101"/>
@@ -6893,14 +6916,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="100"/>
       <c r="K12" s="101"/>
       <c r="L12" s="101"/>
@@ -6930,14 +6953,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="100"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
@@ -6967,14 +6990,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="100"/>
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
@@ -7004,14 +7027,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="107"/>
       <c r="J15" s="100"/>
       <c r="K15" s="101"/>
       <c r="L15" s="101"/>
@@ -7041,14 +7064,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="107"/>
       <c r="J16" s="100"/>
       <c r="K16" s="101"/>
       <c r="L16" s="101"/>
@@ -7078,14 +7101,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="100"/>
       <c r="K17" s="101"/>
       <c r="L17" s="101"/>
@@ -7115,14 +7138,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="107"/>
       <c r="J18" s="100"/>
       <c r="K18" s="101"/>
       <c r="L18" s="101"/>
@@ -7152,14 +7175,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="107"/>
       <c r="J19" s="100"/>
       <c r="K19" s="101"/>
       <c r="L19" s="101"/>
@@ -7189,14 +7212,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="126"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="107"/>
       <c r="J20" s="100"/>
       <c r="K20" s="101"/>
       <c r="L20" s="101"/>
@@ -7226,14 +7249,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="100"/>
       <c r="K21" s="101"/>
       <c r="L21" s="101"/>
@@ -7263,14 +7286,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="126"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="100"/>
       <c r="K22" s="101"/>
       <c r="L22" s="101"/>
@@ -7300,14 +7323,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="126"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="100"/>
       <c r="K23" s="101"/>
       <c r="L23" s="101"/>
@@ -7337,14 +7360,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="126"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="107"/>
       <c r="J24" s="100"/>
       <c r="K24" s="101"/>
       <c r="L24" s="101"/>
@@ -7374,14 +7397,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="100"/>
       <c r="K25" s="101"/>
       <c r="L25" s="101"/>
@@ -7411,14 +7434,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="100"/>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
@@ -7448,14 +7471,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="100"/>
       <c r="K27" s="101"/>
       <c r="L27" s="101"/>
@@ -7485,14 +7508,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="126"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="107"/>
       <c r="J28" s="100"/>
       <c r="K28" s="101"/>
       <c r="L28" s="101"/>
@@ -7522,14 +7545,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="107"/>
       <c r="J29" s="100"/>
       <c r="K29" s="101"/>
       <c r="L29" s="101"/>
@@ -7559,14 +7582,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="126"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="100"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
@@ -7596,14 +7619,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="100"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
@@ -7634,14 +7657,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="126"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="107"/>
       <c r="J32" s="100"/>
       <c r="K32" s="101"/>
       <c r="L32" s="101"/>
@@ -7672,14 +7695,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="126"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="107"/>
       <c r="J33" s="100"/>
       <c r="K33" s="101"/>
       <c r="L33" s="101"/>
@@ -7900,6 +7923,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -7924,161 +8102,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -8236,31 +8259,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="139" t="s">
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="141"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="129"/>
       <c r="S1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
@@ -8272,48 +8295,48 @@
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="136" t="s">
+      <c r="AA1" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="106">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="145">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="108"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
       <c r="S2" s="163"/>
       <c r="T2" s="164"/>
       <c r="U2" s="164"/>
@@ -8322,48 +8345,48 @@
       <c r="X2" s="164"/>
       <c r="Y2" s="164"/>
       <c r="Z2" s="165"/>
-      <c r="AA2" s="136" t="s">
+      <c r="AA2" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="106" t="str">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="108"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="135"/>
       <c r="S3" s="166"/>
       <c r="T3" s="167"/>
       <c r="U3" s="167"/>
@@ -8372,21 +8395,21 @@
       <c r="X3" s="167"/>
       <c r="Y3" s="167"/>
       <c r="Z3" s="168"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="112" t="str">
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="106" t="str">
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="108"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -9846,12 +9869,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9863,6 +9880,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -9894,31 +9917,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="139" t="s">
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="141"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="129"/>
       <c r="S1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
@@ -9930,51 +9953,51 @@
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="136" t="s">
+      <c r="AA1" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="252">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="228">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="230"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
       <c r="S2" s="163"/>
       <c r="T2" s="164"/>
       <c r="U2" s="164"/>
@@ -9983,51 +10006,51 @@
       <c r="X2" s="164"/>
       <c r="Y2" s="164"/>
       <c r="Z2" s="165"/>
-      <c r="AA2" s="136" t="s">
+      <c r="AA2" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="252" t="str">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="254"/>
+      <c r="AH2" s="229"/>
+      <c r="AI2" s="230"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="135"/>
       <c r="S3" s="166"/>
       <c r="T3" s="167"/>
       <c r="U3" s="167"/>
@@ -10036,21 +10059,21 @@
       <c r="X3" s="167"/>
       <c r="Y3" s="167"/>
       <c r="Z3" s="168"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="112" t="str">
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="252" t="str">
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="230"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -10123,1039 +10146,1039 @@
       <c r="BI17" s="25"/>
     </row>
     <row r="18" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B18" s="302" t="s">
+      <c r="B18" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="256" t="s">
+      <c r="C18" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="262" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="262"/>
-      <c r="K18" s="262"/>
-      <c r="L18" s="262"/>
-      <c r="M18" s="295" t="s">
+      <c r="G18" s="232"/>
+      <c r="H18" s="232"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="296"/>
-      <c r="O18" s="289" t="s">
+      <c r="N18" s="194"/>
+      <c r="O18" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="290"/>
-      <c r="Q18" s="290"/>
-      <c r="R18" s="290"/>
-      <c r="S18" s="291"/>
-      <c r="T18" s="256" t="s">
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="256"/>
-      <c r="V18" s="295" t="s">
+      <c r="U18" s="178"/>
+      <c r="V18" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="299"/>
-      <c r="X18" s="299"/>
-      <c r="Y18" s="296"/>
-      <c r="Z18" s="256" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="289" t="s">
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="178" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="AC18" s="290"/>
-      <c r="AD18" s="291"/>
-      <c r="AE18" s="285" t="s">
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="AF18" s="301"/>
-      <c r="AG18" s="301"/>
-      <c r="AH18" s="301"/>
-      <c r="AI18" s="301"/>
-      <c r="AJ18" s="301"/>
-      <c r="AK18" s="301"/>
-      <c r="AL18" s="301"/>
-      <c r="AM18" s="286"/>
-      <c r="AN18" s="256" t="s">
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="170"/>
+      <c r="AJ18" s="170"/>
+      <c r="AK18" s="170"/>
+      <c r="AL18" s="170"/>
+      <c r="AM18" s="171"/>
+      <c r="AN18" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="AO18" s="256"/>
-      <c r="AP18" s="256"/>
-      <c r="AQ18" s="256"/>
-      <c r="AR18" s="256"/>
-      <c r="AS18" s="256"/>
-      <c r="AT18" s="256" t="s">
+      <c r="AO18" s="178"/>
+      <c r="AP18" s="178"/>
+      <c r="AQ18" s="178"/>
+      <c r="AR18" s="178"/>
+      <c r="AS18" s="178"/>
+      <c r="AT18" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="AU18" s="256"/>
-      <c r="AV18" s="256"/>
-      <c r="AW18" s="256"/>
-      <c r="AX18" s="256" t="s">
+      <c r="AU18" s="178"/>
+      <c r="AV18" s="178"/>
+      <c r="AW18" s="178"/>
+      <c r="AX18" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="AY18" s="256"/>
-      <c r="AZ18" s="256"/>
-      <c r="BA18" s="256"/>
-      <c r="BB18" s="256"/>
-      <c r="BC18" s="256"/>
-      <c r="BD18" s="256"/>
-      <c r="BE18" s="256"/>
-      <c r="BF18" s="256"/>
+      <c r="AY18" s="178"/>
+      <c r="AZ18" s="178"/>
+      <c r="BA18" s="178"/>
+      <c r="BB18" s="178"/>
+      <c r="BC18" s="178"/>
+      <c r="BD18" s="178"/>
+      <c r="BE18" s="178"/>
+      <c r="BF18" s="178"/>
       <c r="BG18" s="26"/>
     </row>
     <row r="19" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B19" s="303"/>
-      <c r="C19" s="256"/>
-      <c r="D19" s="256"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
-      <c r="L19" s="262"/>
-      <c r="M19" s="297"/>
-      <c r="N19" s="298"/>
-      <c r="O19" s="292"/>
-      <c r="P19" s="293"/>
-      <c r="Q19" s="293"/>
-      <c r="R19" s="293"/>
-      <c r="S19" s="294"/>
-      <c r="T19" s="256"/>
-      <c r="U19" s="256"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="300"/>
-      <c r="X19" s="300"/>
-      <c r="Y19" s="298"/>
-      <c r="Z19" s="256"/>
-      <c r="AA19" s="256"/>
-      <c r="AB19" s="292"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="294"/>
-      <c r="AE19" s="285" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF19" s="301"/>
-      <c r="AG19" s="286"/>
-      <c r="AH19" s="256" t="s">
+      <c r="B19" s="176"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="196"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="178"/>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF19" s="170"/>
+      <c r="AG19" s="171"/>
+      <c r="AH19" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AI19" s="256"/>
-      <c r="AJ19" s="256"/>
-      <c r="AK19" s="256"/>
-      <c r="AL19" s="256"/>
-      <c r="AM19" s="256"/>
-      <c r="AN19" s="285" t="s">
+      <c r="AI19" s="178"/>
+      <c r="AJ19" s="178"/>
+      <c r="AK19" s="178"/>
+      <c r="AL19" s="178"/>
+      <c r="AM19" s="178"/>
+      <c r="AN19" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="AO19" s="286"/>
-      <c r="AP19" s="256" t="s">
+      <c r="AO19" s="171"/>
+      <c r="AP19" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AQ19" s="256"/>
-      <c r="AR19" s="256"/>
-      <c r="AS19" s="256"/>
-      <c r="AT19" s="256"/>
-      <c r="AU19" s="256"/>
-      <c r="AV19" s="256"/>
-      <c r="AW19" s="256"/>
-      <c r="AX19" s="256"/>
-      <c r="AY19" s="256"/>
-      <c r="AZ19" s="256"/>
-      <c r="BA19" s="256"/>
-      <c r="BB19" s="256"/>
-      <c r="BC19" s="256"/>
-      <c r="BD19" s="256"/>
-      <c r="BE19" s="256"/>
-      <c r="BF19" s="256"/>
+      <c r="AQ19" s="178"/>
+      <c r="AR19" s="178"/>
+      <c r="AS19" s="178"/>
+      <c r="AT19" s="178"/>
+      <c r="AU19" s="178"/>
+      <c r="AV19" s="178"/>
+      <c r="AW19" s="178"/>
+      <c r="AX19" s="178"/>
+      <c r="AY19" s="178"/>
+      <c r="AZ19" s="178"/>
+      <c r="BA19" s="178"/>
+      <c r="BB19" s="178"/>
+      <c r="BC19" s="178"/>
+      <c r="BD19" s="178"/>
+      <c r="BE19" s="178"/>
+      <c r="BF19" s="178"/>
       <c r="BG19" s="26"/>
     </row>
     <row r="20" spans="2:61" ht="37.5" customHeight="1">
       <c r="B20" s="92">
         <v>1</v>
       </c>
-      <c r="C20" s="255" t="s">
+      <c r="C20" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255" t="s">
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="255"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
       <c r="M20" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="105"/>
-      <c r="O20" s="240" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="241"/>
-      <c r="S20" s="242"/>
-      <c r="T20" s="239" t="s">
+      <c r="O20" s="179" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="U20" s="239"/>
-      <c r="V20" s="240" t="s">
+      <c r="U20" s="192"/>
+      <c r="V20" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="241"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="242"/>
-      <c r="Z20" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA20" s="255"/>
-      <c r="AB20" s="240" t="s">
+      <c r="W20" s="180"/>
+      <c r="X20" s="180"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AC20" s="241"/>
-      <c r="AD20" s="242"/>
-      <c r="AE20" s="264" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF20" s="265"/>
-      <c r="AG20" s="266"/>
-      <c r="AH20" s="240" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI20" s="241"/>
-      <c r="AJ20" s="241"/>
-      <c r="AK20" s="241"/>
-      <c r="AL20" s="241"/>
-      <c r="AM20" s="242"/>
-      <c r="AN20" s="267">
+      <c r="AC20" s="180"/>
+      <c r="AD20" s="181"/>
+      <c r="AE20" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="174"/>
+      <c r="AH20" s="179" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI20" s="180"/>
+      <c r="AJ20" s="180"/>
+      <c r="AK20" s="180"/>
+      <c r="AL20" s="180"/>
+      <c r="AM20" s="181"/>
+      <c r="AN20" s="202">
         <v>711</v>
       </c>
-      <c r="AO20" s="268"/>
-      <c r="AP20" s="269">
+      <c r="AO20" s="203"/>
+      <c r="AP20" s="201">
         <v>100000</v>
       </c>
-      <c r="AQ20" s="269"/>
-      <c r="AR20" s="269"/>
-      <c r="AS20" s="269"/>
-      <c r="AT20" s="278" t="s">
+      <c r="AQ20" s="201"/>
+      <c r="AR20" s="201"/>
+      <c r="AS20" s="201"/>
+      <c r="AT20" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="AU20" s="278"/>
-      <c r="AV20" s="278"/>
-      <c r="AW20" s="278"/>
-      <c r="AX20" s="255" t="s">
+      <c r="AU20" s="204"/>
+      <c r="AV20" s="204"/>
+      <c r="AW20" s="204"/>
+      <c r="AX20" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="AY20" s="255"/>
-      <c r="AZ20" s="255"/>
-      <c r="BA20" s="255"/>
-      <c r="BB20" s="255"/>
-      <c r="BC20" s="255"/>
-      <c r="BD20" s="255"/>
-      <c r="BE20" s="255"/>
-      <c r="BF20" s="255"/>
+      <c r="AY20" s="177"/>
+      <c r="AZ20" s="177"/>
+      <c r="BA20" s="177"/>
+      <c r="BB20" s="177"/>
+      <c r="BC20" s="177"/>
+      <c r="BD20" s="177"/>
+      <c r="BE20" s="177"/>
+      <c r="BF20" s="177"/>
       <c r="BG20" s="27"/>
     </row>
     <row r="21" spans="2:61" ht="11.25" customHeight="1">
       <c r="B21" s="93">
         <v>2</v>
       </c>
-      <c r="C21" s="257" t="s">
+      <c r="C21" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="258" t="s">
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258"/>
-      <c r="M21" s="260" t="s">
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="261"/>
-      <c r="O21" s="271" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="272"/>
-      <c r="Q21" s="272"/>
-      <c r="R21" s="272"/>
-      <c r="S21" s="273"/>
-      <c r="T21" s="259" t="s">
+      <c r="N21" s="227"/>
+      <c r="O21" s="189" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="259"/>
-      <c r="V21" s="271" t="s">
+      <c r="U21" s="231"/>
+      <c r="V21" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="W21" s="272"/>
-      <c r="X21" s="272"/>
-      <c r="Y21" s="273"/>
-      <c r="Z21" s="257" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA21" s="257"/>
-      <c r="AB21" s="271" t="s">
+      <c r="W21" s="190"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="191"/>
+      <c r="Z21" s="206" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA21" s="206"/>
+      <c r="AB21" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="AC21" s="272"/>
-      <c r="AD21" s="273"/>
-      <c r="AE21" s="282" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF21" s="283"/>
-      <c r="AG21" s="284"/>
-      <c r="AH21" s="257" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI21" s="257"/>
-      <c r="AJ21" s="257"/>
-      <c r="AK21" s="257"/>
-      <c r="AL21" s="257"/>
-      <c r="AM21" s="257"/>
-      <c r="AN21" s="274">
+      <c r="AC21" s="190"/>
+      <c r="AD21" s="191"/>
+      <c r="AE21" s="218" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF21" s="219"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="206" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI21" s="206"/>
+      <c r="AJ21" s="206"/>
+      <c r="AK21" s="206"/>
+      <c r="AL21" s="206"/>
+      <c r="AM21" s="206"/>
+      <c r="AN21" s="208">
         <v>1500</v>
       </c>
-      <c r="AO21" s="275"/>
-      <c r="AP21" s="270" t="s">
+      <c r="AO21" s="209"/>
+      <c r="AP21" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="AQ21" s="270"/>
-      <c r="AR21" s="270"/>
-      <c r="AS21" s="270"/>
-      <c r="AT21" s="277" t="s">
+      <c r="AQ21" s="207"/>
+      <c r="AR21" s="207"/>
+      <c r="AS21" s="207"/>
+      <c r="AT21" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="AU21" s="277"/>
-      <c r="AV21" s="277"/>
-      <c r="AW21" s="277"/>
-      <c r="AX21" s="257"/>
-      <c r="AY21" s="257"/>
-      <c r="AZ21" s="257"/>
-      <c r="BA21" s="257"/>
-      <c r="BB21" s="257"/>
-      <c r="BC21" s="257"/>
-      <c r="BD21" s="257"/>
-      <c r="BE21" s="257"/>
-      <c r="BF21" s="257"/>
+      <c r="AU21" s="214"/>
+      <c r="AV21" s="214"/>
+      <c r="AW21" s="214"/>
+      <c r="AX21" s="206"/>
+      <c r="AY21" s="206"/>
+      <c r="AZ21" s="206"/>
+      <c r="BA21" s="206"/>
+      <c r="BB21" s="206"/>
+      <c r="BC21" s="206"/>
+      <c r="BD21" s="206"/>
+      <c r="BE21" s="206"/>
+      <c r="BF21" s="206"/>
     </row>
     <row r="22" spans="2:61" ht="11.25" customHeight="1">
       <c r="B22" s="93">
         <v>3</v>
       </c>
-      <c r="C22" s="249" t="s">
+      <c r="C22" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="250"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="258" t="s">
+      <c r="D22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
-      <c r="J22" s="258"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="258"/>
-      <c r="M22" s="260" t="s">
+      <c r="G22" s="199"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="199"/>
+      <c r="M22" s="226" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="261"/>
-      <c r="O22" s="249" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" s="250"/>
-      <c r="Q22" s="250"/>
-      <c r="R22" s="250"/>
-      <c r="S22" s="251"/>
-      <c r="T22" s="288" t="s">
+      <c r="N22" s="227"/>
+      <c r="O22" s="211" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="212"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="212"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="U22" s="288"/>
-      <c r="V22" s="249" t="s">
+      <c r="U22" s="188"/>
+      <c r="V22" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="W22" s="250"/>
-      <c r="X22" s="250"/>
-      <c r="Y22" s="251"/>
-      <c r="Z22" s="258" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA22" s="258"/>
-      <c r="AB22" s="249" t="s">
+      <c r="W22" s="212"/>
+      <c r="X22" s="212"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="199" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA22" s="199"/>
+      <c r="AB22" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="AC22" s="250"/>
-      <c r="AD22" s="251"/>
-      <c r="AE22" s="279" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF22" s="280"/>
-      <c r="AG22" s="281"/>
-      <c r="AH22" s="258" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI22" s="258"/>
-      <c r="AJ22" s="258"/>
-      <c r="AK22" s="258"/>
-      <c r="AL22" s="258"/>
-      <c r="AM22" s="258"/>
-      <c r="AN22" s="274">
+      <c r="AC22" s="212"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="215" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF22" s="216"/>
+      <c r="AG22" s="217"/>
+      <c r="AH22" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI22" s="199"/>
+      <c r="AJ22" s="199"/>
+      <c r="AK22" s="199"/>
+      <c r="AL22" s="199"/>
+      <c r="AM22" s="199"/>
+      <c r="AN22" s="208">
         <v>2000</v>
       </c>
-      <c r="AO22" s="275"/>
-      <c r="AP22" s="276" t="s">
+      <c r="AO22" s="209"/>
+      <c r="AP22" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="AQ22" s="276"/>
-      <c r="AR22" s="276"/>
-      <c r="AS22" s="276"/>
-      <c r="AT22" s="277" t="s">
+      <c r="AQ22" s="210"/>
+      <c r="AR22" s="210"/>
+      <c r="AS22" s="210"/>
+      <c r="AT22" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="AU22" s="277"/>
-      <c r="AV22" s="277"/>
-      <c r="AW22" s="277"/>
-      <c r="AX22" s="258" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY22" s="258"/>
-      <c r="AZ22" s="258"/>
-      <c r="BA22" s="258"/>
-      <c r="BB22" s="258"/>
-      <c r="BC22" s="258"/>
-      <c r="BD22" s="258"/>
-      <c r="BE22" s="258"/>
-      <c r="BF22" s="258"/>
+      <c r="AU22" s="214"/>
+      <c r="AV22" s="214"/>
+      <c r="AW22" s="214"/>
+      <c r="AX22" s="199" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY22" s="199"/>
+      <c r="AZ22" s="199"/>
+      <c r="BA22" s="199"/>
+      <c r="BB22" s="199"/>
+      <c r="BC22" s="199"/>
+      <c r="BD22" s="199"/>
+      <c r="BE22" s="199"/>
+      <c r="BF22" s="199"/>
     </row>
     <row r="23" spans="2:61" ht="22.5" customHeight="1">
       <c r="B23" s="92">
         <v>4</v>
       </c>
-      <c r="C23" s="255" t="s">
+      <c r="C23" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255" t="s">
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="255"/>
-      <c r="K23" s="255"/>
-      <c r="L23" s="255"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
       <c r="M23" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="105"/>
-      <c r="O23" s="240" t="s">
-        <v>124</v>
-      </c>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="239" t="s">
+      <c r="O23" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="180"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="239"/>
-      <c r="V23" s="244" t="s">
+      <c r="U23" s="192"/>
+      <c r="V23" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="W23" s="245"/>
-      <c r="X23" s="245"/>
-      <c r="Y23" s="246"/>
-      <c r="Z23" s="255" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA23" s="255"/>
-      <c r="AB23" s="240" t="s">
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="223"/>
+      <c r="Z23" s="177" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="AC23" s="241"/>
-      <c r="AD23" s="242"/>
-      <c r="AE23" s="264" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF23" s="265"/>
-      <c r="AG23" s="266"/>
-      <c r="AH23" s="240" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI23" s="241"/>
-      <c r="AJ23" s="241"/>
-      <c r="AK23" s="241"/>
-      <c r="AL23" s="241"/>
-      <c r="AM23" s="242"/>
-      <c r="AN23" s="267">
+      <c r="AC23" s="180"/>
+      <c r="AD23" s="181"/>
+      <c r="AE23" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="174"/>
+      <c r="AH23" s="179" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI23" s="180"/>
+      <c r="AJ23" s="180"/>
+      <c r="AK23" s="180"/>
+      <c r="AL23" s="180"/>
+      <c r="AM23" s="181"/>
+      <c r="AN23" s="202">
         <v>520</v>
       </c>
-      <c r="AO23" s="268"/>
-      <c r="AP23" s="269">
+      <c r="AO23" s="203"/>
+      <c r="AP23" s="201">
         <v>2000</v>
       </c>
-      <c r="AQ23" s="269"/>
-      <c r="AR23" s="269"/>
-      <c r="AS23" s="269"/>
-      <c r="AT23" s="278" t="s">
+      <c r="AQ23" s="201"/>
+      <c r="AR23" s="201"/>
+      <c r="AS23" s="201"/>
+      <c r="AT23" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="AU23" s="278"/>
-      <c r="AV23" s="278"/>
-      <c r="AW23" s="278"/>
-      <c r="AX23" s="255" t="s">
+      <c r="AU23" s="204"/>
+      <c r="AV23" s="204"/>
+      <c r="AW23" s="204"/>
+      <c r="AX23" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="AY23" s="255"/>
-      <c r="AZ23" s="255"/>
-      <c r="BA23" s="255"/>
-      <c r="BB23" s="255"/>
-      <c r="BC23" s="255"/>
-      <c r="BD23" s="255"/>
-      <c r="BE23" s="255"/>
-      <c r="BF23" s="255"/>
+      <c r="AY23" s="177"/>
+      <c r="AZ23" s="177"/>
+      <c r="BA23" s="177"/>
+      <c r="BB23" s="177"/>
+      <c r="BC23" s="177"/>
+      <c r="BD23" s="177"/>
+      <c r="BE23" s="177"/>
+      <c r="BF23" s="177"/>
     </row>
     <row r="24" spans="2:61" ht="45" customHeight="1">
       <c r="B24" s="92">
         <v>5</v>
       </c>
-      <c r="C24" s="255" t="s">
+      <c r="C24" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="255" t="s">
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="255"/>
-      <c r="L24" s="255"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
       <c r="M24" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="105"/>
-      <c r="O24" s="240" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="242"/>
-      <c r="T24" s="239" t="s">
+      <c r="O24" s="179" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="180"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="U24" s="239"/>
-      <c r="V24" s="240" t="s">
+      <c r="U24" s="192"/>
+      <c r="V24" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="242"/>
-      <c r="Z24" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA24" s="255"/>
-      <c r="AB24" s="240" t="s">
+      <c r="W24" s="180"/>
+      <c r="X24" s="180"/>
+      <c r="Y24" s="181"/>
+      <c r="Z24" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="242"/>
-      <c r="AE24" s="264" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF24" s="265"/>
-      <c r="AG24" s="266"/>
-      <c r="AH24" s="255" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI24" s="255"/>
-      <c r="AJ24" s="255"/>
-      <c r="AK24" s="255"/>
-      <c r="AL24" s="255"/>
-      <c r="AM24" s="255"/>
-      <c r="AN24" s="267">
+      <c r="AC24" s="180"/>
+      <c r="AD24" s="181"/>
+      <c r="AE24" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="174"/>
+      <c r="AH24" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI24" s="177"/>
+      <c r="AJ24" s="177"/>
+      <c r="AK24" s="177"/>
+      <c r="AL24" s="177"/>
+      <c r="AM24" s="177"/>
+      <c r="AN24" s="202">
         <v>1200</v>
       </c>
-      <c r="AO24" s="268"/>
-      <c r="AP24" s="269">
+      <c r="AO24" s="203"/>
+      <c r="AP24" s="201">
         <v>1200000</v>
       </c>
-      <c r="AQ24" s="269"/>
-      <c r="AR24" s="269"/>
-      <c r="AS24" s="269"/>
-      <c r="AT24" s="278" t="s">
+      <c r="AQ24" s="201"/>
+      <c r="AR24" s="201"/>
+      <c r="AS24" s="201"/>
+      <c r="AT24" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="AU24" s="278"/>
-      <c r="AV24" s="278"/>
-      <c r="AW24" s="278"/>
-      <c r="AX24" s="255" t="s">
+      <c r="AU24" s="204"/>
+      <c r="AV24" s="204"/>
+      <c r="AW24" s="204"/>
+      <c r="AX24" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="AY24" s="255"/>
-      <c r="AZ24" s="255"/>
-      <c r="BA24" s="255"/>
-      <c r="BB24" s="255"/>
-      <c r="BC24" s="255"/>
-      <c r="BD24" s="255"/>
-      <c r="BE24" s="255"/>
-      <c r="BF24" s="255"/>
+      <c r="AY24" s="177"/>
+      <c r="AZ24" s="177"/>
+      <c r="BA24" s="177"/>
+      <c r="BB24" s="177"/>
+      <c r="BC24" s="177"/>
+      <c r="BD24" s="177"/>
+      <c r="BE24" s="177"/>
+      <c r="BF24" s="177"/>
     </row>
     <row r="25" spans="2:61" ht="11.25" customHeight="1">
       <c r="B25" s="92">
         <v>6</v>
       </c>
-      <c r="C25" s="255" t="s">
+      <c r="C25" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="255"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="255"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
       <c r="M25" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="105"/>
-      <c r="O25" s="240" t="s">
-        <v>126</v>
-      </c>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="242"/>
-      <c r="T25" s="239" t="s">
+      <c r="O25" s="179" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="180"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="U25" s="239"/>
-      <c r="V25" s="240" t="s">
+      <c r="U25" s="192"/>
+      <c r="V25" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="242"/>
-      <c r="Z25" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA25" s="255"/>
-      <c r="AB25" s="240" t="s">
+      <c r="W25" s="180"/>
+      <c r="X25" s="180"/>
+      <c r="Y25" s="181"/>
+      <c r="Z25" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="242"/>
-      <c r="AE25" s="264" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF25" s="265"/>
-      <c r="AG25" s="266"/>
-      <c r="AH25" s="255" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI25" s="255"/>
-      <c r="AJ25" s="255"/>
-      <c r="AK25" s="255"/>
-      <c r="AL25" s="255"/>
-      <c r="AM25" s="255"/>
-      <c r="AN25" s="267">
+      <c r="AC25" s="180"/>
+      <c r="AD25" s="181"/>
+      <c r="AE25" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="174"/>
+      <c r="AH25" s="177" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI25" s="177"/>
+      <c r="AJ25" s="177"/>
+      <c r="AK25" s="177"/>
+      <c r="AL25" s="177"/>
+      <c r="AM25" s="177"/>
+      <c r="AN25" s="202">
         <v>500</v>
       </c>
-      <c r="AO25" s="268"/>
-      <c r="AP25" s="269">
+      <c r="AO25" s="203"/>
+      <c r="AP25" s="201">
         <v>23000</v>
       </c>
-      <c r="AQ25" s="269"/>
-      <c r="AR25" s="269"/>
-      <c r="AS25" s="269"/>
-      <c r="AT25" s="278" t="s">
+      <c r="AQ25" s="201"/>
+      <c r="AR25" s="201"/>
+      <c r="AS25" s="201"/>
+      <c r="AT25" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="AU25" s="278"/>
-      <c r="AV25" s="278"/>
-      <c r="AW25" s="278"/>
-      <c r="AX25" s="255"/>
-      <c r="AY25" s="255"/>
-      <c r="AZ25" s="255"/>
-      <c r="BA25" s="255"/>
-      <c r="BB25" s="255"/>
-      <c r="BC25" s="255"/>
-      <c r="BD25" s="255"/>
-      <c r="BE25" s="255"/>
-      <c r="BF25" s="255"/>
+      <c r="AU25" s="204"/>
+      <c r="AV25" s="204"/>
+      <c r="AW25" s="204"/>
+      <c r="AX25" s="177"/>
+      <c r="AY25" s="177"/>
+      <c r="AZ25" s="177"/>
+      <c r="BA25" s="177"/>
+      <c r="BB25" s="177"/>
+      <c r="BC25" s="177"/>
+      <c r="BD25" s="177"/>
+      <c r="BE25" s="177"/>
+      <c r="BF25" s="177"/>
     </row>
     <row r="26" spans="2:61" ht="11.25" customHeight="1">
       <c r="B26" s="92">
         <v>7</v>
       </c>
-      <c r="C26" s="255" t="s">
+      <c r="C26" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="255"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="255"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="255"/>
-      <c r="L26" s="255"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="105"/>
-      <c r="O26" s="240" t="s">
+      <c r="O26" s="179" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="180"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="192" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="192"/>
+      <c r="V26" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26" s="180"/>
+      <c r="X26" s="180"/>
+      <c r="Y26" s="181"/>
+      <c r="Z26" s="177" t="s">
         <v>127</v>
       </c>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="239" t="s">
-        <v>48</v>
-      </c>
-      <c r="U26" s="239"/>
-      <c r="V26" s="240" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA26" s="255"/>
-      <c r="AB26" s="240" t="s">
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AC26" s="241"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="264" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF26" s="265"/>
-      <c r="AG26" s="266"/>
-      <c r="AH26" s="255" t="s">
+      <c r="AC26" s="180"/>
+      <c r="AD26" s="181"/>
+      <c r="AE26" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="174"/>
+      <c r="AH26" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="255"/>
-      <c r="AJ26" s="255"/>
-      <c r="AK26" s="255"/>
-      <c r="AL26" s="255"/>
-      <c r="AM26" s="255"/>
-      <c r="AN26" s="267">
+      <c r="AI26" s="177"/>
+      <c r="AJ26" s="177"/>
+      <c r="AK26" s="177"/>
+      <c r="AL26" s="177"/>
+      <c r="AM26" s="177"/>
+      <c r="AN26" s="202">
         <v>500</v>
       </c>
-      <c r="AO26" s="268"/>
-      <c r="AP26" s="269">
+      <c r="AO26" s="203"/>
+      <c r="AP26" s="201">
         <v>16000</v>
       </c>
-      <c r="AQ26" s="269"/>
-      <c r="AR26" s="269"/>
-      <c r="AS26" s="269"/>
-      <c r="AT26" s="278" t="s">
+      <c r="AQ26" s="201"/>
+      <c r="AR26" s="201"/>
+      <c r="AS26" s="201"/>
+      <c r="AT26" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="AU26" s="278"/>
-      <c r="AV26" s="278"/>
-      <c r="AW26" s="278"/>
-      <c r="AX26" s="255"/>
-      <c r="AY26" s="255"/>
-      <c r="AZ26" s="255"/>
-      <c r="BA26" s="255"/>
-      <c r="BB26" s="255"/>
-      <c r="BC26" s="255"/>
-      <c r="BD26" s="255"/>
-      <c r="BE26" s="255"/>
-      <c r="BF26" s="255"/>
+      <c r="AU26" s="204"/>
+      <c r="AV26" s="204"/>
+      <c r="AW26" s="204"/>
+      <c r="AX26" s="177"/>
+      <c r="AY26" s="177"/>
+      <c r="AZ26" s="177"/>
+      <c r="BA26" s="177"/>
+      <c r="BB26" s="177"/>
+      <c r="BC26" s="177"/>
+      <c r="BD26" s="177"/>
+      <c r="BE26" s="177"/>
+      <c r="BF26" s="177"/>
     </row>
     <row r="27" spans="2:61" s="29" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="92">
         <v>8</v>
       </c>
-      <c r="C27" s="255" t="s">
+      <c r="C27" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="255"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="263" t="s">
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="263"/>
-      <c r="K27" s="263"/>
-      <c r="L27" s="263"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
       <c r="M27" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N27" s="105"/>
-      <c r="O27" s="244" t="s">
+      <c r="O27" s="221" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="222"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="233" t="s">
+        <v>59</v>
+      </c>
+      <c r="U27" s="233"/>
+      <c r="V27" s="221" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="223"/>
+      <c r="Z27" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="P27" s="245"/>
-      <c r="Q27" s="245"/>
-      <c r="R27" s="245"/>
-      <c r="S27" s="246"/>
-      <c r="T27" s="243" t="s">
-        <v>59</v>
-      </c>
-      <c r="U27" s="243"/>
-      <c r="V27" s="244" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" s="245"/>
-      <c r="X27" s="245"/>
-      <c r="Y27" s="246"/>
-      <c r="Z27" s="263" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA27" s="263"/>
-      <c r="AB27" s="244" t="s">
+      <c r="AA27" s="200"/>
+      <c r="AB27" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="AC27" s="245"/>
-      <c r="AD27" s="246"/>
-      <c r="AE27" s="264" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF27" s="265"/>
-      <c r="AG27" s="266"/>
-      <c r="AH27" s="263" t="s">
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="223"/>
+      <c r="AE27" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="174"/>
+      <c r="AH27" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="AI27" s="263"/>
-      <c r="AJ27" s="263"/>
-      <c r="AK27" s="263"/>
-      <c r="AL27" s="263"/>
-      <c r="AM27" s="263"/>
-      <c r="AN27" s="267">
+      <c r="AI27" s="200"/>
+      <c r="AJ27" s="200"/>
+      <c r="AK27" s="200"/>
+      <c r="AL27" s="200"/>
+      <c r="AM27" s="200"/>
+      <c r="AN27" s="202">
         <v>2000</v>
       </c>
-      <c r="AO27" s="268"/>
-      <c r="AP27" s="269">
+      <c r="AO27" s="203"/>
+      <c r="AP27" s="201">
         <v>10000</v>
       </c>
-      <c r="AQ27" s="269"/>
-      <c r="AR27" s="269"/>
-      <c r="AS27" s="269"/>
-      <c r="AT27" s="278" t="s">
+      <c r="AQ27" s="201"/>
+      <c r="AR27" s="201"/>
+      <c r="AS27" s="201"/>
+      <c r="AT27" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="AU27" s="278"/>
-      <c r="AV27" s="278"/>
-      <c r="AW27" s="278"/>
-      <c r="AX27" s="263" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY27" s="263"/>
-      <c r="AZ27" s="263"/>
-      <c r="BA27" s="263"/>
-      <c r="BB27" s="263"/>
-      <c r="BC27" s="263"/>
-      <c r="BD27" s="263"/>
-      <c r="BE27" s="263"/>
-      <c r="BF27" s="263"/>
+      <c r="AU27" s="204"/>
+      <c r="AV27" s="204"/>
+      <c r="AW27" s="204"/>
+      <c r="AX27" s="200" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY27" s="200"/>
+      <c r="AZ27" s="200"/>
+      <c r="BA27" s="200"/>
+      <c r="BB27" s="200"/>
+      <c r="BC27" s="200"/>
+      <c r="BD27" s="200"/>
+      <c r="BE27" s="200"/>
+      <c r="BF27" s="200"/>
     </row>
     <row r="28" spans="2:61" ht="11.25" customHeight="1">
       <c r="B28" s="92">
         <v>9</v>
       </c>
-      <c r="C28" s="240" t="s">
+      <c r="C28" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="240" t="s">
+      <c r="D28" s="180"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="242"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="181"/>
       <c r="M28" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N28" s="105"/>
-      <c r="O28" s="240" t="s">
+      <c r="O28" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="242"/>
-      <c r="T28" s="247" t="s">
+      <c r="P28" s="180"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="U28" s="248"/>
-      <c r="V28" s="240" t="s">
+      <c r="U28" s="225"/>
+      <c r="V28" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="242"/>
-      <c r="Z28" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA28" s="255"/>
-      <c r="AB28" s="240" t="s">
+      <c r="W28" s="180"/>
+      <c r="X28" s="180"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="242"/>
-      <c r="AE28" s="264" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF28" s="265"/>
-      <c r="AG28" s="266"/>
-      <c r="AH28" s="240" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI28" s="241"/>
-      <c r="AJ28" s="241"/>
-      <c r="AK28" s="241"/>
-      <c r="AL28" s="241"/>
-      <c r="AM28" s="242"/>
-      <c r="AN28" s="267">
+      <c r="AC28" s="180"/>
+      <c r="AD28" s="181"/>
+      <c r="AE28" s="172" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="174"/>
+      <c r="AH28" s="179" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI28" s="180"/>
+      <c r="AJ28" s="180"/>
+      <c r="AK28" s="180"/>
+      <c r="AL28" s="180"/>
+      <c r="AM28" s="181"/>
+      <c r="AN28" s="202">
         <v>230</v>
       </c>
-      <c r="AO28" s="268"/>
-      <c r="AP28" s="267" t="s">
+      <c r="AO28" s="203"/>
+      <c r="AP28" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="AQ28" s="287"/>
-      <c r="AR28" s="287"/>
-      <c r="AS28" s="268"/>
-      <c r="AT28" s="278" t="s">
+      <c r="AQ28" s="205"/>
+      <c r="AR28" s="205"/>
+      <c r="AS28" s="203"/>
+      <c r="AT28" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="AU28" s="278"/>
-      <c r="AV28" s="278"/>
-      <c r="AW28" s="278"/>
-      <c r="AX28" s="240"/>
-      <c r="AY28" s="241"/>
-      <c r="AZ28" s="241"/>
-      <c r="BA28" s="241"/>
-      <c r="BB28" s="241"/>
-      <c r="BC28" s="241"/>
-      <c r="BD28" s="241"/>
-      <c r="BE28" s="241"/>
-      <c r="BF28" s="242"/>
+      <c r="AU28" s="204"/>
+      <c r="AV28" s="204"/>
+      <c r="AW28" s="204"/>
+      <c r="AX28" s="179"/>
+      <c r="AY28" s="180"/>
+      <c r="AZ28" s="180"/>
+      <c r="BA28" s="180"/>
+      <c r="BB28" s="180"/>
+      <c r="BC28" s="180"/>
+      <c r="BD28" s="180"/>
+      <c r="BE28" s="180"/>
+      <c r="BF28" s="181"/>
     </row>
     <row r="29" spans="2:61">
       <c r="B29" s="92">
         <v>10</v>
       </c>
-      <c r="C29" s="255" t="s">
+      <c r="C29" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="255"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="255" t="s">
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="255"/>
-      <c r="H29" s="255"/>
-      <c r="I29" s="255"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="255"/>
-      <c r="L29" s="255"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N29" s="105"/>
-      <c r="O29" s="240" t="s">
+      <c r="O29" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="241"/>
-      <c r="Q29" s="241"/>
-      <c r="R29" s="241"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="247" t="s">
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="U29" s="248"/>
-      <c r="V29" s="240" t="s">
+      <c r="U29" s="225"/>
+      <c r="V29" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="241"/>
-      <c r="X29" s="241"/>
-      <c r="Y29" s="242"/>
-      <c r="Z29" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA29" s="255"/>
-      <c r="AB29" s="240" t="s">
+      <c r="W29" s="180"/>
+      <c r="X29" s="180"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AC29" s="241"/>
-      <c r="AD29" s="242"/>
-      <c r="AE29" s="264" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF29" s="265"/>
-      <c r="AG29" s="266"/>
-      <c r="AH29" s="240" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI29" s="241"/>
-      <c r="AJ29" s="241"/>
-      <c r="AK29" s="241"/>
-      <c r="AL29" s="241"/>
-      <c r="AM29" s="242"/>
-      <c r="AN29" s="267">
+      <c r="AC29" s="180"/>
+      <c r="AD29" s="181"/>
+      <c r="AE29" s="172" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="174"/>
+      <c r="AH29" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI29" s="180"/>
+      <c r="AJ29" s="180"/>
+      <c r="AK29" s="180"/>
+      <c r="AL29" s="180"/>
+      <c r="AM29" s="181"/>
+      <c r="AN29" s="202">
         <v>750</v>
       </c>
-      <c r="AO29" s="268"/>
-      <c r="AP29" s="269" t="s">
+      <c r="AO29" s="203"/>
+      <c r="AP29" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="AQ29" s="269"/>
-      <c r="AR29" s="269"/>
-      <c r="AS29" s="269"/>
-      <c r="AT29" s="278" t="s">
+      <c r="AQ29" s="201"/>
+      <c r="AR29" s="201"/>
+      <c r="AS29" s="201"/>
+      <c r="AT29" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="AU29" s="278"/>
-      <c r="AV29" s="278"/>
-      <c r="AW29" s="278"/>
-      <c r="AX29" s="255"/>
-      <c r="AY29" s="255"/>
-      <c r="AZ29" s="255"/>
-      <c r="BA29" s="255"/>
-      <c r="BB29" s="255"/>
-      <c r="BC29" s="255"/>
-      <c r="BD29" s="255"/>
-      <c r="BE29" s="255"/>
-      <c r="BF29" s="255"/>
+      <c r="AU29" s="204"/>
+      <c r="AV29" s="204"/>
+      <c r="AW29" s="204"/>
+      <c r="AX29" s="177"/>
+      <c r="AY29" s="177"/>
+      <c r="AZ29" s="177"/>
+      <c r="BA29" s="177"/>
+      <c r="BB29" s="177"/>
+      <c r="BC29" s="177"/>
+      <c r="BD29" s="177"/>
+      <c r="BE29" s="177"/>
+      <c r="BF29" s="177"/>
     </row>
     <row r="40" spans="2:35">
       <c r="B40" s="87" t="s">
@@ -11166,1118 +11189,1273 @@
       <c r="B41" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="189" t="s">
+      <c r="C41" s="295" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="189" t="s">
+      <c r="D41" s="296"/>
+      <c r="E41" s="296"/>
+      <c r="F41" s="296"/>
+      <c r="G41" s="296"/>
+      <c r="H41" s="296"/>
+      <c r="I41" s="297"/>
+      <c r="J41" s="295" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="190"/>
-      <c r="S41" s="190"/>
-      <c r="T41" s="190"/>
-      <c r="U41" s="190"/>
-      <c r="V41" s="190"/>
-      <c r="W41" s="190"/>
-      <c r="X41" s="190"/>
-      <c r="Y41" s="190"/>
-      <c r="Z41" s="190"/>
-      <c r="AA41" s="190"/>
-      <c r="AB41" s="190"/>
-      <c r="AC41" s="190"/>
-      <c r="AD41" s="190"/>
-      <c r="AE41" s="190"/>
-      <c r="AF41" s="190"/>
-      <c r="AG41" s="190"/>
-      <c r="AH41" s="190"/>
-      <c r="AI41" s="191"/>
+      <c r="K41" s="296"/>
+      <c r="L41" s="296"/>
+      <c r="M41" s="296"/>
+      <c r="N41" s="296"/>
+      <c r="O41" s="296"/>
+      <c r="P41" s="296"/>
+      <c r="Q41" s="296"/>
+      <c r="R41" s="296"/>
+      <c r="S41" s="296"/>
+      <c r="T41" s="296"/>
+      <c r="U41" s="296"/>
+      <c r="V41" s="296"/>
+      <c r="W41" s="296"/>
+      <c r="X41" s="296"/>
+      <c r="Y41" s="296"/>
+      <c r="Z41" s="296"/>
+      <c r="AA41" s="296"/>
+      <c r="AB41" s="296"/>
+      <c r="AC41" s="296"/>
+      <c r="AD41" s="296"/>
+      <c r="AE41" s="296"/>
+      <c r="AF41" s="296"/>
+      <c r="AG41" s="296"/>
+      <c r="AH41" s="296"/>
+      <c r="AI41" s="297"/>
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="89">
         <v>1</v>
       </c>
-      <c r="C42" s="192" t="s">
+      <c r="C42" s="298" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="195" t="s">
+      <c r="D42" s="299"/>
+      <c r="E42" s="299"/>
+      <c r="F42" s="299"/>
+      <c r="G42" s="299"/>
+      <c r="H42" s="299"/>
+      <c r="I42" s="300"/>
+      <c r="J42" s="234" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="196"/>
-      <c r="L42" s="196"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
-      <c r="O42" s="196"/>
-      <c r="P42" s="196"/>
-      <c r="Q42" s="196"/>
-      <c r="R42" s="196"/>
-      <c r="S42" s="196"/>
-      <c r="T42" s="196"/>
-      <c r="U42" s="196"/>
-      <c r="V42" s="196"/>
-      <c r="W42" s="196"/>
-      <c r="X42" s="196"/>
-      <c r="Y42" s="196"/>
-      <c r="Z42" s="196"/>
-      <c r="AA42" s="196"/>
-      <c r="AB42" s="196"/>
-      <c r="AC42" s="196"/>
-      <c r="AD42" s="196"/>
-      <c r="AE42" s="196"/>
-      <c r="AF42" s="196"/>
-      <c r="AG42" s="196"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="197"/>
+      <c r="K42" s="235"/>
+      <c r="L42" s="235"/>
+      <c r="M42" s="235"/>
+      <c r="N42" s="235"/>
+      <c r="O42" s="235"/>
+      <c r="P42" s="235"/>
+      <c r="Q42" s="235"/>
+      <c r="R42" s="235"/>
+      <c r="S42" s="235"/>
+      <c r="T42" s="235"/>
+      <c r="U42" s="235"/>
+      <c r="V42" s="235"/>
+      <c r="W42" s="235"/>
+      <c r="X42" s="235"/>
+      <c r="Y42" s="235"/>
+      <c r="Z42" s="235"/>
+      <c r="AA42" s="235"/>
+      <c r="AB42" s="235"/>
+      <c r="AC42" s="235"/>
+      <c r="AD42" s="235"/>
+      <c r="AE42" s="235"/>
+      <c r="AF42" s="235"/>
+      <c r="AG42" s="235"/>
+      <c r="AH42" s="235"/>
+      <c r="AI42" s="236"/>
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="90">
         <v>2</v>
       </c>
-      <c r="C43" s="195" t="s">
+      <c r="C43" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="195" t="s">
+      <c r="D43" s="235"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="235"/>
+      <c r="I43" s="236"/>
+      <c r="J43" s="234" t="s">
         <v>95</v>
       </c>
-      <c r="K43" s="196"/>
-      <c r="L43" s="196"/>
-      <c r="M43" s="196"/>
-      <c r="N43" s="196"/>
-      <c r="O43" s="196"/>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="196"/>
-      <c r="S43" s="196"/>
-      <c r="T43" s="196"/>
-      <c r="U43" s="196"/>
-      <c r="V43" s="196"/>
-      <c r="W43" s="196"/>
-      <c r="X43" s="196"/>
-      <c r="Y43" s="196"/>
-      <c r="Z43" s="196"/>
-      <c r="AA43" s="196"/>
-      <c r="AB43" s="196"/>
-      <c r="AC43" s="196"/>
-      <c r="AD43" s="196"/>
-      <c r="AE43" s="196"/>
-      <c r="AF43" s="196"/>
-      <c r="AG43" s="196"/>
-      <c r="AH43" s="196"/>
-      <c r="AI43" s="197"/>
+      <c r="K43" s="235"/>
+      <c r="L43" s="235"/>
+      <c r="M43" s="235"/>
+      <c r="N43" s="235"/>
+      <c r="O43" s="235"/>
+      <c r="P43" s="235"/>
+      <c r="Q43" s="235"/>
+      <c r="R43" s="235"/>
+      <c r="S43" s="235"/>
+      <c r="T43" s="235"/>
+      <c r="U43" s="235"/>
+      <c r="V43" s="235"/>
+      <c r="W43" s="235"/>
+      <c r="X43" s="235"/>
+      <c r="Y43" s="235"/>
+      <c r="Z43" s="235"/>
+      <c r="AA43" s="235"/>
+      <c r="AB43" s="235"/>
+      <c r="AC43" s="235"/>
+      <c r="AD43" s="235"/>
+      <c r="AE43" s="235"/>
+      <c r="AF43" s="235"/>
+      <c r="AG43" s="235"/>
+      <c r="AH43" s="235"/>
+      <c r="AI43" s="236"/>
     </row>
     <row r="44" spans="2:35">
       <c r="B44" s="90">
         <v>3</v>
       </c>
-      <c r="C44" s="198" t="s">
+      <c r="C44" s="301" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="199"/>
-      <c r="F44" s="199"/>
-      <c r="G44" s="199"/>
-      <c r="H44" s="199"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="195" t="s">
+      <c r="D44" s="302"/>
+      <c r="E44" s="302"/>
+      <c r="F44" s="302"/>
+      <c r="G44" s="302"/>
+      <c r="H44" s="302"/>
+      <c r="I44" s="303"/>
+      <c r="J44" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="K44" s="196"/>
-      <c r="L44" s="196"/>
-      <c r="M44" s="196"/>
-      <c r="N44" s="196"/>
-      <c r="O44" s="196"/>
-      <c r="P44" s="196"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="196"/>
-      <c r="S44" s="196"/>
-      <c r="T44" s="196"/>
-      <c r="U44" s="196"/>
-      <c r="V44" s="196"/>
-      <c r="W44" s="196"/>
-      <c r="X44" s="196"/>
-      <c r="Y44" s="196"/>
-      <c r="Z44" s="196"/>
-      <c r="AA44" s="196"/>
-      <c r="AB44" s="196"/>
-      <c r="AC44" s="196"/>
-      <c r="AD44" s="196"/>
-      <c r="AE44" s="196"/>
-      <c r="AF44" s="196"/>
-      <c r="AG44" s="196"/>
-      <c r="AH44" s="196"/>
-      <c r="AI44" s="197"/>
+      <c r="K44" s="235"/>
+      <c r="L44" s="235"/>
+      <c r="M44" s="235"/>
+      <c r="N44" s="235"/>
+      <c r="O44" s="235"/>
+      <c r="P44" s="235"/>
+      <c r="Q44" s="235"/>
+      <c r="R44" s="235"/>
+      <c r="S44" s="235"/>
+      <c r="T44" s="235"/>
+      <c r="U44" s="235"/>
+      <c r="V44" s="235"/>
+      <c r="W44" s="235"/>
+      <c r="X44" s="235"/>
+      <c r="Y44" s="235"/>
+      <c r="Z44" s="235"/>
+      <c r="AA44" s="235"/>
+      <c r="AB44" s="235"/>
+      <c r="AC44" s="235"/>
+      <c r="AD44" s="235"/>
+      <c r="AE44" s="235"/>
+      <c r="AF44" s="235"/>
+      <c r="AG44" s="235"/>
+      <c r="AH44" s="235"/>
+      <c r="AI44" s="236"/>
     </row>
     <row r="45" spans="2:35">
-      <c r="B45" s="187">
+      <c r="B45" s="246">
         <v>4</v>
       </c>
-      <c r="C45" s="212" t="s">
+      <c r="C45" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="213"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="214"/>
-      <c r="J45" s="201" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="202"/>
-      <c r="L45" s="202"/>
-      <c r="M45" s="202"/>
-      <c r="N45" s="202"/>
-      <c r="O45" s="202"/>
-      <c r="P45" s="202"/>
-      <c r="Q45" s="202"/>
-      <c r="R45" s="202"/>
-      <c r="S45" s="202"/>
-      <c r="T45" s="202"/>
-      <c r="U45" s="202"/>
-      <c r="V45" s="202"/>
-      <c r="W45" s="202"/>
-      <c r="X45" s="202"/>
-      <c r="Y45" s="202"/>
-      <c r="Z45" s="202"/>
-      <c r="AA45" s="202"/>
-      <c r="AB45" s="202"/>
-      <c r="AC45" s="202"/>
-      <c r="AD45" s="202"/>
-      <c r="AE45" s="202"/>
-      <c r="AF45" s="202"/>
-      <c r="AG45" s="202"/>
-      <c r="AH45" s="202"/>
-      <c r="AI45" s="203"/>
+      <c r="D45" s="250"/>
+      <c r="E45" s="250"/>
+      <c r="F45" s="250"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="250"/>
+      <c r="I45" s="251"/>
+      <c r="J45" s="237" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="238"/>
+      <c r="L45" s="238"/>
+      <c r="M45" s="238"/>
+      <c r="N45" s="238"/>
+      <c r="O45" s="238"/>
+      <c r="P45" s="238"/>
+      <c r="Q45" s="238"/>
+      <c r="R45" s="238"/>
+      <c r="S45" s="238"/>
+      <c r="T45" s="238"/>
+      <c r="U45" s="238"/>
+      <c r="V45" s="238"/>
+      <c r="W45" s="238"/>
+      <c r="X45" s="238"/>
+      <c r="Y45" s="238"/>
+      <c r="Z45" s="238"/>
+      <c r="AA45" s="238"/>
+      <c r="AB45" s="238"/>
+      <c r="AC45" s="238"/>
+      <c r="AD45" s="238"/>
+      <c r="AE45" s="238"/>
+      <c r="AF45" s="238"/>
+      <c r="AG45" s="238"/>
+      <c r="AH45" s="238"/>
+      <c r="AI45" s="239"/>
     </row>
     <row r="46" spans="2:35">
-      <c r="B46" s="210"/>
-      <c r="C46" s="215"/>
-      <c r="D46" s="216"/>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
-      <c r="G46" s="216"/>
-      <c r="H46" s="216"/>
-      <c r="I46" s="217"/>
-      <c r="J46" s="204"/>
-      <c r="K46" s="205"/>
-      <c r="L46" s="205"/>
-      <c r="M46" s="205"/>
-      <c r="N46" s="205"/>
-      <c r="O46" s="205"/>
-      <c r="P46" s="205"/>
-      <c r="Q46" s="205"/>
-      <c r="R46" s="205"/>
-      <c r="S46" s="205"/>
-      <c r="T46" s="205"/>
-      <c r="U46" s="205"/>
-      <c r="V46" s="205"/>
-      <c r="W46" s="205"/>
-      <c r="X46" s="205"/>
-      <c r="Y46" s="205"/>
-      <c r="Z46" s="205"/>
-      <c r="AA46" s="205"/>
-      <c r="AB46" s="205"/>
-      <c r="AC46" s="205"/>
-      <c r="AD46" s="205"/>
-      <c r="AE46" s="205"/>
-      <c r="AF46" s="205"/>
-      <c r="AG46" s="205"/>
-      <c r="AH46" s="205"/>
-      <c r="AI46" s="206"/>
+      <c r="B46" s="247"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="253"/>
+      <c r="E46" s="253"/>
+      <c r="F46" s="253"/>
+      <c r="G46" s="253"/>
+      <c r="H46" s="253"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="241"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="241"/>
+      <c r="N46" s="241"/>
+      <c r="O46" s="241"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="241"/>
+      <c r="R46" s="241"/>
+      <c r="S46" s="241"/>
+      <c r="T46" s="241"/>
+      <c r="U46" s="241"/>
+      <c r="V46" s="241"/>
+      <c r="W46" s="241"/>
+      <c r="X46" s="241"/>
+      <c r="Y46" s="241"/>
+      <c r="Z46" s="241"/>
+      <c r="AA46" s="241"/>
+      <c r="AB46" s="241"/>
+      <c r="AC46" s="241"/>
+      <c r="AD46" s="241"/>
+      <c r="AE46" s="241"/>
+      <c r="AF46" s="241"/>
+      <c r="AG46" s="241"/>
+      <c r="AH46" s="241"/>
+      <c r="AI46" s="242"/>
     </row>
     <row r="47" spans="2:35">
-      <c r="B47" s="211"/>
-      <c r="C47" s="218"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
-      <c r="G47" s="219"/>
-      <c r="H47" s="219"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="207"/>
-      <c r="K47" s="208"/>
-      <c r="L47" s="208"/>
-      <c r="M47" s="208"/>
-      <c r="N47" s="208"/>
-      <c r="O47" s="208"/>
-      <c r="P47" s="208"/>
-      <c r="Q47" s="208"/>
-      <c r="R47" s="208"/>
-      <c r="S47" s="208"/>
-      <c r="T47" s="208"/>
-      <c r="U47" s="208"/>
-      <c r="V47" s="208"/>
-      <c r="W47" s="208"/>
-      <c r="X47" s="208"/>
-      <c r="Y47" s="208"/>
-      <c r="Z47" s="208"/>
-      <c r="AA47" s="208"/>
-      <c r="AB47" s="208"/>
-      <c r="AC47" s="208"/>
-      <c r="AD47" s="208"/>
-      <c r="AE47" s="208"/>
-      <c r="AF47" s="208"/>
-      <c r="AG47" s="208"/>
-      <c r="AH47" s="208"/>
-      <c r="AI47" s="209"/>
+      <c r="B47" s="248"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="256"/>
+      <c r="E47" s="256"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
+      <c r="I47" s="257"/>
+      <c r="J47" s="243"/>
+      <c r="K47" s="244"/>
+      <c r="L47" s="244"/>
+      <c r="M47" s="244"/>
+      <c r="N47" s="244"/>
+      <c r="O47" s="244"/>
+      <c r="P47" s="244"/>
+      <c r="Q47" s="244"/>
+      <c r="R47" s="244"/>
+      <c r="S47" s="244"/>
+      <c r="T47" s="244"/>
+      <c r="U47" s="244"/>
+      <c r="V47" s="244"/>
+      <c r="W47" s="244"/>
+      <c r="X47" s="244"/>
+      <c r="Y47" s="244"/>
+      <c r="Z47" s="244"/>
+      <c r="AA47" s="244"/>
+      <c r="AB47" s="244"/>
+      <c r="AC47" s="244"/>
+      <c r="AD47" s="244"/>
+      <c r="AE47" s="244"/>
+      <c r="AF47" s="244"/>
+      <c r="AG47" s="244"/>
+      <c r="AH47" s="244"/>
+      <c r="AI47" s="245"/>
     </row>
     <row r="48" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B48" s="221">
+      <c r="B48" s="258">
         <v>5</v>
       </c>
-      <c r="C48" s="169" t="s">
+      <c r="C48" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="169" t="s">
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="261"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="261"/>
+      <c r="I48" s="262"/>
+      <c r="J48" s="260" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="261"/>
+      <c r="L48" s="261"/>
+      <c r="M48" s="261"/>
+      <c r="N48" s="261"/>
+      <c r="O48" s="261"/>
+      <c r="P48" s="261"/>
+      <c r="Q48" s="261"/>
+      <c r="R48" s="261"/>
+      <c r="S48" s="261"/>
+      <c r="T48" s="261"/>
+      <c r="U48" s="261"/>
+      <c r="V48" s="261"/>
+      <c r="W48" s="261"/>
+      <c r="X48" s="261"/>
+      <c r="Y48" s="261"/>
+      <c r="Z48" s="261"/>
+      <c r="AA48" s="261"/>
+      <c r="AB48" s="261"/>
+      <c r="AC48" s="261"/>
+      <c r="AD48" s="261"/>
+      <c r="AE48" s="261"/>
+      <c r="AF48" s="261"/>
+      <c r="AG48" s="261"/>
+      <c r="AH48" s="261"/>
+      <c r="AI48" s="262"/>
+    </row>
+    <row r="49" spans="2:35">
+      <c r="B49" s="259"/>
+      <c r="C49" s="266"/>
+      <c r="D49" s="267"/>
+      <c r="E49" s="267"/>
+      <c r="F49" s="267"/>
+      <c r="G49" s="267"/>
+      <c r="H49" s="267"/>
+      <c r="I49" s="268"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="264"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="264"/>
+      <c r="N49" s="264"/>
+      <c r="O49" s="264"/>
+      <c r="P49" s="264"/>
+      <c r="Q49" s="264"/>
+      <c r="R49" s="264"/>
+      <c r="S49" s="264"/>
+      <c r="T49" s="264"/>
+      <c r="U49" s="264"/>
+      <c r="V49" s="264"/>
+      <c r="W49" s="264"/>
+      <c r="X49" s="264"/>
+      <c r="Y49" s="264"/>
+      <c r="Z49" s="264"/>
+      <c r="AA49" s="264"/>
+      <c r="AB49" s="264"/>
+      <c r="AC49" s="264"/>
+      <c r="AD49" s="264"/>
+      <c r="AE49" s="264"/>
+      <c r="AF49" s="264"/>
+      <c r="AG49" s="264"/>
+      <c r="AH49" s="264"/>
+      <c r="AI49" s="265"/>
+    </row>
+    <row r="50" spans="2:35" ht="11.25" customHeight="1">
+      <c r="B50" s="258">
+        <v>6</v>
+      </c>
+      <c r="C50" s="272" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="273"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="273"/>
+      <c r="H50" s="273"/>
+      <c r="I50" s="274"/>
+      <c r="J50" s="260" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="261"/>
+      <c r="L50" s="261"/>
+      <c r="M50" s="261"/>
+      <c r="N50" s="261"/>
+      <c r="O50" s="261"/>
+      <c r="P50" s="261"/>
+      <c r="Q50" s="261"/>
+      <c r="R50" s="261"/>
+      <c r="S50" s="261"/>
+      <c r="T50" s="261"/>
+      <c r="U50" s="261"/>
+      <c r="V50" s="261"/>
+      <c r="W50" s="261"/>
+      <c r="X50" s="261"/>
+      <c r="Y50" s="261"/>
+      <c r="Z50" s="261"/>
+      <c r="AA50" s="261"/>
+      <c r="AB50" s="261"/>
+      <c r="AC50" s="261"/>
+      <c r="AD50" s="261"/>
+      <c r="AE50" s="261"/>
+      <c r="AF50" s="261"/>
+      <c r="AG50" s="261"/>
+      <c r="AH50" s="261"/>
+      <c r="AI50" s="262"/>
+    </row>
+    <row r="51" spans="2:35">
+      <c r="B51" s="281"/>
+      <c r="C51" s="275"/>
+      <c r="D51" s="276"/>
+      <c r="E51" s="276"/>
+      <c r="F51" s="276"/>
+      <c r="G51" s="276"/>
+      <c r="H51" s="276"/>
+      <c r="I51" s="277"/>
+      <c r="J51" s="269"/>
+      <c r="K51" s="270"/>
+      <c r="L51" s="270"/>
+      <c r="M51" s="270"/>
+      <c r="N51" s="270"/>
+      <c r="O51" s="270"/>
+      <c r="P51" s="270"/>
+      <c r="Q51" s="270"/>
+      <c r="R51" s="270"/>
+      <c r="S51" s="270"/>
+      <c r="T51" s="270"/>
+      <c r="U51" s="270"/>
+      <c r="V51" s="270"/>
+      <c r="W51" s="270"/>
+      <c r="X51" s="270"/>
+      <c r="Y51" s="270"/>
+      <c r="Z51" s="270"/>
+      <c r="AA51" s="270"/>
+      <c r="AB51" s="270"/>
+      <c r="AC51" s="270"/>
+      <c r="AD51" s="270"/>
+      <c r="AE51" s="270"/>
+      <c r="AF51" s="270"/>
+      <c r="AG51" s="270"/>
+      <c r="AH51" s="270"/>
+      <c r="AI51" s="271"/>
+    </row>
+    <row r="52" spans="2:35">
+      <c r="B52" s="259"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="267"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="267"/>
+      <c r="I52" s="268"/>
+      <c r="J52" s="263"/>
+      <c r="K52" s="264"/>
+      <c r="L52" s="264"/>
+      <c r="M52" s="264"/>
+      <c r="N52" s="264"/>
+      <c r="O52" s="264"/>
+      <c r="P52" s="264"/>
+      <c r="Q52" s="264"/>
+      <c r="R52" s="264"/>
+      <c r="S52" s="264"/>
+      <c r="T52" s="264"/>
+      <c r="U52" s="264"/>
+      <c r="V52" s="264"/>
+      <c r="W52" s="264"/>
+      <c r="X52" s="264"/>
+      <c r="Y52" s="264"/>
+      <c r="Z52" s="264"/>
+      <c r="AA52" s="264"/>
+      <c r="AB52" s="264"/>
+      <c r="AC52" s="264"/>
+      <c r="AD52" s="264"/>
+      <c r="AE52" s="264"/>
+      <c r="AF52" s="264"/>
+      <c r="AG52" s="264"/>
+      <c r="AH52" s="264"/>
+      <c r="AI52" s="265"/>
+    </row>
+    <row r="53" spans="2:35" ht="11.25" customHeight="1">
+      <c r="B53" s="246">
+        <v>7</v>
+      </c>
+      <c r="C53" s="282" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
-      <c r="M48" s="170"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="170"/>
-      <c r="P48" s="170"/>
-      <c r="Q48" s="170"/>
-      <c r="R48" s="170"/>
-      <c r="S48" s="170"/>
-      <c r="T48" s="170"/>
-      <c r="U48" s="170"/>
-      <c r="V48" s="170"/>
-      <c r="W48" s="170"/>
-      <c r="X48" s="170"/>
-      <c r="Y48" s="170"/>
-      <c r="Z48" s="170"/>
-      <c r="AA48" s="170"/>
-      <c r="AB48" s="170"/>
-      <c r="AC48" s="170"/>
-      <c r="AD48" s="170"/>
-      <c r="AE48" s="170"/>
-      <c r="AF48" s="170"/>
-      <c r="AG48" s="170"/>
-      <c r="AH48" s="170"/>
-      <c r="AI48" s="171"/>
-    </row>
-    <row r="49" spans="2:35">
-      <c r="B49" s="222"/>
-      <c r="C49" s="223"/>
-      <c r="D49" s="224"/>
-      <c r="E49" s="224"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="224"/>
-      <c r="H49" s="224"/>
-      <c r="I49" s="225"/>
-      <c r="J49" s="172"/>
-      <c r="K49" s="173"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="173"/>
-      <c r="N49" s="173"/>
-      <c r="O49" s="173"/>
-      <c r="P49" s="173"/>
-      <c r="Q49" s="173"/>
-      <c r="R49" s="173"/>
-      <c r="S49" s="173"/>
-      <c r="T49" s="173"/>
-      <c r="U49" s="173"/>
-      <c r="V49" s="173"/>
-      <c r="W49" s="173"/>
-      <c r="X49" s="173"/>
-      <c r="Y49" s="173"/>
-      <c r="Z49" s="173"/>
-      <c r="AA49" s="173"/>
-      <c r="AB49" s="173"/>
-      <c r="AC49" s="173"/>
-      <c r="AD49" s="173"/>
-      <c r="AE49" s="173"/>
-      <c r="AF49" s="173"/>
-      <c r="AG49" s="173"/>
-      <c r="AH49" s="173"/>
-      <c r="AI49" s="174"/>
-    </row>
-    <row r="50" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B50" s="221">
-        <v>6</v>
-      </c>
-      <c r="C50" s="229" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="230"/>
-      <c r="E50" s="230"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="230"/>
-      <c r="H50" s="230"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="169" t="s">
+      <c r="D53" s="283"/>
+      <c r="E53" s="283"/>
+      <c r="F53" s="283"/>
+      <c r="G53" s="283"/>
+      <c r="H53" s="283"/>
+      <c r="I53" s="284"/>
+      <c r="J53" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
-      <c r="O50" s="170"/>
-      <c r="P50" s="170"/>
-      <c r="Q50" s="170"/>
-      <c r="R50" s="170"/>
-      <c r="S50" s="170"/>
-      <c r="T50" s="170"/>
-      <c r="U50" s="170"/>
-      <c r="V50" s="170"/>
-      <c r="W50" s="170"/>
-      <c r="X50" s="170"/>
-      <c r="Y50" s="170"/>
-      <c r="Z50" s="170"/>
-      <c r="AA50" s="170"/>
-      <c r="AB50" s="170"/>
-      <c r="AC50" s="170"/>
-      <c r="AD50" s="170"/>
-      <c r="AE50" s="170"/>
-      <c r="AF50" s="170"/>
-      <c r="AG50" s="170"/>
-      <c r="AH50" s="170"/>
-      <c r="AI50" s="171"/>
-    </row>
-    <row r="51" spans="2:35">
-      <c r="B51" s="238"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="233"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="233"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="226"/>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="227"/>
-      <c r="N51" s="227"/>
-      <c r="O51" s="227"/>
-      <c r="P51" s="227"/>
-      <c r="Q51" s="227"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="227"/>
-      <c r="T51" s="227"/>
-      <c r="U51" s="227"/>
-      <c r="V51" s="227"/>
-      <c r="W51" s="227"/>
-      <c r="X51" s="227"/>
-      <c r="Y51" s="227"/>
-      <c r="Z51" s="227"/>
-      <c r="AA51" s="227"/>
-      <c r="AB51" s="227"/>
-      <c r="AC51" s="227"/>
-      <c r="AD51" s="227"/>
-      <c r="AE51" s="227"/>
-      <c r="AF51" s="227"/>
-      <c r="AG51" s="227"/>
-      <c r="AH51" s="227"/>
-      <c r="AI51" s="228"/>
-    </row>
-    <row r="52" spans="2:35">
-      <c r="B52" s="222"/>
-      <c r="C52" s="223"/>
-      <c r="D52" s="224"/>
-      <c r="E52" s="224"/>
-      <c r="F52" s="224"/>
-      <c r="G52" s="224"/>
-      <c r="H52" s="224"/>
-      <c r="I52" s="225"/>
-      <c r="J52" s="172"/>
-      <c r="K52" s="173"/>
-      <c r="L52" s="173"/>
-      <c r="M52" s="173"/>
-      <c r="N52" s="173"/>
-      <c r="O52" s="173"/>
-      <c r="P52" s="173"/>
-      <c r="Q52" s="173"/>
-      <c r="R52" s="173"/>
-      <c r="S52" s="173"/>
-      <c r="T52" s="173"/>
-      <c r="U52" s="173"/>
-      <c r="V52" s="173"/>
-      <c r="W52" s="173"/>
-      <c r="X52" s="173"/>
-      <c r="Y52" s="173"/>
-      <c r="Z52" s="173"/>
-      <c r="AA52" s="173"/>
-      <c r="AB52" s="173"/>
-      <c r="AC52" s="173"/>
-      <c r="AD52" s="173"/>
-      <c r="AE52" s="173"/>
-      <c r="AF52" s="173"/>
-      <c r="AG52" s="173"/>
-      <c r="AH52" s="173"/>
-      <c r="AI52" s="174"/>
-    </row>
-    <row r="53" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B53" s="187">
-        <v>7</v>
-      </c>
-      <c r="C53" s="175" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="177"/>
-      <c r="J53" s="169" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="170"/>
-      <c r="O53" s="170"/>
-      <c r="P53" s="170"/>
-      <c r="Q53" s="170"/>
-      <c r="R53" s="170"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="170"/>
-      <c r="U53" s="170"/>
-      <c r="V53" s="170"/>
-      <c r="W53" s="170"/>
-      <c r="X53" s="170"/>
-      <c r="Y53" s="170"/>
-      <c r="Z53" s="170"/>
-      <c r="AA53" s="170"/>
-      <c r="AB53" s="170"/>
-      <c r="AC53" s="170"/>
-      <c r="AD53" s="170"/>
-      <c r="AE53" s="170"/>
-      <c r="AF53" s="170"/>
-      <c r="AG53" s="170"/>
-      <c r="AH53" s="170"/>
-      <c r="AI53" s="171"/>
+      <c r="K53" s="261"/>
+      <c r="L53" s="261"/>
+      <c r="M53" s="261"/>
+      <c r="N53" s="261"/>
+      <c r="O53" s="261"/>
+      <c r="P53" s="261"/>
+      <c r="Q53" s="261"/>
+      <c r="R53" s="261"/>
+      <c r="S53" s="261"/>
+      <c r="T53" s="261"/>
+      <c r="U53" s="261"/>
+      <c r="V53" s="261"/>
+      <c r="W53" s="261"/>
+      <c r="X53" s="261"/>
+      <c r="Y53" s="261"/>
+      <c r="Z53" s="261"/>
+      <c r="AA53" s="261"/>
+      <c r="AB53" s="261"/>
+      <c r="AC53" s="261"/>
+      <c r="AD53" s="261"/>
+      <c r="AE53" s="261"/>
+      <c r="AF53" s="261"/>
+      <c r="AG53" s="261"/>
+      <c r="AH53" s="261"/>
+      <c r="AI53" s="262"/>
     </row>
     <row r="54" spans="2:35">
-      <c r="B54" s="188"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="179"/>
-      <c r="H54" s="179"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="172"/>
-      <c r="K54" s="173"/>
-      <c r="L54" s="173"/>
-      <c r="M54" s="173"/>
-      <c r="N54" s="173"/>
-      <c r="O54" s="173"/>
-      <c r="P54" s="173"/>
-      <c r="Q54" s="173"/>
-      <c r="R54" s="173"/>
-      <c r="S54" s="173"/>
-      <c r="T54" s="173"/>
-      <c r="U54" s="173"/>
-      <c r="V54" s="173"/>
-      <c r="W54" s="173"/>
-      <c r="X54" s="173"/>
-      <c r="Y54" s="173"/>
-      <c r="Z54" s="173"/>
-      <c r="AA54" s="173"/>
-      <c r="AB54" s="173"/>
-      <c r="AC54" s="173"/>
-      <c r="AD54" s="173"/>
-      <c r="AE54" s="173"/>
-      <c r="AF54" s="173"/>
-      <c r="AG54" s="173"/>
-      <c r="AH54" s="173"/>
-      <c r="AI54" s="174"/>
+      <c r="B54" s="294"/>
+      <c r="C54" s="285"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="286"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="286"/>
+      <c r="H54" s="286"/>
+      <c r="I54" s="287"/>
+      <c r="J54" s="263"/>
+      <c r="K54" s="264"/>
+      <c r="L54" s="264"/>
+      <c r="M54" s="264"/>
+      <c r="N54" s="264"/>
+      <c r="O54" s="264"/>
+      <c r="P54" s="264"/>
+      <c r="Q54" s="264"/>
+      <c r="R54" s="264"/>
+      <c r="S54" s="264"/>
+      <c r="T54" s="264"/>
+      <c r="U54" s="264"/>
+      <c r="V54" s="264"/>
+      <c r="W54" s="264"/>
+      <c r="X54" s="264"/>
+      <c r="Y54" s="264"/>
+      <c r="Z54" s="264"/>
+      <c r="AA54" s="264"/>
+      <c r="AB54" s="264"/>
+      <c r="AC54" s="264"/>
+      <c r="AD54" s="264"/>
+      <c r="AE54" s="264"/>
+      <c r="AF54" s="264"/>
+      <c r="AG54" s="264"/>
+      <c r="AH54" s="264"/>
+      <c r="AI54" s="265"/>
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="90">
         <v>8</v>
       </c>
-      <c r="C55" s="195" t="s">
+      <c r="C55" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="196"/>
-      <c r="E55" s="196"/>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="197"/>
-      <c r="J55" s="195" t="s">
-        <v>102</v>
-      </c>
-      <c r="K55" s="196"/>
-      <c r="L55" s="196"/>
-      <c r="M55" s="196"/>
-      <c r="N55" s="196"/>
-      <c r="O55" s="196"/>
-      <c r="P55" s="196"/>
-      <c r="Q55" s="196"/>
-      <c r="R55" s="196"/>
-      <c r="S55" s="196"/>
-      <c r="T55" s="196"/>
-      <c r="U55" s="196"/>
-      <c r="V55" s="196"/>
-      <c r="W55" s="196"/>
-      <c r="X55" s="196"/>
-      <c r="Y55" s="196"/>
-      <c r="Z55" s="196"/>
-      <c r="AA55" s="196"/>
-      <c r="AB55" s="196"/>
-      <c r="AC55" s="196"/>
-      <c r="AD55" s="196"/>
-      <c r="AE55" s="196"/>
-      <c r="AF55" s="196"/>
-      <c r="AG55" s="196"/>
-      <c r="AH55" s="196"/>
-      <c r="AI55" s="197"/>
+      <c r="D55" s="235"/>
+      <c r="E55" s="235"/>
+      <c r="F55" s="235"/>
+      <c r="G55" s="235"/>
+      <c r="H55" s="235"/>
+      <c r="I55" s="236"/>
+      <c r="J55" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="K55" s="235"/>
+      <c r="L55" s="235"/>
+      <c r="M55" s="235"/>
+      <c r="N55" s="235"/>
+      <c r="O55" s="235"/>
+      <c r="P55" s="235"/>
+      <c r="Q55" s="235"/>
+      <c r="R55" s="235"/>
+      <c r="S55" s="235"/>
+      <c r="T55" s="235"/>
+      <c r="U55" s="235"/>
+      <c r="V55" s="235"/>
+      <c r="W55" s="235"/>
+      <c r="X55" s="235"/>
+      <c r="Y55" s="235"/>
+      <c r="Z55" s="235"/>
+      <c r="AA55" s="235"/>
+      <c r="AB55" s="235"/>
+      <c r="AC55" s="235"/>
+      <c r="AD55" s="235"/>
+      <c r="AE55" s="235"/>
+      <c r="AF55" s="235"/>
+      <c r="AG55" s="235"/>
+      <c r="AH55" s="235"/>
+      <c r="AI55" s="236"/>
     </row>
     <row r="56" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B56" s="187">
+      <c r="B56" s="246">
         <v>9</v>
       </c>
-      <c r="C56" s="181" t="s">
+      <c r="C56" s="288" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="183"/>
-      <c r="J56" s="169" t="s">
-        <v>133</v>
-      </c>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="170"/>
-      <c r="N56" s="170"/>
-      <c r="O56" s="170"/>
-      <c r="P56" s="170"/>
-      <c r="Q56" s="170"/>
-      <c r="R56" s="170"/>
-      <c r="S56" s="170"/>
-      <c r="T56" s="170"/>
-      <c r="U56" s="170"/>
-      <c r="V56" s="170"/>
-      <c r="W56" s="170"/>
-      <c r="X56" s="170"/>
-      <c r="Y56" s="170"/>
-      <c r="Z56" s="170"/>
-      <c r="AA56" s="170"/>
-      <c r="AB56" s="170"/>
-      <c r="AC56" s="170"/>
-      <c r="AD56" s="170"/>
-      <c r="AE56" s="170"/>
-      <c r="AF56" s="170"/>
-      <c r="AG56" s="170"/>
-      <c r="AH56" s="170"/>
-      <c r="AI56" s="171"/>
+      <c r="D56" s="289"/>
+      <c r="E56" s="289"/>
+      <c r="F56" s="289"/>
+      <c r="G56" s="289"/>
+      <c r="H56" s="289"/>
+      <c r="I56" s="290"/>
+      <c r="J56" s="260" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56" s="261"/>
+      <c r="L56" s="261"/>
+      <c r="M56" s="261"/>
+      <c r="N56" s="261"/>
+      <c r="O56" s="261"/>
+      <c r="P56" s="261"/>
+      <c r="Q56" s="261"/>
+      <c r="R56" s="261"/>
+      <c r="S56" s="261"/>
+      <c r="T56" s="261"/>
+      <c r="U56" s="261"/>
+      <c r="V56" s="261"/>
+      <c r="W56" s="261"/>
+      <c r="X56" s="261"/>
+      <c r="Y56" s="261"/>
+      <c r="Z56" s="261"/>
+      <c r="AA56" s="261"/>
+      <c r="AB56" s="261"/>
+      <c r="AC56" s="261"/>
+      <c r="AD56" s="261"/>
+      <c r="AE56" s="261"/>
+      <c r="AF56" s="261"/>
+      <c r="AG56" s="261"/>
+      <c r="AH56" s="261"/>
+      <c r="AI56" s="262"/>
     </row>
     <row r="57" spans="2:35">
-      <c r="B57" s="188"/>
-      <c r="C57" s="184"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="185"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="186"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173"/>
-      <c r="N57" s="173"/>
-      <c r="O57" s="173"/>
-      <c r="P57" s="173"/>
-      <c r="Q57" s="173"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="173"/>
-      <c r="T57" s="173"/>
-      <c r="U57" s="173"/>
-      <c r="V57" s="173"/>
-      <c r="W57" s="173"/>
-      <c r="X57" s="173"/>
-      <c r="Y57" s="173"/>
-      <c r="Z57" s="173"/>
-      <c r="AA57" s="173"/>
-      <c r="AB57" s="173"/>
-      <c r="AC57" s="173"/>
-      <c r="AD57" s="173"/>
-      <c r="AE57" s="173"/>
-      <c r="AF57" s="173"/>
-      <c r="AG57" s="173"/>
-      <c r="AH57" s="173"/>
-      <c r="AI57" s="174"/>
+      <c r="B57" s="294"/>
+      <c r="C57" s="291"/>
+      <c r="D57" s="292"/>
+      <c r="E57" s="292"/>
+      <c r="F57" s="292"/>
+      <c r="G57" s="292"/>
+      <c r="H57" s="292"/>
+      <c r="I57" s="293"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="264"/>
+      <c r="L57" s="264"/>
+      <c r="M57" s="264"/>
+      <c r="N57" s="264"/>
+      <c r="O57" s="264"/>
+      <c r="P57" s="264"/>
+      <c r="Q57" s="264"/>
+      <c r="R57" s="264"/>
+      <c r="S57" s="264"/>
+      <c r="T57" s="264"/>
+      <c r="U57" s="264"/>
+      <c r="V57" s="264"/>
+      <c r="W57" s="264"/>
+      <c r="X57" s="264"/>
+      <c r="Y57" s="264"/>
+      <c r="Z57" s="264"/>
+      <c r="AA57" s="264"/>
+      <c r="AB57" s="264"/>
+      <c r="AC57" s="264"/>
+      <c r="AD57" s="264"/>
+      <c r="AE57" s="264"/>
+      <c r="AF57" s="264"/>
+      <c r="AG57" s="264"/>
+      <c r="AH57" s="264"/>
+      <c r="AI57" s="265"/>
     </row>
     <row r="58" spans="2:35">
       <c r="B58" s="90">
         <v>10</v>
       </c>
-      <c r="C58" s="195" t="s">
+      <c r="C58" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="196"/>
-      <c r="E58" s="196"/>
-      <c r="F58" s="196"/>
-      <c r="G58" s="196"/>
-      <c r="H58" s="196"/>
-      <c r="I58" s="197"/>
-      <c r="J58" s="195" t="s">
-        <v>103</v>
-      </c>
-      <c r="K58" s="196"/>
-      <c r="L58" s="196"/>
-      <c r="M58" s="196"/>
-      <c r="N58" s="196"/>
-      <c r="O58" s="196"/>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="196"/>
-      <c r="S58" s="196"/>
-      <c r="T58" s="196"/>
-      <c r="U58" s="196"/>
-      <c r="V58" s="196"/>
-      <c r="W58" s="196"/>
-      <c r="X58" s="196"/>
-      <c r="Y58" s="196"/>
-      <c r="Z58" s="196"/>
-      <c r="AA58" s="196"/>
-      <c r="AB58" s="196"/>
-      <c r="AC58" s="196"/>
-      <c r="AD58" s="196"/>
-      <c r="AE58" s="196"/>
-      <c r="AF58" s="196"/>
-      <c r="AG58" s="196"/>
-      <c r="AH58" s="196"/>
-      <c r="AI58" s="197"/>
+      <c r="D58" s="235"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="235"/>
+      <c r="H58" s="235"/>
+      <c r="I58" s="236"/>
+      <c r="J58" s="234" t="s">
+        <v>101</v>
+      </c>
+      <c r="K58" s="235"/>
+      <c r="L58" s="235"/>
+      <c r="M58" s="235"/>
+      <c r="N58" s="235"/>
+      <c r="O58" s="235"/>
+      <c r="P58" s="235"/>
+      <c r="Q58" s="235"/>
+      <c r="R58" s="235"/>
+      <c r="S58" s="235"/>
+      <c r="T58" s="235"/>
+      <c r="U58" s="235"/>
+      <c r="V58" s="235"/>
+      <c r="W58" s="235"/>
+      <c r="X58" s="235"/>
+      <c r="Y58" s="235"/>
+      <c r="Z58" s="235"/>
+      <c r="AA58" s="235"/>
+      <c r="AB58" s="235"/>
+      <c r="AC58" s="235"/>
+      <c r="AD58" s="235"/>
+      <c r="AE58" s="235"/>
+      <c r="AF58" s="235"/>
+      <c r="AG58" s="235"/>
+      <c r="AH58" s="235"/>
+      <c r="AI58" s="236"/>
     </row>
     <row r="59" spans="2:35">
-      <c r="B59" s="187">
+      <c r="B59" s="246">
         <v>11</v>
       </c>
-      <c r="C59" s="212" t="s">
+      <c r="C59" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="213"/>
-      <c r="E59" s="213"/>
-      <c r="F59" s="213"/>
-      <c r="G59" s="213"/>
-      <c r="H59" s="213"/>
-      <c r="I59" s="214"/>
-      <c r="J59" s="201" t="s">
-        <v>104</v>
-      </c>
-      <c r="K59" s="202"/>
-      <c r="L59" s="202"/>
-      <c r="M59" s="202"/>
-      <c r="N59" s="202"/>
-      <c r="O59" s="202"/>
-      <c r="P59" s="202"/>
-      <c r="Q59" s="202"/>
-      <c r="R59" s="202"/>
-      <c r="S59" s="202"/>
-      <c r="T59" s="202"/>
-      <c r="U59" s="202"/>
-      <c r="V59" s="202"/>
-      <c r="W59" s="202"/>
-      <c r="X59" s="202"/>
-      <c r="Y59" s="202"/>
-      <c r="Z59" s="202"/>
-      <c r="AA59" s="202"/>
-      <c r="AB59" s="202"/>
-      <c r="AC59" s="202"/>
-      <c r="AD59" s="202"/>
-      <c r="AE59" s="202"/>
-      <c r="AF59" s="202"/>
-      <c r="AG59" s="202"/>
-      <c r="AH59" s="202"/>
-      <c r="AI59" s="203"/>
+      <c r="D59" s="250"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="250"/>
+      <c r="G59" s="250"/>
+      <c r="H59" s="250"/>
+      <c r="I59" s="251"/>
+      <c r="J59" s="237" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" s="238"/>
+      <c r="L59" s="238"/>
+      <c r="M59" s="238"/>
+      <c r="N59" s="238"/>
+      <c r="O59" s="238"/>
+      <c r="P59" s="238"/>
+      <c r="Q59" s="238"/>
+      <c r="R59" s="238"/>
+      <c r="S59" s="238"/>
+      <c r="T59" s="238"/>
+      <c r="U59" s="238"/>
+      <c r="V59" s="238"/>
+      <c r="W59" s="238"/>
+      <c r="X59" s="238"/>
+      <c r="Y59" s="238"/>
+      <c r="Z59" s="238"/>
+      <c r="AA59" s="238"/>
+      <c r="AB59" s="238"/>
+      <c r="AC59" s="238"/>
+      <c r="AD59" s="238"/>
+      <c r="AE59" s="238"/>
+      <c r="AF59" s="238"/>
+      <c r="AG59" s="238"/>
+      <c r="AH59" s="238"/>
+      <c r="AI59" s="239"/>
     </row>
     <row r="60" spans="2:35">
-      <c r="B60" s="210"/>
-      <c r="C60" s="215"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
-      <c r="G60" s="216"/>
-      <c r="H60" s="216"/>
-      <c r="I60" s="217"/>
-      <c r="J60" s="204"/>
-      <c r="K60" s="205"/>
-      <c r="L60" s="205"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="205"/>
-      <c r="O60" s="205"/>
-      <c r="P60" s="205"/>
-      <c r="Q60" s="205"/>
-      <c r="R60" s="205"/>
-      <c r="S60" s="205"/>
-      <c r="T60" s="205"/>
-      <c r="U60" s="205"/>
-      <c r="V60" s="205"/>
-      <c r="W60" s="205"/>
-      <c r="X60" s="205"/>
-      <c r="Y60" s="205"/>
-      <c r="Z60" s="205"/>
-      <c r="AA60" s="205"/>
-      <c r="AB60" s="205"/>
-      <c r="AC60" s="205"/>
-      <c r="AD60" s="205"/>
-      <c r="AE60" s="205"/>
-      <c r="AF60" s="205"/>
-      <c r="AG60" s="205"/>
-      <c r="AH60" s="205"/>
-      <c r="AI60" s="206"/>
+      <c r="B60" s="247"/>
+      <c r="C60" s="252"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="253"/>
+      <c r="G60" s="253"/>
+      <c r="H60" s="253"/>
+      <c r="I60" s="254"/>
+      <c r="J60" s="240"/>
+      <c r="K60" s="241"/>
+      <c r="L60" s="241"/>
+      <c r="M60" s="241"/>
+      <c r="N60" s="241"/>
+      <c r="O60" s="241"/>
+      <c r="P60" s="241"/>
+      <c r="Q60" s="241"/>
+      <c r="R60" s="241"/>
+      <c r="S60" s="241"/>
+      <c r="T60" s="241"/>
+      <c r="U60" s="241"/>
+      <c r="V60" s="241"/>
+      <c r="W60" s="241"/>
+      <c r="X60" s="241"/>
+      <c r="Y60" s="241"/>
+      <c r="Z60" s="241"/>
+      <c r="AA60" s="241"/>
+      <c r="AB60" s="241"/>
+      <c r="AC60" s="241"/>
+      <c r="AD60" s="241"/>
+      <c r="AE60" s="241"/>
+      <c r="AF60" s="241"/>
+      <c r="AG60" s="241"/>
+      <c r="AH60" s="241"/>
+      <c r="AI60" s="242"/>
     </row>
     <row r="61" spans="2:35">
-      <c r="B61" s="210"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="216"/>
-      <c r="G61" s="216"/>
-      <c r="H61" s="216"/>
-      <c r="I61" s="217"/>
-      <c r="J61" s="204"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="205"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="205"/>
-      <c r="P61" s="205"/>
-      <c r="Q61" s="205"/>
-      <c r="R61" s="205"/>
-      <c r="S61" s="205"/>
-      <c r="T61" s="205"/>
-      <c r="U61" s="205"/>
-      <c r="V61" s="205"/>
-      <c r="W61" s="205"/>
-      <c r="X61" s="205"/>
-      <c r="Y61" s="205"/>
-      <c r="Z61" s="205"/>
-      <c r="AA61" s="205"/>
-      <c r="AB61" s="205"/>
-      <c r="AC61" s="205"/>
-      <c r="AD61" s="205"/>
-      <c r="AE61" s="205"/>
-      <c r="AF61" s="205"/>
-      <c r="AG61" s="205"/>
-      <c r="AH61" s="205"/>
-      <c r="AI61" s="206"/>
+      <c r="B61" s="247"/>
+      <c r="C61" s="252"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="253"/>
+      <c r="G61" s="253"/>
+      <c r="H61" s="253"/>
+      <c r="I61" s="254"/>
+      <c r="J61" s="240"/>
+      <c r="K61" s="241"/>
+      <c r="L61" s="241"/>
+      <c r="M61" s="241"/>
+      <c r="N61" s="241"/>
+      <c r="O61" s="241"/>
+      <c r="P61" s="241"/>
+      <c r="Q61" s="241"/>
+      <c r="R61" s="241"/>
+      <c r="S61" s="241"/>
+      <c r="T61" s="241"/>
+      <c r="U61" s="241"/>
+      <c r="V61" s="241"/>
+      <c r="W61" s="241"/>
+      <c r="X61" s="241"/>
+      <c r="Y61" s="241"/>
+      <c r="Z61" s="241"/>
+      <c r="AA61" s="241"/>
+      <c r="AB61" s="241"/>
+      <c r="AC61" s="241"/>
+      <c r="AD61" s="241"/>
+      <c r="AE61" s="241"/>
+      <c r="AF61" s="241"/>
+      <c r="AG61" s="241"/>
+      <c r="AH61" s="241"/>
+      <c r="AI61" s="242"/>
     </row>
     <row r="62" spans="2:35">
-      <c r="B62" s="211"/>
-      <c r="C62" s="218"/>
-      <c r="D62" s="219"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="219"/>
-      <c r="G62" s="219"/>
-      <c r="H62" s="219"/>
-      <c r="I62" s="220"/>
-      <c r="J62" s="207"/>
-      <c r="K62" s="208"/>
-      <c r="L62" s="208"/>
-      <c r="M62" s="208"/>
-      <c r="N62" s="208"/>
-      <c r="O62" s="208"/>
-      <c r="P62" s="208"/>
-      <c r="Q62" s="208"/>
-      <c r="R62" s="208"/>
-      <c r="S62" s="208"/>
-      <c r="T62" s="208"/>
-      <c r="U62" s="208"/>
-      <c r="V62" s="208"/>
-      <c r="W62" s="208"/>
-      <c r="X62" s="208"/>
-      <c r="Y62" s="208"/>
-      <c r="Z62" s="208"/>
-      <c r="AA62" s="208"/>
-      <c r="AB62" s="208"/>
-      <c r="AC62" s="208"/>
-      <c r="AD62" s="208"/>
-      <c r="AE62" s="208"/>
-      <c r="AF62" s="208"/>
-      <c r="AG62" s="208"/>
-      <c r="AH62" s="208"/>
-      <c r="AI62" s="209"/>
+      <c r="B62" s="248"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="256"/>
+      <c r="E62" s="256"/>
+      <c r="F62" s="256"/>
+      <c r="G62" s="256"/>
+      <c r="H62" s="256"/>
+      <c r="I62" s="257"/>
+      <c r="J62" s="243"/>
+      <c r="K62" s="244"/>
+      <c r="L62" s="244"/>
+      <c r="M62" s="244"/>
+      <c r="N62" s="244"/>
+      <c r="O62" s="244"/>
+      <c r="P62" s="244"/>
+      <c r="Q62" s="244"/>
+      <c r="R62" s="244"/>
+      <c r="S62" s="244"/>
+      <c r="T62" s="244"/>
+      <c r="U62" s="244"/>
+      <c r="V62" s="244"/>
+      <c r="W62" s="244"/>
+      <c r="X62" s="244"/>
+      <c r="Y62" s="244"/>
+      <c r="Z62" s="244"/>
+      <c r="AA62" s="244"/>
+      <c r="AB62" s="244"/>
+      <c r="AC62" s="244"/>
+      <c r="AD62" s="244"/>
+      <c r="AE62" s="244"/>
+      <c r="AF62" s="244"/>
+      <c r="AG62" s="244"/>
+      <c r="AH62" s="244"/>
+      <c r="AI62" s="245"/>
     </row>
     <row r="63" spans="2:35">
-      <c r="B63" s="235">
+      <c r="B63" s="278">
         <v>12</v>
       </c>
-      <c r="C63" s="212" t="s">
+      <c r="C63" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="213"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="213"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="214"/>
-      <c r="J63" s="201" t="s">
-        <v>135</v>
-      </c>
-      <c r="K63" s="213"/>
-      <c r="L63" s="213"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="213"/>
-      <c r="R63" s="213"/>
-      <c r="S63" s="213"/>
-      <c r="T63" s="213"/>
-      <c r="U63" s="213"/>
-      <c r="V63" s="213"/>
-      <c r="W63" s="213"/>
-      <c r="X63" s="213"/>
-      <c r="Y63" s="213"/>
-      <c r="Z63" s="213"/>
-      <c r="AA63" s="213"/>
-      <c r="AB63" s="213"/>
-      <c r="AC63" s="213"/>
-      <c r="AD63" s="213"/>
-      <c r="AE63" s="213"/>
-      <c r="AF63" s="213"/>
-      <c r="AG63" s="213"/>
-      <c r="AH63" s="213"/>
-      <c r="AI63" s="214"/>
+      <c r="D63" s="250"/>
+      <c r="E63" s="250"/>
+      <c r="F63" s="250"/>
+      <c r="G63" s="250"/>
+      <c r="H63" s="250"/>
+      <c r="I63" s="251"/>
+      <c r="J63" s="237" t="s">
+        <v>134</v>
+      </c>
+      <c r="K63" s="250"/>
+      <c r="L63" s="250"/>
+      <c r="M63" s="250"/>
+      <c r="N63" s="250"/>
+      <c r="O63" s="250"/>
+      <c r="P63" s="250"/>
+      <c r="Q63" s="250"/>
+      <c r="R63" s="250"/>
+      <c r="S63" s="250"/>
+      <c r="T63" s="250"/>
+      <c r="U63" s="250"/>
+      <c r="V63" s="250"/>
+      <c r="W63" s="250"/>
+      <c r="X63" s="250"/>
+      <c r="Y63" s="250"/>
+      <c r="Z63" s="250"/>
+      <c r="AA63" s="250"/>
+      <c r="AB63" s="250"/>
+      <c r="AC63" s="250"/>
+      <c r="AD63" s="250"/>
+      <c r="AE63" s="250"/>
+      <c r="AF63" s="250"/>
+      <c r="AG63" s="250"/>
+      <c r="AH63" s="250"/>
+      <c r="AI63" s="251"/>
     </row>
     <row r="64" spans="2:35">
-      <c r="B64" s="236"/>
-      <c r="C64" s="215"/>
-      <c r="D64" s="216"/>
-      <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
-      <c r="G64" s="216"/>
-      <c r="H64" s="216"/>
-      <c r="I64" s="217"/>
-      <c r="J64" s="215"/>
-      <c r="K64" s="216"/>
-      <c r="L64" s="216"/>
-      <c r="M64" s="216"/>
-      <c r="N64" s="216"/>
-      <c r="O64" s="216"/>
-      <c r="P64" s="216"/>
-      <c r="Q64" s="216"/>
-      <c r="R64" s="216"/>
-      <c r="S64" s="216"/>
-      <c r="T64" s="216"/>
-      <c r="U64" s="216"/>
-      <c r="V64" s="216"/>
-      <c r="W64" s="216"/>
-      <c r="X64" s="216"/>
-      <c r="Y64" s="216"/>
-      <c r="Z64" s="216"/>
-      <c r="AA64" s="216"/>
-      <c r="AB64" s="216"/>
-      <c r="AC64" s="216"/>
-      <c r="AD64" s="216"/>
-      <c r="AE64" s="216"/>
-      <c r="AF64" s="216"/>
-      <c r="AG64" s="216"/>
-      <c r="AH64" s="216"/>
-      <c r="AI64" s="217"/>
+      <c r="B64" s="279"/>
+      <c r="C64" s="252"/>
+      <c r="D64" s="253"/>
+      <c r="E64" s="253"/>
+      <c r="F64" s="253"/>
+      <c r="G64" s="253"/>
+      <c r="H64" s="253"/>
+      <c r="I64" s="254"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="253"/>
+      <c r="L64" s="253"/>
+      <c r="M64" s="253"/>
+      <c r="N64" s="253"/>
+      <c r="O64" s="253"/>
+      <c r="P64" s="253"/>
+      <c r="Q64" s="253"/>
+      <c r="R64" s="253"/>
+      <c r="S64" s="253"/>
+      <c r="T64" s="253"/>
+      <c r="U64" s="253"/>
+      <c r="V64" s="253"/>
+      <c r="W64" s="253"/>
+      <c r="X64" s="253"/>
+      <c r="Y64" s="253"/>
+      <c r="Z64" s="253"/>
+      <c r="AA64" s="253"/>
+      <c r="AB64" s="253"/>
+      <c r="AC64" s="253"/>
+      <c r="AD64" s="253"/>
+      <c r="AE64" s="253"/>
+      <c r="AF64" s="253"/>
+      <c r="AG64" s="253"/>
+      <c r="AH64" s="253"/>
+      <c r="AI64" s="254"/>
     </row>
     <row r="65" spans="2:35">
-      <c r="B65" s="236"/>
-      <c r="C65" s="215"/>
-      <c r="D65" s="216"/>
-      <c r="E65" s="216"/>
-      <c r="F65" s="216"/>
-      <c r="G65" s="216"/>
-      <c r="H65" s="216"/>
-      <c r="I65" s="217"/>
-      <c r="J65" s="215"/>
-      <c r="K65" s="216"/>
-      <c r="L65" s="216"/>
-      <c r="M65" s="216"/>
-      <c r="N65" s="216"/>
-      <c r="O65" s="216"/>
-      <c r="P65" s="216"/>
-      <c r="Q65" s="216"/>
-      <c r="R65" s="216"/>
-      <c r="S65" s="216"/>
-      <c r="T65" s="216"/>
-      <c r="U65" s="216"/>
-      <c r="V65" s="216"/>
-      <c r="W65" s="216"/>
-      <c r="X65" s="216"/>
-      <c r="Y65" s="216"/>
-      <c r="Z65" s="216"/>
-      <c r="AA65" s="216"/>
-      <c r="AB65" s="216"/>
-      <c r="AC65" s="216"/>
-      <c r="AD65" s="216"/>
-      <c r="AE65" s="216"/>
-      <c r="AF65" s="216"/>
-      <c r="AG65" s="216"/>
-      <c r="AH65" s="216"/>
-      <c r="AI65" s="217"/>
+      <c r="B65" s="279"/>
+      <c r="C65" s="252"/>
+      <c r="D65" s="253"/>
+      <c r="E65" s="253"/>
+      <c r="F65" s="253"/>
+      <c r="G65" s="253"/>
+      <c r="H65" s="253"/>
+      <c r="I65" s="254"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="253"/>
+      <c r="L65" s="253"/>
+      <c r="M65" s="253"/>
+      <c r="N65" s="253"/>
+      <c r="O65" s="253"/>
+      <c r="P65" s="253"/>
+      <c r="Q65" s="253"/>
+      <c r="R65" s="253"/>
+      <c r="S65" s="253"/>
+      <c r="T65" s="253"/>
+      <c r="U65" s="253"/>
+      <c r="V65" s="253"/>
+      <c r="W65" s="253"/>
+      <c r="X65" s="253"/>
+      <c r="Y65" s="253"/>
+      <c r="Z65" s="253"/>
+      <c r="AA65" s="253"/>
+      <c r="AB65" s="253"/>
+      <c r="AC65" s="253"/>
+      <c r="AD65" s="253"/>
+      <c r="AE65" s="253"/>
+      <c r="AF65" s="253"/>
+      <c r="AG65" s="253"/>
+      <c r="AH65" s="253"/>
+      <c r="AI65" s="254"/>
     </row>
     <row r="66" spans="2:35">
-      <c r="B66" s="237"/>
-      <c r="C66" s="218"/>
-      <c r="D66" s="219"/>
-      <c r="E66" s="219"/>
-      <c r="F66" s="219"/>
-      <c r="G66" s="219"/>
-      <c r="H66" s="219"/>
-      <c r="I66" s="220"/>
-      <c r="J66" s="218"/>
-      <c r="K66" s="219"/>
-      <c r="L66" s="219"/>
-      <c r="M66" s="219"/>
-      <c r="N66" s="219"/>
-      <c r="O66" s="219"/>
-      <c r="P66" s="219"/>
-      <c r="Q66" s="219"/>
-      <c r="R66" s="219"/>
-      <c r="S66" s="219"/>
-      <c r="T66" s="219"/>
-      <c r="U66" s="219"/>
-      <c r="V66" s="219"/>
-      <c r="W66" s="219"/>
-      <c r="X66" s="219"/>
-      <c r="Y66" s="219"/>
-      <c r="Z66" s="219"/>
-      <c r="AA66" s="219"/>
-      <c r="AB66" s="219"/>
-      <c r="AC66" s="219"/>
-      <c r="AD66" s="219"/>
-      <c r="AE66" s="219"/>
-      <c r="AF66" s="219"/>
-      <c r="AG66" s="219"/>
-      <c r="AH66" s="219"/>
-      <c r="AI66" s="220"/>
+      <c r="B66" s="280"/>
+      <c r="C66" s="255"/>
+      <c r="D66" s="256"/>
+      <c r="E66" s="256"/>
+      <c r="F66" s="256"/>
+      <c r="G66" s="256"/>
+      <c r="H66" s="256"/>
+      <c r="I66" s="257"/>
+      <c r="J66" s="255"/>
+      <c r="K66" s="256"/>
+      <c r="L66" s="256"/>
+      <c r="M66" s="256"/>
+      <c r="N66" s="256"/>
+      <c r="O66" s="256"/>
+      <c r="P66" s="256"/>
+      <c r="Q66" s="256"/>
+      <c r="R66" s="256"/>
+      <c r="S66" s="256"/>
+      <c r="T66" s="256"/>
+      <c r="U66" s="256"/>
+      <c r="V66" s="256"/>
+      <c r="W66" s="256"/>
+      <c r="X66" s="256"/>
+      <c r="Y66" s="256"/>
+      <c r="Z66" s="256"/>
+      <c r="AA66" s="256"/>
+      <c r="AB66" s="256"/>
+      <c r="AC66" s="256"/>
+      <c r="AD66" s="256"/>
+      <c r="AE66" s="256"/>
+      <c r="AF66" s="256"/>
+      <c r="AG66" s="256"/>
+      <c r="AH66" s="256"/>
+      <c r="AI66" s="257"/>
     </row>
     <row r="67" spans="2:35">
       <c r="B67" s="91">
         <v>13</v>
       </c>
-      <c r="C67" s="195" t="s">
+      <c r="C67" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="196"/>
-      <c r="E67" s="196"/>
-      <c r="F67" s="196"/>
-      <c r="G67" s="196"/>
-      <c r="H67" s="196"/>
-      <c r="I67" s="197"/>
-      <c r="J67" s="195" t="s">
+      <c r="D67" s="235"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="235"/>
+      <c r="G67" s="235"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="236"/>
+      <c r="J67" s="234" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="196"/>
-      <c r="L67" s="196"/>
-      <c r="M67" s="196"/>
-      <c r="N67" s="196"/>
-      <c r="O67" s="196"/>
-      <c r="P67" s="196"/>
-      <c r="Q67" s="196"/>
-      <c r="R67" s="196"/>
-      <c r="S67" s="196"/>
-      <c r="T67" s="196"/>
-      <c r="U67" s="196"/>
-      <c r="V67" s="196"/>
-      <c r="W67" s="196"/>
-      <c r="X67" s="196"/>
-      <c r="Y67" s="196"/>
-      <c r="Z67" s="196"/>
-      <c r="AA67" s="196"/>
-      <c r="AB67" s="196"/>
-      <c r="AC67" s="196"/>
-      <c r="AD67" s="196"/>
-      <c r="AE67" s="196"/>
-      <c r="AF67" s="196"/>
-      <c r="AG67" s="196"/>
-      <c r="AH67" s="196"/>
-      <c r="AI67" s="197"/>
+      <c r="K67" s="235"/>
+      <c r="L67" s="235"/>
+      <c r="M67" s="235"/>
+      <c r="N67" s="235"/>
+      <c r="O67" s="235"/>
+      <c r="P67" s="235"/>
+      <c r="Q67" s="235"/>
+      <c r="R67" s="235"/>
+      <c r="S67" s="235"/>
+      <c r="T67" s="235"/>
+      <c r="U67" s="235"/>
+      <c r="V67" s="235"/>
+      <c r="W67" s="235"/>
+      <c r="X67" s="235"/>
+      <c r="Y67" s="235"/>
+      <c r="Z67" s="235"/>
+      <c r="AA67" s="235"/>
+      <c r="AB67" s="235"/>
+      <c r="AC67" s="235"/>
+      <c r="AD67" s="235"/>
+      <c r="AE67" s="235"/>
+      <c r="AF67" s="235"/>
+      <c r="AG67" s="235"/>
+      <c r="AH67" s="235"/>
+      <c r="AI67" s="236"/>
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="91">
         <v>14</v>
       </c>
-      <c r="C68" s="195" t="s">
+      <c r="C68" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="196"/>
-      <c r="E68" s="196"/>
-      <c r="F68" s="196"/>
-      <c r="G68" s="196"/>
-      <c r="H68" s="196"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="195" t="s">
-        <v>105</v>
-      </c>
-      <c r="K68" s="196"/>
-      <c r="L68" s="196"/>
-      <c r="M68" s="196"/>
-      <c r="N68" s="196"/>
-      <c r="O68" s="196"/>
-      <c r="P68" s="196"/>
-      <c r="Q68" s="196"/>
-      <c r="R68" s="196"/>
-      <c r="S68" s="196"/>
-      <c r="T68" s="196"/>
-      <c r="U68" s="196"/>
-      <c r="V68" s="196"/>
-      <c r="W68" s="196"/>
-      <c r="X68" s="196"/>
-      <c r="Y68" s="196"/>
-      <c r="Z68" s="196"/>
-      <c r="AA68" s="196"/>
-      <c r="AB68" s="196"/>
-      <c r="AC68" s="196"/>
-      <c r="AD68" s="196"/>
-      <c r="AE68" s="196"/>
-      <c r="AF68" s="196"/>
-      <c r="AG68" s="196"/>
-      <c r="AH68" s="196"/>
-      <c r="AI68" s="197"/>
+      <c r="D68" s="235"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="236"/>
+      <c r="J68" s="234" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" s="235"/>
+      <c r="L68" s="235"/>
+      <c r="M68" s="235"/>
+      <c r="N68" s="235"/>
+      <c r="O68" s="235"/>
+      <c r="P68" s="235"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="235"/>
+      <c r="S68" s="235"/>
+      <c r="T68" s="235"/>
+      <c r="U68" s="235"/>
+      <c r="V68" s="235"/>
+      <c r="W68" s="235"/>
+      <c r="X68" s="235"/>
+      <c r="Y68" s="235"/>
+      <c r="Z68" s="235"/>
+      <c r="AA68" s="235"/>
+      <c r="AB68" s="235"/>
+      <c r="AC68" s="235"/>
+      <c r="AD68" s="235"/>
+      <c r="AE68" s="235"/>
+      <c r="AF68" s="235"/>
+      <c r="AG68" s="235"/>
+      <c r="AH68" s="235"/>
+      <c r="AI68" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z18:AA19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AB18:AD19"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="J56:AI57"/>
+    <mergeCell ref="C53:I54"/>
+    <mergeCell ref="C56:I57"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J41:AI41"/>
+    <mergeCell ref="J42:AI42"/>
+    <mergeCell ref="J43:AI43"/>
+    <mergeCell ref="J44:AI44"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="J67:AI67"/>
+    <mergeCell ref="J68:AI68"/>
+    <mergeCell ref="J45:AI47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:I47"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="J55:AI55"/>
+    <mergeCell ref="J58:AI58"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="J59:AI62"/>
+    <mergeCell ref="C59:I62"/>
+    <mergeCell ref="J48:AI49"/>
+    <mergeCell ref="C48:I49"/>
+    <mergeCell ref="J50:AI52"/>
+    <mergeCell ref="C50:I52"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:I66"/>
+    <mergeCell ref="J63:AI66"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="J53:AI54"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AX23:BF23"/>
+    <mergeCell ref="AX24:BF24"/>
+    <mergeCell ref="AX21:BF21"/>
+    <mergeCell ref="AP21:AS21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AT21:AW21"/>
+    <mergeCell ref="AT22:AW22"/>
+    <mergeCell ref="AT23:AW23"/>
+    <mergeCell ref="AP23:AS23"/>
+    <mergeCell ref="AT24:AW24"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AX18:BF19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AP19:AS19"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AS20"/>
+    <mergeCell ref="AX20:BF20"/>
+    <mergeCell ref="AN18:AS18"/>
+    <mergeCell ref="AT18:AW19"/>
+    <mergeCell ref="AT20:AW20"/>
+    <mergeCell ref="AX29:BF29"/>
+    <mergeCell ref="AX27:BF27"/>
+    <mergeCell ref="AX28:BF28"/>
+    <mergeCell ref="AP27:AS27"/>
+    <mergeCell ref="AX25:BF25"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AS26"/>
+    <mergeCell ref="AX26:BF26"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AP25:AS25"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT25:AW25"/>
+    <mergeCell ref="AT26:AW26"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -12302,177 +12480,22 @@
     <mergeCell ref="F22:L22"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AX29:BF29"/>
-    <mergeCell ref="AX27:BF27"/>
-    <mergeCell ref="AX28:BF28"/>
-    <mergeCell ref="AP27:AS27"/>
-    <mergeCell ref="AX25:BF25"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AS26"/>
-    <mergeCell ref="AX26:BF26"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AP25:AS25"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT25:AW25"/>
-    <mergeCell ref="AT26:AW26"/>
-    <mergeCell ref="AT27:AW27"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AX18:BF19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AS19"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AP20:AS20"/>
-    <mergeCell ref="AX20:BF20"/>
-    <mergeCell ref="AN18:AS18"/>
-    <mergeCell ref="AT18:AW19"/>
-    <mergeCell ref="AT20:AW20"/>
-    <mergeCell ref="AX23:BF23"/>
-    <mergeCell ref="AX24:BF24"/>
-    <mergeCell ref="AX21:BF21"/>
-    <mergeCell ref="AP21:AS21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AP22:AS22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AT21:AW21"/>
-    <mergeCell ref="AT22:AW22"/>
-    <mergeCell ref="AT23:AW23"/>
-    <mergeCell ref="AP23:AS23"/>
-    <mergeCell ref="AT24:AW24"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AP24:AS24"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="F18:L19"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C68:I68"/>
-    <mergeCell ref="J67:AI67"/>
-    <mergeCell ref="J68:AI68"/>
-    <mergeCell ref="J45:AI47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:I47"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="J55:AI55"/>
-    <mergeCell ref="J58:AI58"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="J59:AI62"/>
-    <mergeCell ref="C59:I62"/>
-    <mergeCell ref="J48:AI49"/>
-    <mergeCell ref="C48:I49"/>
-    <mergeCell ref="J50:AI52"/>
-    <mergeCell ref="C50:I52"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:I66"/>
-    <mergeCell ref="J63:AI66"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="J53:AI54"/>
-    <mergeCell ref="J56:AI57"/>
-    <mergeCell ref="C53:I54"/>
-    <mergeCell ref="C56:I57"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J41:AI41"/>
-    <mergeCell ref="J42:AI42"/>
-    <mergeCell ref="J43:AI43"/>
-    <mergeCell ref="J44:AI44"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AB18:AD19"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AE25:AG25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース一覧_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース一覧_サンプル.xlsx
@@ -119,7 +119,7 @@
           <t>インタフェースのレコード長を記載する。
   ・「固定長」の場合、バイト数
   ・「可変長」の場合、最大バイト数
- ※ 「JSON、XML形式」の場合、「-」と記載する。</t>
+ ※ 「JSON、XML」の場合、「-」と記載する。</t>
         </r>
       </text>
     </comment>
@@ -2378,12 +2378,159 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2393,153 +2540,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2567,410 +2567,410 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="30" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="30" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="29" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="30" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="30" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="29" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -6517,57 +6517,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="157" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="127" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="136" t="s">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="124" t="s">
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="115" t="str">
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="112" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="106">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="108"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -6575,53 +6575,53 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="124" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="106" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="108"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -6629,45 +6629,45 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="108"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -6704,114 +6704,114 @@
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="112" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="112" t="s">
+      <c r="H7" s="129"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="112" t="s">
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="112" t="s">
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="113"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="128"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85">
         <v>1</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120">
+      <c r="C8" s="131"/>
+      <c r="D8" s="132">
         <v>43336</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="151" t="s">
+      <c r="H8" s="135"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="154" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="155"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="155"/>
-      <c r="U8" s="155"/>
-      <c r="V8" s="155"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
-      <c r="AD8" s="155"/>
-      <c r="AE8" s="156"/>
-      <c r="AF8" s="151" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="153"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="107"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="100"/>
       <c r="K9" s="101"/>
       <c r="L9" s="101"/>
@@ -6842,14 +6842,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="107"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="100"/>
       <c r="K10" s="101"/>
       <c r="L10" s="101"/>
@@ -6879,14 +6879,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="107"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="100"/>
       <c r="K11" s="101"/>
       <c r="L11" s="101"/>
@@ -6916,14 +6916,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="107"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="100"/>
       <c r="K12" s="101"/>
       <c r="L12" s="101"/>
@@ -6953,14 +6953,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="107"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="100"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
@@ -6990,14 +6990,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="107"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="100"/>
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
@@ -7027,14 +7027,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="107"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="100"/>
       <c r="K15" s="101"/>
       <c r="L15" s="101"/>
@@ -7064,14 +7064,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="107"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="100"/>
       <c r="K16" s="101"/>
       <c r="L16" s="101"/>
@@ -7101,14 +7101,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="107"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="126"/>
       <c r="J17" s="100"/>
       <c r="K17" s="101"/>
       <c r="L17" s="101"/>
@@ -7138,14 +7138,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="107"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="126"/>
       <c r="J18" s="100"/>
       <c r="K18" s="101"/>
       <c r="L18" s="101"/>
@@ -7175,14 +7175,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="107"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="100"/>
       <c r="K19" s="101"/>
       <c r="L19" s="101"/>
@@ -7212,14 +7212,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="107"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="126"/>
       <c r="J20" s="100"/>
       <c r="K20" s="101"/>
       <c r="L20" s="101"/>
@@ -7249,14 +7249,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="107"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
       <c r="J21" s="100"/>
       <c r="K21" s="101"/>
       <c r="L21" s="101"/>
@@ -7286,14 +7286,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="107"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="126"/>
       <c r="J22" s="100"/>
       <c r="K22" s="101"/>
       <c r="L22" s="101"/>
@@ -7323,14 +7323,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="107"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="100"/>
       <c r="K23" s="101"/>
       <c r="L23" s="101"/>
@@ -7360,14 +7360,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="107"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="126"/>
       <c r="J24" s="100"/>
       <c r="K24" s="101"/>
       <c r="L24" s="101"/>
@@ -7397,14 +7397,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="107"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="100"/>
       <c r="K25" s="101"/>
       <c r="L25" s="101"/>
@@ -7434,14 +7434,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="107"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="100"/>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
@@ -7471,14 +7471,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="107"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="100"/>
       <c r="K27" s="101"/>
       <c r="L27" s="101"/>
@@ -7508,14 +7508,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="107"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="126"/>
       <c r="J28" s="100"/>
       <c r="K28" s="101"/>
       <c r="L28" s="101"/>
@@ -7545,14 +7545,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="107"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126"/>
       <c r="J29" s="100"/>
       <c r="K29" s="101"/>
       <c r="L29" s="101"/>
@@ -7582,14 +7582,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="107"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="126"/>
       <c r="J30" s="100"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
@@ -7619,14 +7619,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="107"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
       <c r="J31" s="100"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
@@ -7657,14 +7657,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="107"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="126"/>
       <c r="J32" s="100"/>
       <c r="K32" s="101"/>
       <c r="L32" s="101"/>
@@ -7695,14 +7695,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="107"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="100"/>
       <c r="K33" s="101"/>
       <c r="L33" s="101"/>
@@ -7923,6 +7923,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
     <mergeCell ref="J30:P30"/>
     <mergeCell ref="Q30:AE30"/>
     <mergeCell ref="AF30:AI30"/>
@@ -7947,161 +8102,6 @@
     <mergeCell ref="Q29:AE29"/>
     <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -8259,31 +8259,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="157" t="str">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="127" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
       <c r="S1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
@@ -8295,48 +8295,48 @@
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="124" t="s">
+      <c r="AA1" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="115" t="str">
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="106">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="108"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="157" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
       <c r="S2" s="163"/>
       <c r="T2" s="164"/>
       <c r="U2" s="164"/>
@@ -8345,48 +8345,48 @@
       <c r="X2" s="164"/>
       <c r="Y2" s="164"/>
       <c r="Z2" s="165"/>
-      <c r="AA2" s="124" t="s">
+      <c r="AA2" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="115" t="str">
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="108"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="157" t="str">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
       <c r="S3" s="166"/>
       <c r="T3" s="167"/>
       <c r="U3" s="167"/>
@@ -8395,21 +8395,21 @@
       <c r="X3" s="167"/>
       <c r="Y3" s="167"/>
       <c r="Z3" s="168"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="115" t="str">
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="108"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -9869,6 +9869,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9880,12 +9886,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -9917,31 +9917,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="157" t="str">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="127" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
       <c r="S1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
@@ -9953,51 +9953,51 @@
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="124" t="s">
+      <c r="AA1" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="115" t="str">
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="228">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="252">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="230"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="157" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
       <c r="S2" s="163"/>
       <c r="T2" s="164"/>
       <c r="U2" s="164"/>
@@ -10006,51 +10006,51 @@
       <c r="X2" s="164"/>
       <c r="Y2" s="164"/>
       <c r="Z2" s="165"/>
-      <c r="AA2" s="124" t="s">
+      <c r="AA2" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="115" t="str">
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="228" t="str">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="229"/>
-      <c r="AI2" s="230"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:38" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="157" t="str">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
       <c r="S3" s="166"/>
       <c r="T3" s="167"/>
       <c r="U3" s="167"/>
@@ -10059,21 +10059,21 @@
       <c r="X3" s="167"/>
       <c r="Y3" s="167"/>
       <c r="Z3" s="168"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="115" t="str">
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="228" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="230"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -10146,1039 +10146,1039 @@
       <c r="BI17" s="25"/>
     </row>
     <row r="18" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="302" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="232" t="s">
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="232"/>
-      <c r="H18" s="232"/>
-      <c r="I18" s="232"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="193" t="s">
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="262"/>
+      <c r="M18" s="295" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="194"/>
-      <c r="O18" s="182" t="s">
+      <c r="N18" s="296"/>
+      <c r="O18" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="178" t="s">
+      <c r="P18" s="290"/>
+      <c r="Q18" s="290"/>
+      <c r="R18" s="290"/>
+      <c r="S18" s="291"/>
+      <c r="T18" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="178"/>
-      <c r="V18" s="193" t="s">
+      <c r="U18" s="256"/>
+      <c r="V18" s="295" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="194"/>
-      <c r="Z18" s="178" t="s">
+      <c r="W18" s="299"/>
+      <c r="X18" s="299"/>
+      <c r="Y18" s="296"/>
+      <c r="Z18" s="256" t="s">
         <v>126</v>
       </c>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="182" t="s">
+      <c r="AA18" s="256"/>
+      <c r="AB18" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="169" t="s">
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="291"/>
+      <c r="AE18" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="170"/>
-      <c r="AJ18" s="170"/>
-      <c r="AK18" s="170"/>
-      <c r="AL18" s="170"/>
-      <c r="AM18" s="171"/>
-      <c r="AN18" s="178" t="s">
+      <c r="AF18" s="301"/>
+      <c r="AG18" s="301"/>
+      <c r="AH18" s="301"/>
+      <c r="AI18" s="301"/>
+      <c r="AJ18" s="301"/>
+      <c r="AK18" s="301"/>
+      <c r="AL18" s="301"/>
+      <c r="AM18" s="286"/>
+      <c r="AN18" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="AO18" s="178"/>
-      <c r="AP18" s="178"/>
-      <c r="AQ18" s="178"/>
-      <c r="AR18" s="178"/>
-      <c r="AS18" s="178"/>
-      <c r="AT18" s="178" t="s">
+      <c r="AO18" s="256"/>
+      <c r="AP18" s="256"/>
+      <c r="AQ18" s="256"/>
+      <c r="AR18" s="256"/>
+      <c r="AS18" s="256"/>
+      <c r="AT18" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="AU18" s="178"/>
-      <c r="AV18" s="178"/>
-      <c r="AW18" s="178"/>
-      <c r="AX18" s="178" t="s">
+      <c r="AU18" s="256"/>
+      <c r="AV18" s="256"/>
+      <c r="AW18" s="256"/>
+      <c r="AX18" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="AY18" s="178"/>
-      <c r="AZ18" s="178"/>
-      <c r="BA18" s="178"/>
-      <c r="BB18" s="178"/>
-      <c r="BC18" s="178"/>
-      <c r="BD18" s="178"/>
-      <c r="BE18" s="178"/>
-      <c r="BF18" s="178"/>
+      <c r="AY18" s="256"/>
+      <c r="AZ18" s="256"/>
+      <c r="BA18" s="256"/>
+      <c r="BB18" s="256"/>
+      <c r="BC18" s="256"/>
+      <c r="BD18" s="256"/>
+      <c r="BE18" s="256"/>
+      <c r="BF18" s="256"/>
       <c r="BG18" s="26"/>
     </row>
     <row r="19" spans="2:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B19" s="176"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="196"/>
-      <c r="Z19" s="178"/>
-      <c r="AA19" s="178"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="169" t="s">
+      <c r="B19" s="303"/>
+      <c r="C19" s="256"/>
+      <c r="D19" s="256"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="262"/>
+      <c r="M19" s="297"/>
+      <c r="N19" s="298"/>
+      <c r="O19" s="292"/>
+      <c r="P19" s="293"/>
+      <c r="Q19" s="293"/>
+      <c r="R19" s="293"/>
+      <c r="S19" s="294"/>
+      <c r="T19" s="256"/>
+      <c r="U19" s="256"/>
+      <c r="V19" s="297"/>
+      <c r="W19" s="300"/>
+      <c r="X19" s="300"/>
+      <c r="Y19" s="298"/>
+      <c r="Z19" s="256"/>
+      <c r="AA19" s="256"/>
+      <c r="AB19" s="292"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="294"/>
+      <c r="AE19" s="285" t="s">
         <v>103</v>
       </c>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="178" t="s">
+      <c r="AF19" s="301"/>
+      <c r="AG19" s="286"/>
+      <c r="AH19" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="AI19" s="178"/>
-      <c r="AJ19" s="178"/>
-      <c r="AK19" s="178"/>
-      <c r="AL19" s="178"/>
-      <c r="AM19" s="178"/>
-      <c r="AN19" s="169" t="s">
+      <c r="AI19" s="256"/>
+      <c r="AJ19" s="256"/>
+      <c r="AK19" s="256"/>
+      <c r="AL19" s="256"/>
+      <c r="AM19" s="256"/>
+      <c r="AN19" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="AO19" s="171"/>
-      <c r="AP19" s="178" t="s">
+      <c r="AO19" s="286"/>
+      <c r="AP19" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="AQ19" s="178"/>
-      <c r="AR19" s="178"/>
-      <c r="AS19" s="178"/>
-      <c r="AT19" s="178"/>
-      <c r="AU19" s="178"/>
-      <c r="AV19" s="178"/>
-      <c r="AW19" s="178"/>
-      <c r="AX19" s="178"/>
-      <c r="AY19" s="178"/>
-      <c r="AZ19" s="178"/>
-      <c r="BA19" s="178"/>
-      <c r="BB19" s="178"/>
-      <c r="BC19" s="178"/>
-      <c r="BD19" s="178"/>
-      <c r="BE19" s="178"/>
-      <c r="BF19" s="178"/>
+      <c r="AQ19" s="256"/>
+      <c r="AR19" s="256"/>
+      <c r="AS19" s="256"/>
+      <c r="AT19" s="256"/>
+      <c r="AU19" s="256"/>
+      <c r="AV19" s="256"/>
+      <c r="AW19" s="256"/>
+      <c r="AX19" s="256"/>
+      <c r="AY19" s="256"/>
+      <c r="AZ19" s="256"/>
+      <c r="BA19" s="256"/>
+      <c r="BB19" s="256"/>
+      <c r="BC19" s="256"/>
+      <c r="BD19" s="256"/>
+      <c r="BE19" s="256"/>
+      <c r="BF19" s="256"/>
       <c r="BG19" s="26"/>
     </row>
     <row r="20" spans="2:61" ht="37.5" customHeight="1">
       <c r="B20" s="92">
         <v>1</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="255" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177" t="s">
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="255"/>
       <c r="M20" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="105"/>
-      <c r="O20" s="179" t="s">
+      <c r="O20" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="181"/>
-      <c r="T20" s="192" t="s">
+      <c r="P20" s="241"/>
+      <c r="Q20" s="241"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="242"/>
+      <c r="T20" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U20" s="192"/>
-      <c r="V20" s="179" t="s">
+      <c r="U20" s="239"/>
+      <c r="V20" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="180"/>
-      <c r="X20" s="180"/>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="177" t="s">
+      <c r="W20" s="241"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="242"/>
+      <c r="Z20" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="AA20" s="177"/>
-      <c r="AB20" s="179" t="s">
+      <c r="AA20" s="255"/>
+      <c r="AB20" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC20" s="180"/>
-      <c r="AD20" s="181"/>
-      <c r="AE20" s="172" t="s">
+      <c r="AC20" s="241"/>
+      <c r="AD20" s="242"/>
+      <c r="AE20" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="174"/>
-      <c r="AH20" s="179" t="s">
+      <c r="AF20" s="265"/>
+      <c r="AG20" s="266"/>
+      <c r="AH20" s="240" t="s">
         <v>105</v>
       </c>
-      <c r="AI20" s="180"/>
-      <c r="AJ20" s="180"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="180"/>
-      <c r="AM20" s="181"/>
-      <c r="AN20" s="202">
+      <c r="AI20" s="241"/>
+      <c r="AJ20" s="241"/>
+      <c r="AK20" s="241"/>
+      <c r="AL20" s="241"/>
+      <c r="AM20" s="242"/>
+      <c r="AN20" s="267">
         <v>711</v>
       </c>
-      <c r="AO20" s="203"/>
-      <c r="AP20" s="201">
+      <c r="AO20" s="268"/>
+      <c r="AP20" s="269">
         <v>100000</v>
       </c>
-      <c r="AQ20" s="201"/>
-      <c r="AR20" s="201"/>
-      <c r="AS20" s="201"/>
-      <c r="AT20" s="204" t="s">
+      <c r="AQ20" s="269"/>
+      <c r="AR20" s="269"/>
+      <c r="AS20" s="269"/>
+      <c r="AT20" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="AU20" s="204"/>
-      <c r="AV20" s="204"/>
-      <c r="AW20" s="204"/>
-      <c r="AX20" s="177" t="s">
+      <c r="AU20" s="278"/>
+      <c r="AV20" s="278"/>
+      <c r="AW20" s="278"/>
+      <c r="AX20" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="AY20" s="177"/>
-      <c r="AZ20" s="177"/>
-      <c r="BA20" s="177"/>
-      <c r="BB20" s="177"/>
-      <c r="BC20" s="177"/>
-      <c r="BD20" s="177"/>
-      <c r="BE20" s="177"/>
-      <c r="BF20" s="177"/>
+      <c r="AY20" s="255"/>
+      <c r="AZ20" s="255"/>
+      <c r="BA20" s="255"/>
+      <c r="BB20" s="255"/>
+      <c r="BC20" s="255"/>
+      <c r="BD20" s="255"/>
+      <c r="BE20" s="255"/>
+      <c r="BF20" s="255"/>
       <c r="BG20" s="27"/>
     </row>
     <row r="21" spans="2:61" ht="11.25" customHeight="1">
       <c r="B21" s="93">
         <v>2</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="C21" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="199" t="s">
+      <c r="D21" s="257"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="226" t="s">
+      <c r="G21" s="258"/>
+      <c r="H21" s="258"/>
+      <c r="I21" s="258"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="227"/>
-      <c r="O21" s="189" t="s">
+      <c r="N21" s="261"/>
+      <c r="O21" s="271" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="231" t="s">
+      <c r="P21" s="272"/>
+      <c r="Q21" s="272"/>
+      <c r="R21" s="272"/>
+      <c r="S21" s="273"/>
+      <c r="T21" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="231"/>
-      <c r="V21" s="189" t="s">
+      <c r="U21" s="259"/>
+      <c r="V21" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="191"/>
-      <c r="Z21" s="206" t="s">
+      <c r="W21" s="272"/>
+      <c r="X21" s="272"/>
+      <c r="Y21" s="273"/>
+      <c r="Z21" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="AA21" s="206"/>
-      <c r="AB21" s="189" t="s">
+      <c r="AA21" s="257"/>
+      <c r="AB21" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="191"/>
-      <c r="AE21" s="218" t="s">
+      <c r="AC21" s="272"/>
+      <c r="AD21" s="273"/>
+      <c r="AE21" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" s="219"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="206" t="s">
+      <c r="AF21" s="283"/>
+      <c r="AG21" s="284"/>
+      <c r="AH21" s="257" t="s">
         <v>110</v>
       </c>
-      <c r="AI21" s="206"/>
-      <c r="AJ21" s="206"/>
-      <c r="AK21" s="206"/>
-      <c r="AL21" s="206"/>
-      <c r="AM21" s="206"/>
-      <c r="AN21" s="208">
+      <c r="AI21" s="257"/>
+      <c r="AJ21" s="257"/>
+      <c r="AK21" s="257"/>
+      <c r="AL21" s="257"/>
+      <c r="AM21" s="257"/>
+      <c r="AN21" s="274">
         <v>1500</v>
       </c>
-      <c r="AO21" s="209"/>
-      <c r="AP21" s="207" t="s">
+      <c r="AO21" s="275"/>
+      <c r="AP21" s="270" t="s">
         <v>91</v>
       </c>
-      <c r="AQ21" s="207"/>
-      <c r="AR21" s="207"/>
-      <c r="AS21" s="207"/>
-      <c r="AT21" s="214" t="s">
+      <c r="AQ21" s="270"/>
+      <c r="AR21" s="270"/>
+      <c r="AS21" s="270"/>
+      <c r="AT21" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="AU21" s="214"/>
-      <c r="AV21" s="214"/>
-      <c r="AW21" s="214"/>
-      <c r="AX21" s="206"/>
-      <c r="AY21" s="206"/>
-      <c r="AZ21" s="206"/>
-      <c r="BA21" s="206"/>
-      <c r="BB21" s="206"/>
-      <c r="BC21" s="206"/>
-      <c r="BD21" s="206"/>
-      <c r="BE21" s="206"/>
-      <c r="BF21" s="206"/>
+      <c r="AU21" s="277"/>
+      <c r="AV21" s="277"/>
+      <c r="AW21" s="277"/>
+      <c r="AX21" s="257"/>
+      <c r="AY21" s="257"/>
+      <c r="AZ21" s="257"/>
+      <c r="BA21" s="257"/>
+      <c r="BB21" s="257"/>
+      <c r="BC21" s="257"/>
+      <c r="BD21" s="257"/>
+      <c r="BE21" s="257"/>
+      <c r="BF21" s="257"/>
     </row>
     <row r="22" spans="2:61" ht="11.25" customHeight="1">
       <c r="B22" s="93">
         <v>3</v>
       </c>
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="249" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="212"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="199" t="s">
+      <c r="D22" s="250"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="226" t="s">
+      <c r="G22" s="258"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
+      <c r="M22" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="227"/>
-      <c r="O22" s="211" t="s">
+      <c r="N22" s="261"/>
+      <c r="O22" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="188" t="s">
+      <c r="P22" s="250"/>
+      <c r="Q22" s="250"/>
+      <c r="R22" s="250"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="288" t="s">
         <v>59</v>
       </c>
-      <c r="U22" s="188"/>
-      <c r="V22" s="211" t="s">
+      <c r="U22" s="288"/>
+      <c r="V22" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="W22" s="212"/>
-      <c r="X22" s="212"/>
-      <c r="Y22" s="213"/>
-      <c r="Z22" s="199" t="s">
+      <c r="W22" s="250"/>
+      <c r="X22" s="250"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="AA22" s="199"/>
-      <c r="AB22" s="211" t="s">
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="AC22" s="212"/>
-      <c r="AD22" s="213"/>
-      <c r="AE22" s="215" t="s">
+      <c r="AC22" s="250"/>
+      <c r="AD22" s="251"/>
+      <c r="AE22" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" s="216"/>
-      <c r="AG22" s="217"/>
-      <c r="AH22" s="199" t="s">
+      <c r="AF22" s="280"/>
+      <c r="AG22" s="281"/>
+      <c r="AH22" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="AI22" s="199"/>
-      <c r="AJ22" s="199"/>
-      <c r="AK22" s="199"/>
-      <c r="AL22" s="199"/>
-      <c r="AM22" s="199"/>
-      <c r="AN22" s="208">
+      <c r="AI22" s="258"/>
+      <c r="AJ22" s="258"/>
+      <c r="AK22" s="258"/>
+      <c r="AL22" s="258"/>
+      <c r="AM22" s="258"/>
+      <c r="AN22" s="274">
         <v>2000</v>
       </c>
-      <c r="AO22" s="209"/>
-      <c r="AP22" s="210" t="s">
+      <c r="AO22" s="275"/>
+      <c r="AP22" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="AQ22" s="210"/>
-      <c r="AR22" s="210"/>
-      <c r="AS22" s="210"/>
-      <c r="AT22" s="214" t="s">
+      <c r="AQ22" s="276"/>
+      <c r="AR22" s="276"/>
+      <c r="AS22" s="276"/>
+      <c r="AT22" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="AU22" s="214"/>
-      <c r="AV22" s="214"/>
-      <c r="AW22" s="214"/>
-      <c r="AX22" s="199" t="s">
+      <c r="AU22" s="277"/>
+      <c r="AV22" s="277"/>
+      <c r="AW22" s="277"/>
+      <c r="AX22" s="258" t="s">
         <v>135</v>
       </c>
-      <c r="AY22" s="199"/>
-      <c r="AZ22" s="199"/>
-      <c r="BA22" s="199"/>
-      <c r="BB22" s="199"/>
-      <c r="BC22" s="199"/>
-      <c r="BD22" s="199"/>
-      <c r="BE22" s="199"/>
-      <c r="BF22" s="199"/>
+      <c r="AY22" s="258"/>
+      <c r="AZ22" s="258"/>
+      <c r="BA22" s="258"/>
+      <c r="BB22" s="258"/>
+      <c r="BC22" s="258"/>
+      <c r="BD22" s="258"/>
+      <c r="BE22" s="258"/>
+      <c r="BF22" s="258"/>
     </row>
     <row r="23" spans="2:61" ht="22.5" customHeight="1">
       <c r="B23" s="92">
         <v>4</v>
       </c>
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177" t="s">
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="255"/>
+      <c r="L23" s="255"/>
       <c r="M23" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="105"/>
-      <c r="O23" s="179" t="s">
+      <c r="O23" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="180"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="192" t="s">
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="239" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="192"/>
-      <c r="V23" s="221" t="s">
+      <c r="U23" s="239"/>
+      <c r="V23" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="W23" s="222"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="223"/>
-      <c r="Z23" s="177" t="s">
+      <c r="W23" s="245"/>
+      <c r="X23" s="245"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="179" t="s">
+      <c r="AA23" s="255"/>
+      <c r="AB23" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="AC23" s="180"/>
-      <c r="AD23" s="181"/>
-      <c r="AE23" s="172" t="s">
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="174"/>
-      <c r="AH23" s="179" t="s">
+      <c r="AF23" s="265"/>
+      <c r="AG23" s="266"/>
+      <c r="AH23" s="240" t="s">
         <v>109</v>
       </c>
-      <c r="AI23" s="180"/>
-      <c r="AJ23" s="180"/>
-      <c r="AK23" s="180"/>
-      <c r="AL23" s="180"/>
-      <c r="AM23" s="181"/>
-      <c r="AN23" s="202">
+      <c r="AI23" s="241"/>
+      <c r="AJ23" s="241"/>
+      <c r="AK23" s="241"/>
+      <c r="AL23" s="241"/>
+      <c r="AM23" s="242"/>
+      <c r="AN23" s="267">
         <v>520</v>
       </c>
-      <c r="AO23" s="203"/>
-      <c r="AP23" s="201">
+      <c r="AO23" s="268"/>
+      <c r="AP23" s="269">
         <v>2000</v>
       </c>
-      <c r="AQ23" s="201"/>
-      <c r="AR23" s="201"/>
-      <c r="AS23" s="201"/>
-      <c r="AT23" s="204" t="s">
+      <c r="AQ23" s="269"/>
+      <c r="AR23" s="269"/>
+      <c r="AS23" s="269"/>
+      <c r="AT23" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU23" s="204"/>
-      <c r="AV23" s="204"/>
-      <c r="AW23" s="204"/>
-      <c r="AX23" s="177" t="s">
+      <c r="AU23" s="278"/>
+      <c r="AV23" s="278"/>
+      <c r="AW23" s="278"/>
+      <c r="AX23" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="AY23" s="177"/>
-      <c r="AZ23" s="177"/>
-      <c r="BA23" s="177"/>
-      <c r="BB23" s="177"/>
-      <c r="BC23" s="177"/>
-      <c r="BD23" s="177"/>
-      <c r="BE23" s="177"/>
-      <c r="BF23" s="177"/>
+      <c r="AY23" s="255"/>
+      <c r="AZ23" s="255"/>
+      <c r="BA23" s="255"/>
+      <c r="BB23" s="255"/>
+      <c r="BC23" s="255"/>
+      <c r="BD23" s="255"/>
+      <c r="BE23" s="255"/>
+      <c r="BF23" s="255"/>
     </row>
     <row r="24" spans="2:61" ht="45" customHeight="1">
       <c r="B24" s="92">
         <v>5</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177" t="s">
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="255"/>
+      <c r="L24" s="255"/>
       <c r="M24" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="105"/>
-      <c r="O24" s="179" t="s">
+      <c r="O24" s="240" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
-      <c r="R24" s="180"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="192" t="s">
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="242"/>
+      <c r="T24" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U24" s="192"/>
-      <c r="V24" s="179" t="s">
+      <c r="U24" s="239"/>
+      <c r="V24" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W24" s="180"/>
-      <c r="X24" s="180"/>
-      <c r="Y24" s="181"/>
-      <c r="Z24" s="177" t="s">
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="242"/>
+      <c r="Z24" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="AA24" s="177"/>
-      <c r="AB24" s="179" t="s">
+      <c r="AA24" s="255"/>
+      <c r="AB24" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="181"/>
-      <c r="AE24" s="172" t="s">
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="242"/>
+      <c r="AE24" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="174"/>
-      <c r="AH24" s="177" t="s">
+      <c r="AF24" s="265"/>
+      <c r="AG24" s="266"/>
+      <c r="AH24" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="AI24" s="177"/>
-      <c r="AJ24" s="177"/>
-      <c r="AK24" s="177"/>
-      <c r="AL24" s="177"/>
-      <c r="AM24" s="177"/>
-      <c r="AN24" s="202">
+      <c r="AI24" s="255"/>
+      <c r="AJ24" s="255"/>
+      <c r="AK24" s="255"/>
+      <c r="AL24" s="255"/>
+      <c r="AM24" s="255"/>
+      <c r="AN24" s="267">
         <v>1200</v>
       </c>
-      <c r="AO24" s="203"/>
-      <c r="AP24" s="201">
+      <c r="AO24" s="268"/>
+      <c r="AP24" s="269">
         <v>1200000</v>
       </c>
-      <c r="AQ24" s="201"/>
-      <c r="AR24" s="201"/>
-      <c r="AS24" s="201"/>
-      <c r="AT24" s="204" t="s">
+      <c r="AQ24" s="269"/>
+      <c r="AR24" s="269"/>
+      <c r="AS24" s="269"/>
+      <c r="AT24" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU24" s="204"/>
-      <c r="AV24" s="204"/>
-      <c r="AW24" s="204"/>
-      <c r="AX24" s="177" t="s">
+      <c r="AU24" s="278"/>
+      <c r="AV24" s="278"/>
+      <c r="AW24" s="278"/>
+      <c r="AX24" s="255" t="s">
         <v>68</v>
       </c>
-      <c r="AY24" s="177"/>
-      <c r="AZ24" s="177"/>
-      <c r="BA24" s="177"/>
-      <c r="BB24" s="177"/>
-      <c r="BC24" s="177"/>
-      <c r="BD24" s="177"/>
-      <c r="BE24" s="177"/>
-      <c r="BF24" s="177"/>
+      <c r="AY24" s="255"/>
+      <c r="AZ24" s="255"/>
+      <c r="BA24" s="255"/>
+      <c r="BB24" s="255"/>
+      <c r="BC24" s="255"/>
+      <c r="BD24" s="255"/>
+      <c r="BE24" s="255"/>
+      <c r="BF24" s="255"/>
     </row>
     <row r="25" spans="2:61" ht="11.25" customHeight="1">
       <c r="B25" s="92">
         <v>6</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177" t="s">
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="255"/>
       <c r="M25" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="105"/>
-      <c r="O25" s="179" t="s">
+      <c r="O25" s="240" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="180"/>
-      <c r="R25" s="180"/>
-      <c r="S25" s="181"/>
-      <c r="T25" s="192" t="s">
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U25" s="192"/>
-      <c r="V25" s="179" t="s">
+      <c r="U25" s="239"/>
+      <c r="V25" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W25" s="180"/>
-      <c r="X25" s="180"/>
-      <c r="Y25" s="181"/>
-      <c r="Z25" s="177" t="s">
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="AA25" s="177"/>
-      <c r="AB25" s="179" t="s">
+      <c r="AA25" s="255"/>
+      <c r="AB25" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC25" s="180"/>
-      <c r="AD25" s="181"/>
-      <c r="AE25" s="172" t="s">
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="242"/>
+      <c r="AE25" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="174"/>
-      <c r="AH25" s="177" t="s">
+      <c r="AF25" s="265"/>
+      <c r="AG25" s="266"/>
+      <c r="AH25" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="AI25" s="177"/>
-      <c r="AJ25" s="177"/>
-      <c r="AK25" s="177"/>
-      <c r="AL25" s="177"/>
-      <c r="AM25" s="177"/>
-      <c r="AN25" s="202">
+      <c r="AI25" s="255"/>
+      <c r="AJ25" s="255"/>
+      <c r="AK25" s="255"/>
+      <c r="AL25" s="255"/>
+      <c r="AM25" s="255"/>
+      <c r="AN25" s="267">
         <v>500</v>
       </c>
-      <c r="AO25" s="203"/>
-      <c r="AP25" s="201">
+      <c r="AO25" s="268"/>
+      <c r="AP25" s="269">
         <v>23000</v>
       </c>
-      <c r="AQ25" s="201"/>
-      <c r="AR25" s="201"/>
-      <c r="AS25" s="201"/>
-      <c r="AT25" s="204" t="s">
+      <c r="AQ25" s="269"/>
+      <c r="AR25" s="269"/>
+      <c r="AS25" s="269"/>
+      <c r="AT25" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU25" s="204"/>
-      <c r="AV25" s="204"/>
-      <c r="AW25" s="204"/>
-      <c r="AX25" s="177"/>
-      <c r="AY25" s="177"/>
-      <c r="AZ25" s="177"/>
-      <c r="BA25" s="177"/>
-      <c r="BB25" s="177"/>
-      <c r="BC25" s="177"/>
-      <c r="BD25" s="177"/>
-      <c r="BE25" s="177"/>
-      <c r="BF25" s="177"/>
+      <c r="AU25" s="278"/>
+      <c r="AV25" s="278"/>
+      <c r="AW25" s="278"/>
+      <c r="AX25" s="255"/>
+      <c r="AY25" s="255"/>
+      <c r="AZ25" s="255"/>
+      <c r="BA25" s="255"/>
+      <c r="BB25" s="255"/>
+      <c r="BC25" s="255"/>
+      <c r="BD25" s="255"/>
+      <c r="BE25" s="255"/>
+      <c r="BF25" s="255"/>
     </row>
     <row r="26" spans="2:61" ht="11.25" customHeight="1">
       <c r="B26" s="92">
         <v>7</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="255" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177" t="s">
+      <c r="D26" s="255"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="255"/>
+      <c r="L26" s="255"/>
       <c r="M26" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="105"/>
-      <c r="O26" s="179" t="s">
+      <c r="O26" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="180"/>
-      <c r="R26" s="180"/>
-      <c r="S26" s="181"/>
-      <c r="T26" s="192" t="s">
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="U26" s="192"/>
-      <c r="V26" s="179" t="s">
+      <c r="U26" s="239"/>
+      <c r="V26" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="W26" s="180"/>
-      <c r="X26" s="180"/>
-      <c r="Y26" s="181"/>
-      <c r="Z26" s="177" t="s">
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="179" t="s">
+      <c r="AA26" s="255"/>
+      <c r="AB26" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC26" s="180"/>
-      <c r="AD26" s="181"/>
-      <c r="AE26" s="172" t="s">
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="177" t="s">
+      <c r="AF26" s="265"/>
+      <c r="AG26" s="266"/>
+      <c r="AH26" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="177"/>
-      <c r="AJ26" s="177"/>
-      <c r="AK26" s="177"/>
-      <c r="AL26" s="177"/>
-      <c r="AM26" s="177"/>
-      <c r="AN26" s="202">
+      <c r="AI26" s="255"/>
+      <c r="AJ26" s="255"/>
+      <c r="AK26" s="255"/>
+      <c r="AL26" s="255"/>
+      <c r="AM26" s="255"/>
+      <c r="AN26" s="267">
         <v>500</v>
       </c>
-      <c r="AO26" s="203"/>
-      <c r="AP26" s="201">
+      <c r="AO26" s="268"/>
+      <c r="AP26" s="269">
         <v>16000</v>
       </c>
-      <c r="AQ26" s="201"/>
-      <c r="AR26" s="201"/>
-      <c r="AS26" s="201"/>
-      <c r="AT26" s="204" t="s">
+      <c r="AQ26" s="269"/>
+      <c r="AR26" s="269"/>
+      <c r="AS26" s="269"/>
+      <c r="AT26" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU26" s="204"/>
-      <c r="AV26" s="204"/>
-      <c r="AW26" s="204"/>
-      <c r="AX26" s="177"/>
-      <c r="AY26" s="177"/>
-      <c r="AZ26" s="177"/>
-      <c r="BA26" s="177"/>
-      <c r="BB26" s="177"/>
-      <c r="BC26" s="177"/>
-      <c r="BD26" s="177"/>
-      <c r="BE26" s="177"/>
-      <c r="BF26" s="177"/>
+      <c r="AU26" s="278"/>
+      <c r="AV26" s="278"/>
+      <c r="AW26" s="278"/>
+      <c r="AX26" s="255"/>
+      <c r="AY26" s="255"/>
+      <c r="AZ26" s="255"/>
+      <c r="BA26" s="255"/>
+      <c r="BB26" s="255"/>
+      <c r="BC26" s="255"/>
+      <c r="BD26" s="255"/>
+      <c r="BE26" s="255"/>
+      <c r="BF26" s="255"/>
     </row>
     <row r="27" spans="2:61" s="29" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="92">
         <v>8</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="C27" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="200" t="s">
+      <c r="D27" s="255"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="263" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="263"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
       <c r="M27" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N27" s="105"/>
-      <c r="O27" s="221" t="s">
+      <c r="O27" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="222"/>
-      <c r="Q27" s="222"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="223"/>
-      <c r="T27" s="233" t="s">
+      <c r="P27" s="245"/>
+      <c r="Q27" s="245"/>
+      <c r="R27" s="245"/>
+      <c r="S27" s="246"/>
+      <c r="T27" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="233"/>
-      <c r="V27" s="221" t="s">
+      <c r="U27" s="243"/>
+      <c r="V27" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="W27" s="222"/>
-      <c r="X27" s="222"/>
-      <c r="Y27" s="223"/>
-      <c r="Z27" s="200" t="s">
+      <c r="W27" s="245"/>
+      <c r="X27" s="245"/>
+      <c r="Y27" s="246"/>
+      <c r="Z27" s="263" t="s">
         <v>128</v>
       </c>
-      <c r="AA27" s="200"/>
-      <c r="AB27" s="221" t="s">
+      <c r="AA27" s="263"/>
+      <c r="AB27" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="AC27" s="222"/>
-      <c r="AD27" s="223"/>
-      <c r="AE27" s="172" t="s">
+      <c r="AC27" s="245"/>
+      <c r="AD27" s="246"/>
+      <c r="AE27" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="174"/>
-      <c r="AH27" s="200" t="s">
+      <c r="AF27" s="265"/>
+      <c r="AG27" s="266"/>
+      <c r="AH27" s="263" t="s">
         <v>61</v>
       </c>
-      <c r="AI27" s="200"/>
-      <c r="AJ27" s="200"/>
-      <c r="AK27" s="200"/>
-      <c r="AL27" s="200"/>
-      <c r="AM27" s="200"/>
-      <c r="AN27" s="202">
+      <c r="AI27" s="263"/>
+      <c r="AJ27" s="263"/>
+      <c r="AK27" s="263"/>
+      <c r="AL27" s="263"/>
+      <c r="AM27" s="263"/>
+      <c r="AN27" s="267">
         <v>2000</v>
       </c>
-      <c r="AO27" s="203"/>
-      <c r="AP27" s="201">
+      <c r="AO27" s="268"/>
+      <c r="AP27" s="269">
         <v>10000</v>
       </c>
-      <c r="AQ27" s="201"/>
-      <c r="AR27" s="201"/>
-      <c r="AS27" s="201"/>
-      <c r="AT27" s="204" t="s">
+      <c r="AQ27" s="269"/>
+      <c r="AR27" s="269"/>
+      <c r="AS27" s="269"/>
+      <c r="AT27" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="AU27" s="204"/>
-      <c r="AV27" s="204"/>
-      <c r="AW27" s="204"/>
-      <c r="AX27" s="200" t="s">
+      <c r="AU27" s="278"/>
+      <c r="AV27" s="278"/>
+      <c r="AW27" s="278"/>
+      <c r="AX27" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="AY27" s="200"/>
-      <c r="AZ27" s="200"/>
-      <c r="BA27" s="200"/>
-      <c r="BB27" s="200"/>
-      <c r="BC27" s="200"/>
-      <c r="BD27" s="200"/>
-      <c r="BE27" s="200"/>
-      <c r="BF27" s="200"/>
+      <c r="AY27" s="263"/>
+      <c r="AZ27" s="263"/>
+      <c r="BA27" s="263"/>
+      <c r="BB27" s="263"/>
+      <c r="BC27" s="263"/>
+      <c r="BD27" s="263"/>
+      <c r="BE27" s="263"/>
+      <c r="BF27" s="263"/>
     </row>
     <row r="28" spans="2:61" ht="11.25" customHeight="1">
       <c r="B28" s="92">
         <v>9</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="240" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="179" t="s">
+      <c r="D28" s="241"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="240" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="181"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="242"/>
       <c r="M28" s="103" t="s">
         <v>47</v>
       </c>
       <c r="N28" s="105"/>
-      <c r="O28" s="179" t="s">
+      <c r="O28" s="240" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="181"/>
-      <c r="T28" s="224" t="s">
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="242"/>
+      <c r="T28" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="U28" s="225"/>
-      <c r="V28" s="179" t="s">
+      <c r="U28" s="248"/>
+      <c r="V28" s="240" t="s">
         <v>76</v>
       </c>
-      <c r="W28" s="180"/>
-      <c r="X28" s="180"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="177" t="s">
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="242"/>
+      <c r="Z28" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="AA28" s="177"/>
-      <c r="AB28" s="179" t="s">
+      <c r="AA28" s="255"/>
+      <c r="AB28" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC28" s="180"/>
-      <c r="AD28" s="181"/>
-      <c r="AE28" s="172" t="s">
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="242"/>
+      <c r="AE28" s="264" t="s">
         <v>112</v>
       </c>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="174"/>
-      <c r="AH28" s="179" t="s">
+      <c r="AF28" s="265"/>
+      <c r="AG28" s="266"/>
+      <c r="AH28" s="240" t="s">
         <v>113</v>
       </c>
-      <c r="AI28" s="180"/>
-      <c r="AJ28" s="180"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="180"/>
-      <c r="AM28" s="181"/>
-      <c r="AN28" s="202">
+      <c r="AI28" s="241"/>
+      <c r="AJ28" s="241"/>
+      <c r="AK28" s="241"/>
+      <c r="AL28" s="241"/>
+      <c r="AM28" s="242"/>
+      <c r="AN28" s="267">
         <v>230</v>
       </c>
-      <c r="AO28" s="203"/>
-      <c r="AP28" s="202" t="s">
+      <c r="AO28" s="268"/>
+      <c r="AP28" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="AQ28" s="205"/>
-      <c r="AR28" s="205"/>
-      <c r="AS28" s="203"/>
-      <c r="AT28" s="204" t="s">
+      <c r="AQ28" s="287"/>
+      <c r="AR28" s="287"/>
+      <c r="AS28" s="268"/>
+      <c r="AT28" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="AU28" s="204"/>
-      <c r="AV28" s="204"/>
-      <c r="AW28" s="204"/>
-      <c r="AX28" s="179"/>
-      <c r="AY28" s="180"/>
-      <c r="AZ28" s="180"/>
-      <c r="BA28" s="180"/>
-      <c r="BB28" s="180"/>
-      <c r="BC28" s="180"/>
-      <c r="BD28" s="180"/>
-      <c r="BE28" s="180"/>
-      <c r="BF28" s="181"/>
+      <c r="AU28" s="278"/>
+      <c r="AV28" s="278"/>
+      <c r="AW28" s="278"/>
+      <c r="AX28" s="240"/>
+      <c r="AY28" s="241"/>
+      <c r="AZ28" s="241"/>
+      <c r="BA28" s="241"/>
+      <c r="BB28" s="241"/>
+      <c r="BC28" s="241"/>
+      <c r="BD28" s="241"/>
+      <c r="BE28" s="241"/>
+      <c r="BF28" s="242"/>
     </row>
     <row r="29" spans="2:61">
       <c r="B29" s="92">
         <v>10</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="255" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177" t="s">
+      <c r="D29" s="255"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="255"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="255"/>
+      <c r="L29" s="255"/>
       <c r="M29" s="103" t="s">
         <v>55</v>
       </c>
       <c r="N29" s="105"/>
-      <c r="O29" s="179" t="s">
+      <c r="O29" s="240" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180"/>
-      <c r="S29" s="181"/>
-      <c r="T29" s="224" t="s">
+      <c r="P29" s="241"/>
+      <c r="Q29" s="241"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="242"/>
+      <c r="T29" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="U29" s="225"/>
-      <c r="V29" s="179" t="s">
+      <c r="U29" s="248"/>
+      <c r="V29" s="240" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="181"/>
-      <c r="Z29" s="177" t="s">
+      <c r="W29" s="241"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="242"/>
+      <c r="Z29" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="179" t="s">
+      <c r="AA29" s="255"/>
+      <c r="AB29" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="AC29" s="180"/>
-      <c r="AD29" s="181"/>
-      <c r="AE29" s="172" t="s">
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="242"/>
+      <c r="AE29" s="264" t="s">
         <v>112</v>
       </c>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="174"/>
-      <c r="AH29" s="179" t="s">
+      <c r="AF29" s="265"/>
+      <c r="AG29" s="266"/>
+      <c r="AH29" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="AI29" s="180"/>
-      <c r="AJ29" s="180"/>
-      <c r="AK29" s="180"/>
-      <c r="AL29" s="180"/>
-      <c r="AM29" s="181"/>
-      <c r="AN29" s="202">
+      <c r="AI29" s="241"/>
+      <c r="AJ29" s="241"/>
+      <c r="AK29" s="241"/>
+      <c r="AL29" s="241"/>
+      <c r="AM29" s="242"/>
+      <c r="AN29" s="267">
         <v>750</v>
       </c>
-      <c r="AO29" s="203"/>
-      <c r="AP29" s="201" t="s">
+      <c r="AO29" s="268"/>
+      <c r="AP29" s="269" t="s">
         <v>77</v>
       </c>
-      <c r="AQ29" s="201"/>
-      <c r="AR29" s="201"/>
-      <c r="AS29" s="201"/>
-      <c r="AT29" s="204" t="s">
+      <c r="AQ29" s="269"/>
+      <c r="AR29" s="269"/>
+      <c r="AS29" s="269"/>
+      <c r="AT29" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="AU29" s="204"/>
-      <c r="AV29" s="204"/>
-      <c r="AW29" s="204"/>
-      <c r="AX29" s="177"/>
-      <c r="AY29" s="177"/>
-      <c r="AZ29" s="177"/>
-      <c r="BA29" s="177"/>
-      <c r="BB29" s="177"/>
-      <c r="BC29" s="177"/>
-      <c r="BD29" s="177"/>
-      <c r="BE29" s="177"/>
-      <c r="BF29" s="177"/>
+      <c r="AU29" s="278"/>
+      <c r="AV29" s="278"/>
+      <c r="AW29" s="278"/>
+      <c r="AX29" s="255"/>
+      <c r="AY29" s="255"/>
+      <c r="AZ29" s="255"/>
+      <c r="BA29" s="255"/>
+      <c r="BB29" s="255"/>
+      <c r="BC29" s="255"/>
+      <c r="BD29" s="255"/>
+      <c r="BE29" s="255"/>
+      <c r="BF29" s="255"/>
     </row>
     <row r="40" spans="2:35">
       <c r="B40" s="87" t="s">
@@ -11189,1115 +11189,1276 @@
       <c r="B41" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="295" t="s">
+      <c r="C41" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="296"/>
-      <c r="E41" s="296"/>
-      <c r="F41" s="296"/>
-      <c r="G41" s="296"/>
-      <c r="H41" s="296"/>
-      <c r="I41" s="297"/>
-      <c r="J41" s="295" t="s">
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="296"/>
-      <c r="L41" s="296"/>
-      <c r="M41" s="296"/>
-      <c r="N41" s="296"/>
-      <c r="O41" s="296"/>
-      <c r="P41" s="296"/>
-      <c r="Q41" s="296"/>
-      <c r="R41" s="296"/>
-      <c r="S41" s="296"/>
-      <c r="T41" s="296"/>
-      <c r="U41" s="296"/>
-      <c r="V41" s="296"/>
-      <c r="W41" s="296"/>
-      <c r="X41" s="296"/>
-      <c r="Y41" s="296"/>
-      <c r="Z41" s="296"/>
-      <c r="AA41" s="296"/>
-      <c r="AB41" s="296"/>
-      <c r="AC41" s="296"/>
-      <c r="AD41" s="296"/>
-      <c r="AE41" s="296"/>
-      <c r="AF41" s="296"/>
-      <c r="AG41" s="296"/>
-      <c r="AH41" s="296"/>
-      <c r="AI41" s="297"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="190"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="190"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="190"/>
+      <c r="W41" s="190"/>
+      <c r="X41" s="190"/>
+      <c r="Y41" s="190"/>
+      <c r="Z41" s="190"/>
+      <c r="AA41" s="190"/>
+      <c r="AB41" s="190"/>
+      <c r="AC41" s="190"/>
+      <c r="AD41" s="190"/>
+      <c r="AE41" s="190"/>
+      <c r="AF41" s="190"/>
+      <c r="AG41" s="190"/>
+      <c r="AH41" s="190"/>
+      <c r="AI41" s="191"/>
     </row>
     <row r="42" spans="2:35">
       <c r="B42" s="89">
         <v>1</v>
       </c>
-      <c r="C42" s="298" t="s">
+      <c r="C42" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="300"/>
-      <c r="J42" s="234" t="s">
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="235"/>
-      <c r="L42" s="235"/>
-      <c r="M42" s="235"/>
-      <c r="N42" s="235"/>
-      <c r="O42" s="235"/>
-      <c r="P42" s="235"/>
-      <c r="Q42" s="235"/>
-      <c r="R42" s="235"/>
-      <c r="S42" s="235"/>
-      <c r="T42" s="235"/>
-      <c r="U42" s="235"/>
-      <c r="V42" s="235"/>
-      <c r="W42" s="235"/>
-      <c r="X42" s="235"/>
-      <c r="Y42" s="235"/>
-      <c r="Z42" s="235"/>
-      <c r="AA42" s="235"/>
-      <c r="AB42" s="235"/>
-      <c r="AC42" s="235"/>
-      <c r="AD42" s="235"/>
-      <c r="AE42" s="235"/>
-      <c r="AF42" s="235"/>
-      <c r="AG42" s="235"/>
-      <c r="AH42" s="235"/>
-      <c r="AI42" s="236"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="196"/>
+      <c r="P42" s="196"/>
+      <c r="Q42" s="196"/>
+      <c r="R42" s="196"/>
+      <c r="S42" s="196"/>
+      <c r="T42" s="196"/>
+      <c r="U42" s="196"/>
+      <c r="V42" s="196"/>
+      <c r="W42" s="196"/>
+      <c r="X42" s="196"/>
+      <c r="Y42" s="196"/>
+      <c r="Z42" s="196"/>
+      <c r="AA42" s="196"/>
+      <c r="AB42" s="196"/>
+      <c r="AC42" s="196"/>
+      <c r="AD42" s="196"/>
+      <c r="AE42" s="196"/>
+      <c r="AF42" s="196"/>
+      <c r="AG42" s="196"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="197"/>
     </row>
     <row r="43" spans="2:35">
       <c r="B43" s="90">
         <v>2</v>
       </c>
-      <c r="C43" s="234" t="s">
+      <c r="C43" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="235"/>
-      <c r="I43" s="236"/>
-      <c r="J43" s="234" t="s">
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="K43" s="235"/>
-      <c r="L43" s="235"/>
-      <c r="M43" s="235"/>
-      <c r="N43" s="235"/>
-      <c r="O43" s="235"/>
-      <c r="P43" s="235"/>
-      <c r="Q43" s="235"/>
-      <c r="R43" s="235"/>
-      <c r="S43" s="235"/>
-      <c r="T43" s="235"/>
-      <c r="U43" s="235"/>
-      <c r="V43" s="235"/>
-      <c r="W43" s="235"/>
-      <c r="X43" s="235"/>
-      <c r="Y43" s="235"/>
-      <c r="Z43" s="235"/>
-      <c r="AA43" s="235"/>
-      <c r="AB43" s="235"/>
-      <c r="AC43" s="235"/>
-      <c r="AD43" s="235"/>
-      <c r="AE43" s="235"/>
-      <c r="AF43" s="235"/>
-      <c r="AG43" s="235"/>
-      <c r="AH43" s="235"/>
-      <c r="AI43" s="236"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
+      <c r="M43" s="196"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="196"/>
+      <c r="P43" s="196"/>
+      <c r="Q43" s="196"/>
+      <c r="R43" s="196"/>
+      <c r="S43" s="196"/>
+      <c r="T43" s="196"/>
+      <c r="U43" s="196"/>
+      <c r="V43" s="196"/>
+      <c r="W43" s="196"/>
+      <c r="X43" s="196"/>
+      <c r="Y43" s="196"/>
+      <c r="Z43" s="196"/>
+      <c r="AA43" s="196"/>
+      <c r="AB43" s="196"/>
+      <c r="AC43" s="196"/>
+      <c r="AD43" s="196"/>
+      <c r="AE43" s="196"/>
+      <c r="AF43" s="196"/>
+      <c r="AG43" s="196"/>
+      <c r="AH43" s="196"/>
+      <c r="AI43" s="197"/>
     </row>
     <row r="44" spans="2:35">
       <c r="B44" s="90">
         <v>3</v>
       </c>
-      <c r="C44" s="301" t="s">
+      <c r="C44" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="302"/>
-      <c r="E44" s="302"/>
-      <c r="F44" s="302"/>
-      <c r="G44" s="302"/>
-      <c r="H44" s="302"/>
-      <c r="I44" s="303"/>
-      <c r="J44" s="234" t="s">
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="K44" s="235"/>
-      <c r="L44" s="235"/>
-      <c r="M44" s="235"/>
-      <c r="N44" s="235"/>
-      <c r="O44" s="235"/>
-      <c r="P44" s="235"/>
-      <c r="Q44" s="235"/>
-      <c r="R44" s="235"/>
-      <c r="S44" s="235"/>
-      <c r="T44" s="235"/>
-      <c r="U44" s="235"/>
-      <c r="V44" s="235"/>
-      <c r="W44" s="235"/>
-      <c r="X44" s="235"/>
-      <c r="Y44" s="235"/>
-      <c r="Z44" s="235"/>
-      <c r="AA44" s="235"/>
-      <c r="AB44" s="235"/>
-      <c r="AC44" s="235"/>
-      <c r="AD44" s="235"/>
-      <c r="AE44" s="235"/>
-      <c r="AF44" s="235"/>
-      <c r="AG44" s="235"/>
-      <c r="AH44" s="235"/>
-      <c r="AI44" s="236"/>
+      <c r="K44" s="196"/>
+      <c r="L44" s="196"/>
+      <c r="M44" s="196"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="196"/>
+      <c r="P44" s="196"/>
+      <c r="Q44" s="196"/>
+      <c r="R44" s="196"/>
+      <c r="S44" s="196"/>
+      <c r="T44" s="196"/>
+      <c r="U44" s="196"/>
+      <c r="V44" s="196"/>
+      <c r="W44" s="196"/>
+      <c r="X44" s="196"/>
+      <c r="Y44" s="196"/>
+      <c r="Z44" s="196"/>
+      <c r="AA44" s="196"/>
+      <c r="AB44" s="196"/>
+      <c r="AC44" s="196"/>
+      <c r="AD44" s="196"/>
+      <c r="AE44" s="196"/>
+      <c r="AF44" s="196"/>
+      <c r="AG44" s="196"/>
+      <c r="AH44" s="196"/>
+      <c r="AI44" s="197"/>
     </row>
     <row r="45" spans="2:35">
-      <c r="B45" s="246">
+      <c r="B45" s="187">
         <v>4</v>
       </c>
-      <c r="C45" s="249" t="s">
+      <c r="C45" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="250"/>
-      <c r="E45" s="250"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="250"/>
-      <c r="H45" s="250"/>
-      <c r="I45" s="251"/>
-      <c r="J45" s="237" t="s">
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="214"/>
+      <c r="J45" s="201" t="s">
         <v>133</v>
       </c>
-      <c r="K45" s="238"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="238"/>
-      <c r="N45" s="238"/>
-      <c r="O45" s="238"/>
-      <c r="P45" s="238"/>
-      <c r="Q45" s="238"/>
-      <c r="R45" s="238"/>
-      <c r="S45" s="238"/>
-      <c r="T45" s="238"/>
-      <c r="U45" s="238"/>
-      <c r="V45" s="238"/>
-      <c r="W45" s="238"/>
-      <c r="X45" s="238"/>
-      <c r="Y45" s="238"/>
-      <c r="Z45" s="238"/>
-      <c r="AA45" s="238"/>
-      <c r="AB45" s="238"/>
-      <c r="AC45" s="238"/>
-      <c r="AD45" s="238"/>
-      <c r="AE45" s="238"/>
-      <c r="AF45" s="238"/>
-      <c r="AG45" s="238"/>
-      <c r="AH45" s="238"/>
-      <c r="AI45" s="239"/>
+      <c r="K45" s="202"/>
+      <c r="L45" s="202"/>
+      <c r="M45" s="202"/>
+      <c r="N45" s="202"/>
+      <c r="O45" s="202"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="202"/>
+      <c r="R45" s="202"/>
+      <c r="S45" s="202"/>
+      <c r="T45" s="202"/>
+      <c r="U45" s="202"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202"/>
+      <c r="X45" s="202"/>
+      <c r="Y45" s="202"/>
+      <c r="Z45" s="202"/>
+      <c r="AA45" s="202"/>
+      <c r="AB45" s="202"/>
+      <c r="AC45" s="202"/>
+      <c r="AD45" s="202"/>
+      <c r="AE45" s="202"/>
+      <c r="AF45" s="202"/>
+      <c r="AG45" s="202"/>
+      <c r="AH45" s="202"/>
+      <c r="AI45" s="203"/>
     </row>
     <row r="46" spans="2:35">
-      <c r="B46" s="247"/>
-      <c r="C46" s="252"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253"/>
-      <c r="G46" s="253"/>
-      <c r="H46" s="253"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="240"/>
-      <c r="K46" s="241"/>
-      <c r="L46" s="241"/>
-      <c r="M46" s="241"/>
-      <c r="N46" s="241"/>
-      <c r="O46" s="241"/>
-      <c r="P46" s="241"/>
-      <c r="Q46" s="241"/>
-      <c r="R46" s="241"/>
-      <c r="S46" s="241"/>
-      <c r="T46" s="241"/>
-      <c r="U46" s="241"/>
-      <c r="V46" s="241"/>
-      <c r="W46" s="241"/>
-      <c r="X46" s="241"/>
-      <c r="Y46" s="241"/>
-      <c r="Z46" s="241"/>
-      <c r="AA46" s="241"/>
-      <c r="AB46" s="241"/>
-      <c r="AC46" s="241"/>
-      <c r="AD46" s="241"/>
-      <c r="AE46" s="241"/>
-      <c r="AF46" s="241"/>
-      <c r="AG46" s="241"/>
-      <c r="AH46" s="241"/>
-      <c r="AI46" s="242"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="216"/>
+      <c r="I46" s="217"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="205"/>
+      <c r="L46" s="205"/>
+      <c r="M46" s="205"/>
+      <c r="N46" s="205"/>
+      <c r="O46" s="205"/>
+      <c r="P46" s="205"/>
+      <c r="Q46" s="205"/>
+      <c r="R46" s="205"/>
+      <c r="S46" s="205"/>
+      <c r="T46" s="205"/>
+      <c r="U46" s="205"/>
+      <c r="V46" s="205"/>
+      <c r="W46" s="205"/>
+      <c r="X46" s="205"/>
+      <c r="Y46" s="205"/>
+      <c r="Z46" s="205"/>
+      <c r="AA46" s="205"/>
+      <c r="AB46" s="205"/>
+      <c r="AC46" s="205"/>
+      <c r="AD46" s="205"/>
+      <c r="AE46" s="205"/>
+      <c r="AF46" s="205"/>
+      <c r="AG46" s="205"/>
+      <c r="AH46" s="205"/>
+      <c r="AI46" s="206"/>
     </row>
     <row r="47" spans="2:35">
-      <c r="B47" s="248"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="256"/>
-      <c r="E47" s="256"/>
-      <c r="F47" s="256"/>
-      <c r="G47" s="256"/>
-      <c r="H47" s="256"/>
-      <c r="I47" s="257"/>
-      <c r="J47" s="243"/>
-      <c r="K47" s="244"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="244"/>
-      <c r="N47" s="244"/>
-      <c r="O47" s="244"/>
-      <c r="P47" s="244"/>
-      <c r="Q47" s="244"/>
-      <c r="R47" s="244"/>
-      <c r="S47" s="244"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="244"/>
-      <c r="V47" s="244"/>
-      <c r="W47" s="244"/>
-      <c r="X47" s="244"/>
-      <c r="Y47" s="244"/>
-      <c r="Z47" s="244"/>
-      <c r="AA47" s="244"/>
-      <c r="AB47" s="244"/>
-      <c r="AC47" s="244"/>
-      <c r="AD47" s="244"/>
-      <c r="AE47" s="244"/>
-      <c r="AF47" s="244"/>
-      <c r="AG47" s="244"/>
-      <c r="AH47" s="244"/>
-      <c r="AI47" s="245"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="218"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="219"/>
+      <c r="H47" s="219"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="207"/>
+      <c r="K47" s="208"/>
+      <c r="L47" s="208"/>
+      <c r="M47" s="208"/>
+      <c r="N47" s="208"/>
+      <c r="O47" s="208"/>
+      <c r="P47" s="208"/>
+      <c r="Q47" s="208"/>
+      <c r="R47" s="208"/>
+      <c r="S47" s="208"/>
+      <c r="T47" s="208"/>
+      <c r="U47" s="208"/>
+      <c r="V47" s="208"/>
+      <c r="W47" s="208"/>
+      <c r="X47" s="208"/>
+      <c r="Y47" s="208"/>
+      <c r="Z47" s="208"/>
+      <c r="AA47" s="208"/>
+      <c r="AB47" s="208"/>
+      <c r="AC47" s="208"/>
+      <c r="AD47" s="208"/>
+      <c r="AE47" s="208"/>
+      <c r="AF47" s="208"/>
+      <c r="AG47" s="208"/>
+      <c r="AH47" s="208"/>
+      <c r="AI47" s="209"/>
     </row>
     <row r="48" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B48" s="258">
+      <c r="B48" s="221">
         <v>5</v>
       </c>
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="261"/>
-      <c r="E48" s="261"/>
-      <c r="F48" s="261"/>
-      <c r="G48" s="261"/>
-      <c r="H48" s="261"/>
-      <c r="I48" s="262"/>
-      <c r="J48" s="260" t="s">
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="261"/>
-      <c r="L48" s="261"/>
-      <c r="M48" s="261"/>
-      <c r="N48" s="261"/>
-      <c r="O48" s="261"/>
-      <c r="P48" s="261"/>
-      <c r="Q48" s="261"/>
-      <c r="R48" s="261"/>
-      <c r="S48" s="261"/>
-      <c r="T48" s="261"/>
-      <c r="U48" s="261"/>
-      <c r="V48" s="261"/>
-      <c r="W48" s="261"/>
-      <c r="X48" s="261"/>
-      <c r="Y48" s="261"/>
-      <c r="Z48" s="261"/>
-      <c r="AA48" s="261"/>
-      <c r="AB48" s="261"/>
-      <c r="AC48" s="261"/>
-      <c r="AD48" s="261"/>
-      <c r="AE48" s="261"/>
-      <c r="AF48" s="261"/>
-      <c r="AG48" s="261"/>
-      <c r="AH48" s="261"/>
-      <c r="AI48" s="262"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
+      <c r="M48" s="170"/>
+      <c r="N48" s="170"/>
+      <c r="O48" s="170"/>
+      <c r="P48" s="170"/>
+      <c r="Q48" s="170"/>
+      <c r="R48" s="170"/>
+      <c r="S48" s="170"/>
+      <c r="T48" s="170"/>
+      <c r="U48" s="170"/>
+      <c r="V48" s="170"/>
+      <c r="W48" s="170"/>
+      <c r="X48" s="170"/>
+      <c r="Y48" s="170"/>
+      <c r="Z48" s="170"/>
+      <c r="AA48" s="170"/>
+      <c r="AB48" s="170"/>
+      <c r="AC48" s="170"/>
+      <c r="AD48" s="170"/>
+      <c r="AE48" s="170"/>
+      <c r="AF48" s="170"/>
+      <c r="AG48" s="170"/>
+      <c r="AH48" s="170"/>
+      <c r="AI48" s="171"/>
     </row>
     <row r="49" spans="2:35">
-      <c r="B49" s="259"/>
-      <c r="C49" s="266"/>
-      <c r="D49" s="267"/>
-      <c r="E49" s="267"/>
-      <c r="F49" s="267"/>
-      <c r="G49" s="267"/>
-      <c r="H49" s="267"/>
-      <c r="I49" s="268"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="264"/>
-      <c r="L49" s="264"/>
-      <c r="M49" s="264"/>
-      <c r="N49" s="264"/>
-      <c r="O49" s="264"/>
-      <c r="P49" s="264"/>
-      <c r="Q49" s="264"/>
-      <c r="R49" s="264"/>
-      <c r="S49" s="264"/>
-      <c r="T49" s="264"/>
-      <c r="U49" s="264"/>
-      <c r="V49" s="264"/>
-      <c r="W49" s="264"/>
-      <c r="X49" s="264"/>
-      <c r="Y49" s="264"/>
-      <c r="Z49" s="264"/>
-      <c r="AA49" s="264"/>
-      <c r="AB49" s="264"/>
-      <c r="AC49" s="264"/>
-      <c r="AD49" s="264"/>
-      <c r="AE49" s="264"/>
-      <c r="AF49" s="264"/>
-      <c r="AG49" s="264"/>
-      <c r="AH49" s="264"/>
-      <c r="AI49" s="265"/>
+      <c r="B49" s="222"/>
+      <c r="C49" s="223"/>
+      <c r="D49" s="224"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="224"/>
+      <c r="I49" s="225"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="173"/>
+      <c r="L49" s="173"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="173"/>
+      <c r="P49" s="173"/>
+      <c r="Q49" s="173"/>
+      <c r="R49" s="173"/>
+      <c r="S49" s="173"/>
+      <c r="T49" s="173"/>
+      <c r="U49" s="173"/>
+      <c r="V49" s="173"/>
+      <c r="W49" s="173"/>
+      <c r="X49" s="173"/>
+      <c r="Y49" s="173"/>
+      <c r="Z49" s="173"/>
+      <c r="AA49" s="173"/>
+      <c r="AB49" s="173"/>
+      <c r="AC49" s="173"/>
+      <c r="AD49" s="173"/>
+      <c r="AE49" s="173"/>
+      <c r="AF49" s="173"/>
+      <c r="AG49" s="173"/>
+      <c r="AH49" s="173"/>
+      <c r="AI49" s="174"/>
     </row>
     <row r="50" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B50" s="258">
+      <c r="B50" s="221">
         <v>6</v>
       </c>
-      <c r="C50" s="272" t="s">
+      <c r="C50" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="273"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="273"/>
-      <c r="I50" s="274"/>
-      <c r="J50" s="260" t="s">
+      <c r="D50" s="230"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="230"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="K50" s="261"/>
-      <c r="L50" s="261"/>
-      <c r="M50" s="261"/>
-      <c r="N50" s="261"/>
-      <c r="O50" s="261"/>
-      <c r="P50" s="261"/>
-      <c r="Q50" s="261"/>
-      <c r="R50" s="261"/>
-      <c r="S50" s="261"/>
-      <c r="T50" s="261"/>
-      <c r="U50" s="261"/>
-      <c r="V50" s="261"/>
-      <c r="W50" s="261"/>
-      <c r="X50" s="261"/>
-      <c r="Y50" s="261"/>
-      <c r="Z50" s="261"/>
-      <c r="AA50" s="261"/>
-      <c r="AB50" s="261"/>
-      <c r="AC50" s="261"/>
-      <c r="AD50" s="261"/>
-      <c r="AE50" s="261"/>
-      <c r="AF50" s="261"/>
-      <c r="AG50" s="261"/>
-      <c r="AH50" s="261"/>
-      <c r="AI50" s="262"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="170"/>
+      <c r="O50" s="170"/>
+      <c r="P50" s="170"/>
+      <c r="Q50" s="170"/>
+      <c r="R50" s="170"/>
+      <c r="S50" s="170"/>
+      <c r="T50" s="170"/>
+      <c r="U50" s="170"/>
+      <c r="V50" s="170"/>
+      <c r="W50" s="170"/>
+      <c r="X50" s="170"/>
+      <c r="Y50" s="170"/>
+      <c r="Z50" s="170"/>
+      <c r="AA50" s="170"/>
+      <c r="AB50" s="170"/>
+      <c r="AC50" s="170"/>
+      <c r="AD50" s="170"/>
+      <c r="AE50" s="170"/>
+      <c r="AF50" s="170"/>
+      <c r="AG50" s="170"/>
+      <c r="AH50" s="170"/>
+      <c r="AI50" s="171"/>
     </row>
     <row r="51" spans="2:35">
-      <c r="B51" s="281"/>
-      <c r="C51" s="275"/>
-      <c r="D51" s="276"/>
-      <c r="E51" s="276"/>
-      <c r="F51" s="276"/>
-      <c r="G51" s="276"/>
-      <c r="H51" s="276"/>
-      <c r="I51" s="277"/>
-      <c r="J51" s="269"/>
-      <c r="K51" s="270"/>
-      <c r="L51" s="270"/>
-      <c r="M51" s="270"/>
-      <c r="N51" s="270"/>
-      <c r="O51" s="270"/>
-      <c r="P51" s="270"/>
-      <c r="Q51" s="270"/>
-      <c r="R51" s="270"/>
-      <c r="S51" s="270"/>
-      <c r="T51" s="270"/>
-      <c r="U51" s="270"/>
-      <c r="V51" s="270"/>
-      <c r="W51" s="270"/>
-      <c r="X51" s="270"/>
-      <c r="Y51" s="270"/>
-      <c r="Z51" s="270"/>
-      <c r="AA51" s="270"/>
-      <c r="AB51" s="270"/>
-      <c r="AC51" s="270"/>
-      <c r="AD51" s="270"/>
-      <c r="AE51" s="270"/>
-      <c r="AF51" s="270"/>
-      <c r="AG51" s="270"/>
-      <c r="AH51" s="270"/>
-      <c r="AI51" s="271"/>
+      <c r="B51" s="238"/>
+      <c r="C51" s="232"/>
+      <c r="D51" s="233"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="233"/>
+      <c r="G51" s="233"/>
+      <c r="H51" s="233"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="226"/>
+      <c r="K51" s="227"/>
+      <c r="L51" s="227"/>
+      <c r="M51" s="227"/>
+      <c r="N51" s="227"/>
+      <c r="O51" s="227"/>
+      <c r="P51" s="227"/>
+      <c r="Q51" s="227"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="227"/>
+      <c r="T51" s="227"/>
+      <c r="U51" s="227"/>
+      <c r="V51" s="227"/>
+      <c r="W51" s="227"/>
+      <c r="X51" s="227"/>
+      <c r="Y51" s="227"/>
+      <c r="Z51" s="227"/>
+      <c r="AA51" s="227"/>
+      <c r="AB51" s="227"/>
+      <c r="AC51" s="227"/>
+      <c r="AD51" s="227"/>
+      <c r="AE51" s="227"/>
+      <c r="AF51" s="227"/>
+      <c r="AG51" s="227"/>
+      <c r="AH51" s="227"/>
+      <c r="AI51" s="228"/>
     </row>
     <row r="52" spans="2:35">
-      <c r="B52" s="259"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="267"/>
-      <c r="F52" s="267"/>
-      <c r="G52" s="267"/>
-      <c r="H52" s="267"/>
-      <c r="I52" s="268"/>
-      <c r="J52" s="263"/>
-      <c r="K52" s="264"/>
-      <c r="L52" s="264"/>
-      <c r="M52" s="264"/>
-      <c r="N52" s="264"/>
-      <c r="O52" s="264"/>
-      <c r="P52" s="264"/>
-      <c r="Q52" s="264"/>
-      <c r="R52" s="264"/>
-      <c r="S52" s="264"/>
-      <c r="T52" s="264"/>
-      <c r="U52" s="264"/>
-      <c r="V52" s="264"/>
-      <c r="W52" s="264"/>
-      <c r="X52" s="264"/>
-      <c r="Y52" s="264"/>
-      <c r="Z52" s="264"/>
-      <c r="AA52" s="264"/>
-      <c r="AB52" s="264"/>
-      <c r="AC52" s="264"/>
-      <c r="AD52" s="264"/>
-      <c r="AE52" s="264"/>
-      <c r="AF52" s="264"/>
-      <c r="AG52" s="264"/>
-      <c r="AH52" s="264"/>
-      <c r="AI52" s="265"/>
+      <c r="B52" s="222"/>
+      <c r="C52" s="223"/>
+      <c r="D52" s="224"/>
+      <c r="E52" s="224"/>
+      <c r="F52" s="224"/>
+      <c r="G52" s="224"/>
+      <c r="H52" s="224"/>
+      <c r="I52" s="225"/>
+      <c r="J52" s="172"/>
+      <c r="K52" s="173"/>
+      <c r="L52" s="173"/>
+      <c r="M52" s="173"/>
+      <c r="N52" s="173"/>
+      <c r="O52" s="173"/>
+      <c r="P52" s="173"/>
+      <c r="Q52" s="173"/>
+      <c r="R52" s="173"/>
+      <c r="S52" s="173"/>
+      <c r="T52" s="173"/>
+      <c r="U52" s="173"/>
+      <c r="V52" s="173"/>
+      <c r="W52" s="173"/>
+      <c r="X52" s="173"/>
+      <c r="Y52" s="173"/>
+      <c r="Z52" s="173"/>
+      <c r="AA52" s="173"/>
+      <c r="AB52" s="173"/>
+      <c r="AC52" s="173"/>
+      <c r="AD52" s="173"/>
+      <c r="AE52" s="173"/>
+      <c r="AF52" s="173"/>
+      <c r="AG52" s="173"/>
+      <c r="AH52" s="173"/>
+      <c r="AI52" s="174"/>
     </row>
     <row r="53" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B53" s="246">
+      <c r="B53" s="187">
         <v>7</v>
       </c>
-      <c r="C53" s="282" t="s">
+      <c r="C53" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="283"/>
-      <c r="E53" s="283"/>
-      <c r="F53" s="283"/>
-      <c r="G53" s="283"/>
-      <c r="H53" s="283"/>
-      <c r="I53" s="284"/>
-      <c r="J53" s="260" t="s">
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="K53" s="261"/>
-      <c r="L53" s="261"/>
-      <c r="M53" s="261"/>
-      <c r="N53" s="261"/>
-      <c r="O53" s="261"/>
-      <c r="P53" s="261"/>
-      <c r="Q53" s="261"/>
-      <c r="R53" s="261"/>
-      <c r="S53" s="261"/>
-      <c r="T53" s="261"/>
-      <c r="U53" s="261"/>
-      <c r="V53" s="261"/>
-      <c r="W53" s="261"/>
-      <c r="X53" s="261"/>
-      <c r="Y53" s="261"/>
-      <c r="Z53" s="261"/>
-      <c r="AA53" s="261"/>
-      <c r="AB53" s="261"/>
-      <c r="AC53" s="261"/>
-      <c r="AD53" s="261"/>
-      <c r="AE53" s="261"/>
-      <c r="AF53" s="261"/>
-      <c r="AG53" s="261"/>
-      <c r="AH53" s="261"/>
-      <c r="AI53" s="262"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="170"/>
+      <c r="Q53" s="170"/>
+      <c r="R53" s="170"/>
+      <c r="S53" s="170"/>
+      <c r="T53" s="170"/>
+      <c r="U53" s="170"/>
+      <c r="V53" s="170"/>
+      <c r="W53" s="170"/>
+      <c r="X53" s="170"/>
+      <c r="Y53" s="170"/>
+      <c r="Z53" s="170"/>
+      <c r="AA53" s="170"/>
+      <c r="AB53" s="170"/>
+      <c r="AC53" s="170"/>
+      <c r="AD53" s="170"/>
+      <c r="AE53" s="170"/>
+      <c r="AF53" s="170"/>
+      <c r="AG53" s="170"/>
+      <c r="AH53" s="170"/>
+      <c r="AI53" s="171"/>
     </row>
     <row r="54" spans="2:35">
-      <c r="B54" s="294"/>
-      <c r="C54" s="285"/>
-      <c r="D54" s="286"/>
-      <c r="E54" s="286"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="287"/>
-      <c r="J54" s="263"/>
-      <c r="K54" s="264"/>
-      <c r="L54" s="264"/>
-      <c r="M54" s="264"/>
-      <c r="N54" s="264"/>
-      <c r="O54" s="264"/>
-      <c r="P54" s="264"/>
-      <c r="Q54" s="264"/>
-      <c r="R54" s="264"/>
-      <c r="S54" s="264"/>
-      <c r="T54" s="264"/>
-      <c r="U54" s="264"/>
-      <c r="V54" s="264"/>
-      <c r="W54" s="264"/>
-      <c r="X54" s="264"/>
-      <c r="Y54" s="264"/>
-      <c r="Z54" s="264"/>
-      <c r="AA54" s="264"/>
-      <c r="AB54" s="264"/>
-      <c r="AC54" s="264"/>
-      <c r="AD54" s="264"/>
-      <c r="AE54" s="264"/>
-      <c r="AF54" s="264"/>
-      <c r="AG54" s="264"/>
-      <c r="AH54" s="264"/>
-      <c r="AI54" s="265"/>
+      <c r="B54" s="188"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="173"/>
+      <c r="O54" s="173"/>
+      <c r="P54" s="173"/>
+      <c r="Q54" s="173"/>
+      <c r="R54" s="173"/>
+      <c r="S54" s="173"/>
+      <c r="T54" s="173"/>
+      <c r="U54" s="173"/>
+      <c r="V54" s="173"/>
+      <c r="W54" s="173"/>
+      <c r="X54" s="173"/>
+      <c r="Y54" s="173"/>
+      <c r="Z54" s="173"/>
+      <c r="AA54" s="173"/>
+      <c r="AB54" s="173"/>
+      <c r="AC54" s="173"/>
+      <c r="AD54" s="173"/>
+      <c r="AE54" s="173"/>
+      <c r="AF54" s="173"/>
+      <c r="AG54" s="173"/>
+      <c r="AH54" s="173"/>
+      <c r="AI54" s="174"/>
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="90">
         <v>8</v>
       </c>
-      <c r="C55" s="234" t="s">
+      <c r="C55" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="235"/>
-      <c r="E55" s="235"/>
-      <c r="F55" s="235"/>
-      <c r="G55" s="235"/>
-      <c r="H55" s="235"/>
-      <c r="I55" s="236"/>
-      <c r="J55" s="234" t="s">
+      <c r="D55" s="196"/>
+      <c r="E55" s="196"/>
+      <c r="F55" s="196"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="K55" s="235"/>
-      <c r="L55" s="235"/>
-      <c r="M55" s="235"/>
-      <c r="N55" s="235"/>
-      <c r="O55" s="235"/>
-      <c r="P55" s="235"/>
-      <c r="Q55" s="235"/>
-      <c r="R55" s="235"/>
-      <c r="S55" s="235"/>
-      <c r="T55" s="235"/>
-      <c r="U55" s="235"/>
-      <c r="V55" s="235"/>
-      <c r="W55" s="235"/>
-      <c r="X55" s="235"/>
-      <c r="Y55" s="235"/>
-      <c r="Z55" s="235"/>
-      <c r="AA55" s="235"/>
-      <c r="AB55" s="235"/>
-      <c r="AC55" s="235"/>
-      <c r="AD55" s="235"/>
-      <c r="AE55" s="235"/>
-      <c r="AF55" s="235"/>
-      <c r="AG55" s="235"/>
-      <c r="AH55" s="235"/>
-      <c r="AI55" s="236"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="196"/>
+      <c r="M55" s="196"/>
+      <c r="N55" s="196"/>
+      <c r="O55" s="196"/>
+      <c r="P55" s="196"/>
+      <c r="Q55" s="196"/>
+      <c r="R55" s="196"/>
+      <c r="S55" s="196"/>
+      <c r="T55" s="196"/>
+      <c r="U55" s="196"/>
+      <c r="V55" s="196"/>
+      <c r="W55" s="196"/>
+      <c r="X55" s="196"/>
+      <c r="Y55" s="196"/>
+      <c r="Z55" s="196"/>
+      <c r="AA55" s="196"/>
+      <c r="AB55" s="196"/>
+      <c r="AC55" s="196"/>
+      <c r="AD55" s="196"/>
+      <c r="AE55" s="196"/>
+      <c r="AF55" s="196"/>
+      <c r="AG55" s="196"/>
+      <c r="AH55" s="196"/>
+      <c r="AI55" s="197"/>
     </row>
     <row r="56" spans="2:35" ht="11.25" customHeight="1">
-      <c r="B56" s="246">
+      <c r="B56" s="187">
         <v>9</v>
       </c>
-      <c r="C56" s="288" t="s">
+      <c r="C56" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="289"/>
-      <c r="E56" s="289"/>
-      <c r="F56" s="289"/>
-      <c r="G56" s="289"/>
-      <c r="H56" s="289"/>
-      <c r="I56" s="290"/>
-      <c r="J56" s="260" t="s">
+      <c r="D56" s="182"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="182"/>
+      <c r="H56" s="182"/>
+      <c r="I56" s="183"/>
+      <c r="J56" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="K56" s="261"/>
-      <c r="L56" s="261"/>
-      <c r="M56" s="261"/>
-      <c r="N56" s="261"/>
-      <c r="O56" s="261"/>
-      <c r="P56" s="261"/>
-      <c r="Q56" s="261"/>
-      <c r="R56" s="261"/>
-      <c r="S56" s="261"/>
-      <c r="T56" s="261"/>
-      <c r="U56" s="261"/>
-      <c r="V56" s="261"/>
-      <c r="W56" s="261"/>
-      <c r="X56" s="261"/>
-      <c r="Y56" s="261"/>
-      <c r="Z56" s="261"/>
-      <c r="AA56" s="261"/>
-      <c r="AB56" s="261"/>
-      <c r="AC56" s="261"/>
-      <c r="AD56" s="261"/>
-      <c r="AE56" s="261"/>
-      <c r="AF56" s="261"/>
-      <c r="AG56" s="261"/>
-      <c r="AH56" s="261"/>
-      <c r="AI56" s="262"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="170"/>
+      <c r="O56" s="170"/>
+      <c r="P56" s="170"/>
+      <c r="Q56" s="170"/>
+      <c r="R56" s="170"/>
+      <c r="S56" s="170"/>
+      <c r="T56" s="170"/>
+      <c r="U56" s="170"/>
+      <c r="V56" s="170"/>
+      <c r="W56" s="170"/>
+      <c r="X56" s="170"/>
+      <c r="Y56" s="170"/>
+      <c r="Z56" s="170"/>
+      <c r="AA56" s="170"/>
+      <c r="AB56" s="170"/>
+      <c r="AC56" s="170"/>
+      <c r="AD56" s="170"/>
+      <c r="AE56" s="170"/>
+      <c r="AF56" s="170"/>
+      <c r="AG56" s="170"/>
+      <c r="AH56" s="170"/>
+      <c r="AI56" s="171"/>
     </row>
     <row r="57" spans="2:35">
-      <c r="B57" s="294"/>
-      <c r="C57" s="291"/>
-      <c r="D57" s="292"/>
-      <c r="E57" s="292"/>
-      <c r="F57" s="292"/>
-      <c r="G57" s="292"/>
-      <c r="H57" s="292"/>
-      <c r="I57" s="293"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="264"/>
-      <c r="L57" s="264"/>
-      <c r="M57" s="264"/>
-      <c r="N57" s="264"/>
-      <c r="O57" s="264"/>
-      <c r="P57" s="264"/>
-      <c r="Q57" s="264"/>
-      <c r="R57" s="264"/>
-      <c r="S57" s="264"/>
-      <c r="T57" s="264"/>
-      <c r="U57" s="264"/>
-      <c r="V57" s="264"/>
-      <c r="W57" s="264"/>
-      <c r="X57" s="264"/>
-      <c r="Y57" s="264"/>
-      <c r="Z57" s="264"/>
-      <c r="AA57" s="264"/>
-      <c r="AB57" s="264"/>
-      <c r="AC57" s="264"/>
-      <c r="AD57" s="264"/>
-      <c r="AE57" s="264"/>
-      <c r="AF57" s="264"/>
-      <c r="AG57" s="264"/>
-      <c r="AH57" s="264"/>
-      <c r="AI57" s="265"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="184"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="185"/>
+      <c r="G57" s="185"/>
+      <c r="H57" s="185"/>
+      <c r="I57" s="186"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
+      <c r="O57" s="173"/>
+      <c r="P57" s="173"/>
+      <c r="Q57" s="173"/>
+      <c r="R57" s="173"/>
+      <c r="S57" s="173"/>
+      <c r="T57" s="173"/>
+      <c r="U57" s="173"/>
+      <c r="V57" s="173"/>
+      <c r="W57" s="173"/>
+      <c r="X57" s="173"/>
+      <c r="Y57" s="173"/>
+      <c r="Z57" s="173"/>
+      <c r="AA57" s="173"/>
+      <c r="AB57" s="173"/>
+      <c r="AC57" s="173"/>
+      <c r="AD57" s="173"/>
+      <c r="AE57" s="173"/>
+      <c r="AF57" s="173"/>
+      <c r="AG57" s="173"/>
+      <c r="AH57" s="173"/>
+      <c r="AI57" s="174"/>
     </row>
     <row r="58" spans="2:35">
       <c r="B58" s="90">
         <v>10</v>
       </c>
-      <c r="C58" s="234" t="s">
+      <c r="C58" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="235"/>
-      <c r="E58" s="235"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="235"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="236"/>
-      <c r="J58" s="234" t="s">
+      <c r="D58" s="196"/>
+      <c r="E58" s="196"/>
+      <c r="F58" s="196"/>
+      <c r="G58" s="196"/>
+      <c r="H58" s="196"/>
+      <c r="I58" s="197"/>
+      <c r="J58" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="K58" s="235"/>
-      <c r="L58" s="235"/>
-      <c r="M58" s="235"/>
-      <c r="N58" s="235"/>
-      <c r="O58" s="235"/>
-      <c r="P58" s="235"/>
-      <c r="Q58" s="235"/>
-      <c r="R58" s="235"/>
-      <c r="S58" s="235"/>
-      <c r="T58" s="235"/>
-      <c r="U58" s="235"/>
-      <c r="V58" s="235"/>
-      <c r="W58" s="235"/>
-      <c r="X58" s="235"/>
-      <c r="Y58" s="235"/>
-      <c r="Z58" s="235"/>
-      <c r="AA58" s="235"/>
-      <c r="AB58" s="235"/>
-      <c r="AC58" s="235"/>
-      <c r="AD58" s="235"/>
-      <c r="AE58" s="235"/>
-      <c r="AF58" s="235"/>
-      <c r="AG58" s="235"/>
-      <c r="AH58" s="235"/>
-      <c r="AI58" s="236"/>
+      <c r="K58" s="196"/>
+      <c r="L58" s="196"/>
+      <c r="M58" s="196"/>
+      <c r="N58" s="196"/>
+      <c r="O58" s="196"/>
+      <c r="P58" s="196"/>
+      <c r="Q58" s="196"/>
+      <c r="R58" s="196"/>
+      <c r="S58" s="196"/>
+      <c r="T58" s="196"/>
+      <c r="U58" s="196"/>
+      <c r="V58" s="196"/>
+      <c r="W58" s="196"/>
+      <c r="X58" s="196"/>
+      <c r="Y58" s="196"/>
+      <c r="Z58" s="196"/>
+      <c r="AA58" s="196"/>
+      <c r="AB58" s="196"/>
+      <c r="AC58" s="196"/>
+      <c r="AD58" s="196"/>
+      <c r="AE58" s="196"/>
+      <c r="AF58" s="196"/>
+      <c r="AG58" s="196"/>
+      <c r="AH58" s="196"/>
+      <c r="AI58" s="197"/>
     </row>
     <row r="59" spans="2:35">
-      <c r="B59" s="246">
+      <c r="B59" s="187">
         <v>11</v>
       </c>
-      <c r="C59" s="249" t="s">
+      <c r="C59" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="250"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="250"/>
-      <c r="G59" s="250"/>
-      <c r="H59" s="250"/>
-      <c r="I59" s="251"/>
-      <c r="J59" s="237" t="s">
+      <c r="D59" s="213"/>
+      <c r="E59" s="213"/>
+      <c r="F59" s="213"/>
+      <c r="G59" s="213"/>
+      <c r="H59" s="213"/>
+      <c r="I59" s="214"/>
+      <c r="J59" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="K59" s="238"/>
-      <c r="L59" s="238"/>
-      <c r="M59" s="238"/>
-      <c r="N59" s="238"/>
-      <c r="O59" s="238"/>
-      <c r="P59" s="238"/>
-      <c r="Q59" s="238"/>
-      <c r="R59" s="238"/>
-      <c r="S59" s="238"/>
-      <c r="T59" s="238"/>
-      <c r="U59" s="238"/>
-      <c r="V59" s="238"/>
-      <c r="W59" s="238"/>
-      <c r="X59" s="238"/>
-      <c r="Y59" s="238"/>
-      <c r="Z59" s="238"/>
-      <c r="AA59" s="238"/>
-      <c r="AB59" s="238"/>
-      <c r="AC59" s="238"/>
-      <c r="AD59" s="238"/>
-      <c r="AE59" s="238"/>
-      <c r="AF59" s="238"/>
-      <c r="AG59" s="238"/>
-      <c r="AH59" s="238"/>
-      <c r="AI59" s="239"/>
+      <c r="K59" s="202"/>
+      <c r="L59" s="202"/>
+      <c r="M59" s="202"/>
+      <c r="N59" s="202"/>
+      <c r="O59" s="202"/>
+      <c r="P59" s="202"/>
+      <c r="Q59" s="202"/>
+      <c r="R59" s="202"/>
+      <c r="S59" s="202"/>
+      <c r="T59" s="202"/>
+      <c r="U59" s="202"/>
+      <c r="V59" s="202"/>
+      <c r="W59" s="202"/>
+      <c r="X59" s="202"/>
+      <c r="Y59" s="202"/>
+      <c r="Z59" s="202"/>
+      <c r="AA59" s="202"/>
+      <c r="AB59" s="202"/>
+      <c r="AC59" s="202"/>
+      <c r="AD59" s="202"/>
+      <c r="AE59" s="202"/>
+      <c r="AF59" s="202"/>
+      <c r="AG59" s="202"/>
+      <c r="AH59" s="202"/>
+      <c r="AI59" s="203"/>
     </row>
     <row r="60" spans="2:35">
-      <c r="B60" s="247"/>
-      <c r="C60" s="252"/>
-      <c r="D60" s="253"/>
-      <c r="E60" s="253"/>
-      <c r="F60" s="253"/>
-      <c r="G60" s="253"/>
-      <c r="H60" s="253"/>
-      <c r="I60" s="254"/>
-      <c r="J60" s="240"/>
-      <c r="K60" s="241"/>
-      <c r="L60" s="241"/>
-      <c r="M60" s="241"/>
-      <c r="N60" s="241"/>
-      <c r="O60" s="241"/>
-      <c r="P60" s="241"/>
-      <c r="Q60" s="241"/>
-      <c r="R60" s="241"/>
-      <c r="S60" s="241"/>
-      <c r="T60" s="241"/>
-      <c r="U60" s="241"/>
-      <c r="V60" s="241"/>
-      <c r="W60" s="241"/>
-      <c r="X60" s="241"/>
-      <c r="Y60" s="241"/>
-      <c r="Z60" s="241"/>
-      <c r="AA60" s="241"/>
-      <c r="AB60" s="241"/>
-      <c r="AC60" s="241"/>
-      <c r="AD60" s="241"/>
-      <c r="AE60" s="241"/>
-      <c r="AF60" s="241"/>
-      <c r="AG60" s="241"/>
-      <c r="AH60" s="241"/>
-      <c r="AI60" s="242"/>
+      <c r="B60" s="210"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="216"/>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="216"/>
+      <c r="H60" s="216"/>
+      <c r="I60" s="217"/>
+      <c r="J60" s="204"/>
+      <c r="K60" s="205"/>
+      <c r="L60" s="205"/>
+      <c r="M60" s="205"/>
+      <c r="N60" s="205"/>
+      <c r="O60" s="205"/>
+      <c r="P60" s="205"/>
+      <c r="Q60" s="205"/>
+      <c r="R60" s="205"/>
+      <c r="S60" s="205"/>
+      <c r="T60" s="205"/>
+      <c r="U60" s="205"/>
+      <c r="V60" s="205"/>
+      <c r="W60" s="205"/>
+      <c r="X60" s="205"/>
+      <c r="Y60" s="205"/>
+      <c r="Z60" s="205"/>
+      <c r="AA60" s="205"/>
+      <c r="AB60" s="205"/>
+      <c r="AC60" s="205"/>
+      <c r="AD60" s="205"/>
+      <c r="AE60" s="205"/>
+      <c r="AF60" s="205"/>
+      <c r="AG60" s="205"/>
+      <c r="AH60" s="205"/>
+      <c r="AI60" s="206"/>
     </row>
     <row r="61" spans="2:35">
-      <c r="B61" s="247"/>
-      <c r="C61" s="252"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="253"/>
-      <c r="F61" s="253"/>
-      <c r="G61" s="253"/>
-      <c r="H61" s="253"/>
-      <c r="I61" s="254"/>
-      <c r="J61" s="240"/>
-      <c r="K61" s="241"/>
-      <c r="L61" s="241"/>
-      <c r="M61" s="241"/>
-      <c r="N61" s="241"/>
-      <c r="O61" s="241"/>
-      <c r="P61" s="241"/>
-      <c r="Q61" s="241"/>
-      <c r="R61" s="241"/>
-      <c r="S61" s="241"/>
-      <c r="T61" s="241"/>
-      <c r="U61" s="241"/>
-      <c r="V61" s="241"/>
-      <c r="W61" s="241"/>
-      <c r="X61" s="241"/>
-      <c r="Y61" s="241"/>
-      <c r="Z61" s="241"/>
-      <c r="AA61" s="241"/>
-      <c r="AB61" s="241"/>
-      <c r="AC61" s="241"/>
-      <c r="AD61" s="241"/>
-      <c r="AE61" s="241"/>
-      <c r="AF61" s="241"/>
-      <c r="AG61" s="241"/>
-      <c r="AH61" s="241"/>
-      <c r="AI61" s="242"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="216"/>
+      <c r="H61" s="216"/>
+      <c r="I61" s="217"/>
+      <c r="J61" s="204"/>
+      <c r="K61" s="205"/>
+      <c r="L61" s="205"/>
+      <c r="M61" s="205"/>
+      <c r="N61" s="205"/>
+      <c r="O61" s="205"/>
+      <c r="P61" s="205"/>
+      <c r="Q61" s="205"/>
+      <c r="R61" s="205"/>
+      <c r="S61" s="205"/>
+      <c r="T61" s="205"/>
+      <c r="U61" s="205"/>
+      <c r="V61" s="205"/>
+      <c r="W61" s="205"/>
+      <c r="X61" s="205"/>
+      <c r="Y61" s="205"/>
+      <c r="Z61" s="205"/>
+      <c r="AA61" s="205"/>
+      <c r="AB61" s="205"/>
+      <c r="AC61" s="205"/>
+      <c r="AD61" s="205"/>
+      <c r="AE61" s="205"/>
+      <c r="AF61" s="205"/>
+      <c r="AG61" s="205"/>
+      <c r="AH61" s="205"/>
+      <c r="AI61" s="206"/>
     </row>
     <row r="62" spans="2:35">
-      <c r="B62" s="248"/>
-      <c r="C62" s="255"/>
-      <c r="D62" s="256"/>
-      <c r="E62" s="256"/>
-      <c r="F62" s="256"/>
-      <c r="G62" s="256"/>
-      <c r="H62" s="256"/>
-      <c r="I62" s="257"/>
-      <c r="J62" s="243"/>
-      <c r="K62" s="244"/>
-      <c r="L62" s="244"/>
-      <c r="M62" s="244"/>
-      <c r="N62" s="244"/>
-      <c r="O62" s="244"/>
-      <c r="P62" s="244"/>
-      <c r="Q62" s="244"/>
-      <c r="R62" s="244"/>
-      <c r="S62" s="244"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="244"/>
-      <c r="V62" s="244"/>
-      <c r="W62" s="244"/>
-      <c r="X62" s="244"/>
-      <c r="Y62" s="244"/>
-      <c r="Z62" s="244"/>
-      <c r="AA62" s="244"/>
-      <c r="AB62" s="244"/>
-      <c r="AC62" s="244"/>
-      <c r="AD62" s="244"/>
-      <c r="AE62" s="244"/>
-      <c r="AF62" s="244"/>
-      <c r="AG62" s="244"/>
-      <c r="AH62" s="244"/>
-      <c r="AI62" s="245"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="218"/>
+      <c r="D62" s="219"/>
+      <c r="E62" s="219"/>
+      <c r="F62" s="219"/>
+      <c r="G62" s="219"/>
+      <c r="H62" s="219"/>
+      <c r="I62" s="220"/>
+      <c r="J62" s="207"/>
+      <c r="K62" s="208"/>
+      <c r="L62" s="208"/>
+      <c r="M62" s="208"/>
+      <c r="N62" s="208"/>
+      <c r="O62" s="208"/>
+      <c r="P62" s="208"/>
+      <c r="Q62" s="208"/>
+      <c r="R62" s="208"/>
+      <c r="S62" s="208"/>
+      <c r="T62" s="208"/>
+      <c r="U62" s="208"/>
+      <c r="V62" s="208"/>
+      <c r="W62" s="208"/>
+      <c r="X62" s="208"/>
+      <c r="Y62" s="208"/>
+      <c r="Z62" s="208"/>
+      <c r="AA62" s="208"/>
+      <c r="AB62" s="208"/>
+      <c r="AC62" s="208"/>
+      <c r="AD62" s="208"/>
+      <c r="AE62" s="208"/>
+      <c r="AF62" s="208"/>
+      <c r="AG62" s="208"/>
+      <c r="AH62" s="208"/>
+      <c r="AI62" s="209"/>
     </row>
     <row r="63" spans="2:35">
-      <c r="B63" s="278">
+      <c r="B63" s="235">
         <v>12</v>
       </c>
-      <c r="C63" s="249" t="s">
+      <c r="C63" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="250"/>
-      <c r="E63" s="250"/>
-      <c r="F63" s="250"/>
-      <c r="G63" s="250"/>
-      <c r="H63" s="250"/>
-      <c r="I63" s="251"/>
-      <c r="J63" s="237" t="s">
+      <c r="D63" s="213"/>
+      <c r="E63" s="213"/>
+      <c r="F63" s="213"/>
+      <c r="G63" s="213"/>
+      <c r="H63" s="213"/>
+      <c r="I63" s="214"/>
+      <c r="J63" s="201" t="s">
         <v>134</v>
       </c>
-      <c r="K63" s="250"/>
-      <c r="L63" s="250"/>
-      <c r="M63" s="250"/>
-      <c r="N63" s="250"/>
-      <c r="O63" s="250"/>
-      <c r="P63" s="250"/>
-      <c r="Q63" s="250"/>
-      <c r="R63" s="250"/>
-      <c r="S63" s="250"/>
-      <c r="T63" s="250"/>
-      <c r="U63" s="250"/>
-      <c r="V63" s="250"/>
-      <c r="W63" s="250"/>
-      <c r="X63" s="250"/>
-      <c r="Y63" s="250"/>
-      <c r="Z63" s="250"/>
-      <c r="AA63" s="250"/>
-      <c r="AB63" s="250"/>
-      <c r="AC63" s="250"/>
-      <c r="AD63" s="250"/>
-      <c r="AE63" s="250"/>
-      <c r="AF63" s="250"/>
-      <c r="AG63" s="250"/>
-      <c r="AH63" s="250"/>
-      <c r="AI63" s="251"/>
+      <c r="K63" s="213"/>
+      <c r="L63" s="213"/>
+      <c r="M63" s="213"/>
+      <c r="N63" s="213"/>
+      <c r="O63" s="213"/>
+      <c r="P63" s="213"/>
+      <c r="Q63" s="213"/>
+      <c r="R63" s="213"/>
+      <c r="S63" s="213"/>
+      <c r="T63" s="213"/>
+      <c r="U63" s="213"/>
+      <c r="V63" s="213"/>
+      <c r="W63" s="213"/>
+      <c r="X63" s="213"/>
+      <c r="Y63" s="213"/>
+      <c r="Z63" s="213"/>
+      <c r="AA63" s="213"/>
+      <c r="AB63" s="213"/>
+      <c r="AC63" s="213"/>
+      <c r="AD63" s="213"/>
+      <c r="AE63" s="213"/>
+      <c r="AF63" s="213"/>
+      <c r="AG63" s="213"/>
+      <c r="AH63" s="213"/>
+      <c r="AI63" s="214"/>
     </row>
     <row r="64" spans="2:35">
-      <c r="B64" s="279"/>
-      <c r="C64" s="252"/>
-      <c r="D64" s="253"/>
-      <c r="E64" s="253"/>
-      <c r="F64" s="253"/>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253"/>
-      <c r="I64" s="254"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="253"/>
-      <c r="L64" s="253"/>
-      <c r="M64" s="253"/>
-      <c r="N64" s="253"/>
-      <c r="O64" s="253"/>
-      <c r="P64" s="253"/>
-      <c r="Q64" s="253"/>
-      <c r="R64" s="253"/>
-      <c r="S64" s="253"/>
-      <c r="T64" s="253"/>
-      <c r="U64" s="253"/>
-      <c r="V64" s="253"/>
-      <c r="W64" s="253"/>
-      <c r="X64" s="253"/>
-      <c r="Y64" s="253"/>
-      <c r="Z64" s="253"/>
-      <c r="AA64" s="253"/>
-      <c r="AB64" s="253"/>
-      <c r="AC64" s="253"/>
-      <c r="AD64" s="253"/>
-      <c r="AE64" s="253"/>
-      <c r="AF64" s="253"/>
-      <c r="AG64" s="253"/>
-      <c r="AH64" s="253"/>
-      <c r="AI64" s="254"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="216"/>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="216"/>
+      <c r="H64" s="216"/>
+      <c r="I64" s="217"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="216"/>
+      <c r="L64" s="216"/>
+      <c r="M64" s="216"/>
+      <c r="N64" s="216"/>
+      <c r="O64" s="216"/>
+      <c r="P64" s="216"/>
+      <c r="Q64" s="216"/>
+      <c r="R64" s="216"/>
+      <c r="S64" s="216"/>
+      <c r="T64" s="216"/>
+      <c r="U64" s="216"/>
+      <c r="V64" s="216"/>
+      <c r="W64" s="216"/>
+      <c r="X64" s="216"/>
+      <c r="Y64" s="216"/>
+      <c r="Z64" s="216"/>
+      <c r="AA64" s="216"/>
+      <c r="AB64" s="216"/>
+      <c r="AC64" s="216"/>
+      <c r="AD64" s="216"/>
+      <c r="AE64" s="216"/>
+      <c r="AF64" s="216"/>
+      <c r="AG64" s="216"/>
+      <c r="AH64" s="216"/>
+      <c r="AI64" s="217"/>
     </row>
     <row r="65" spans="2:35">
-      <c r="B65" s="279"/>
-      <c r="C65" s="252"/>
-      <c r="D65" s="253"/>
-      <c r="E65" s="253"/>
-      <c r="F65" s="253"/>
-      <c r="G65" s="253"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="254"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="253"/>
-      <c r="L65" s="253"/>
-      <c r="M65" s="253"/>
-      <c r="N65" s="253"/>
-      <c r="O65" s="253"/>
-      <c r="P65" s="253"/>
-      <c r="Q65" s="253"/>
-      <c r="R65" s="253"/>
-      <c r="S65" s="253"/>
-      <c r="T65" s="253"/>
-      <c r="U65" s="253"/>
-      <c r="V65" s="253"/>
-      <c r="W65" s="253"/>
-      <c r="X65" s="253"/>
-      <c r="Y65" s="253"/>
-      <c r="Z65" s="253"/>
-      <c r="AA65" s="253"/>
-      <c r="AB65" s="253"/>
-      <c r="AC65" s="253"/>
-      <c r="AD65" s="253"/>
-      <c r="AE65" s="253"/>
-      <c r="AF65" s="253"/>
-      <c r="AG65" s="253"/>
-      <c r="AH65" s="253"/>
-      <c r="AI65" s="254"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="215"/>
+      <c r="D65" s="216"/>
+      <c r="E65" s="216"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="216"/>
+      <c r="H65" s="216"/>
+      <c r="I65" s="217"/>
+      <c r="J65" s="215"/>
+      <c r="K65" s="216"/>
+      <c r="L65" s="216"/>
+      <c r="M65" s="216"/>
+      <c r="N65" s="216"/>
+      <c r="O65" s="216"/>
+      <c r="P65" s="216"/>
+      <c r="Q65" s="216"/>
+      <c r="R65" s="216"/>
+      <c r="S65" s="216"/>
+      <c r="T65" s="216"/>
+      <c r="U65" s="216"/>
+      <c r="V65" s="216"/>
+      <c r="W65" s="216"/>
+      <c r="X65" s="216"/>
+      <c r="Y65" s="216"/>
+      <c r="Z65" s="216"/>
+      <c r="AA65" s="216"/>
+      <c r="AB65" s="216"/>
+      <c r="AC65" s="216"/>
+      <c r="AD65" s="216"/>
+      <c r="AE65" s="216"/>
+      <c r="AF65" s="216"/>
+      <c r="AG65" s="216"/>
+      <c r="AH65" s="216"/>
+      <c r="AI65" s="217"/>
     </row>
     <row r="66" spans="2:35">
-      <c r="B66" s="280"/>
-      <c r="C66" s="255"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="256"/>
-      <c r="H66" s="256"/>
-      <c r="I66" s="257"/>
-      <c r="J66" s="255"/>
-      <c r="K66" s="256"/>
-      <c r="L66" s="256"/>
-      <c r="M66" s="256"/>
-      <c r="N66" s="256"/>
-      <c r="O66" s="256"/>
-      <c r="P66" s="256"/>
-      <c r="Q66" s="256"/>
-      <c r="R66" s="256"/>
-      <c r="S66" s="256"/>
-      <c r="T66" s="256"/>
-      <c r="U66" s="256"/>
-      <c r="V66" s="256"/>
-      <c r="W66" s="256"/>
-      <c r="X66" s="256"/>
-      <c r="Y66" s="256"/>
-      <c r="Z66" s="256"/>
-      <c r="AA66" s="256"/>
-      <c r="AB66" s="256"/>
-      <c r="AC66" s="256"/>
-      <c r="AD66" s="256"/>
-      <c r="AE66" s="256"/>
-      <c r="AF66" s="256"/>
-      <c r="AG66" s="256"/>
-      <c r="AH66" s="256"/>
-      <c r="AI66" s="257"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="218"/>
+      <c r="D66" s="219"/>
+      <c r="E66" s="219"/>
+      <c r="F66" s="219"/>
+      <c r="G66" s="219"/>
+      <c r="H66" s="219"/>
+      <c r="I66" s="220"/>
+      <c r="J66" s="218"/>
+      <c r="K66" s="219"/>
+      <c r="L66" s="219"/>
+      <c r="M66" s="219"/>
+      <c r="N66" s="219"/>
+      <c r="O66" s="219"/>
+      <c r="P66" s="219"/>
+      <c r="Q66" s="219"/>
+      <c r="R66" s="219"/>
+      <c r="S66" s="219"/>
+      <c r="T66" s="219"/>
+      <c r="U66" s="219"/>
+      <c r="V66" s="219"/>
+      <c r="W66" s="219"/>
+      <c r="X66" s="219"/>
+      <c r="Y66" s="219"/>
+      <c r="Z66" s="219"/>
+      <c r="AA66" s="219"/>
+      <c r="AB66" s="219"/>
+      <c r="AC66" s="219"/>
+      <c r="AD66" s="219"/>
+      <c r="AE66" s="219"/>
+      <c r="AF66" s="219"/>
+      <c r="AG66" s="219"/>
+      <c r="AH66" s="219"/>
+      <c r="AI66" s="220"/>
     </row>
     <row r="67" spans="2:35">
       <c r="B67" s="91">
         <v>13</v>
       </c>
-      <c r="C67" s="234" t="s">
+      <c r="C67" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="235"/>
-      <c r="E67" s="235"/>
-      <c r="F67" s="235"/>
-      <c r="G67" s="235"/>
-      <c r="H67" s="235"/>
-      <c r="I67" s="236"/>
-      <c r="J67" s="234" t="s">
+      <c r="D67" s="196"/>
+      <c r="E67" s="196"/>
+      <c r="F67" s="196"/>
+      <c r="G67" s="196"/>
+      <c r="H67" s="196"/>
+      <c r="I67" s="197"/>
+      <c r="J67" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="235"/>
-      <c r="L67" s="235"/>
-      <c r="M67" s="235"/>
-      <c r="N67" s="235"/>
-      <c r="O67" s="235"/>
-      <c r="P67" s="235"/>
-      <c r="Q67" s="235"/>
-      <c r="R67" s="235"/>
-      <c r="S67" s="235"/>
-      <c r="T67" s="235"/>
-      <c r="U67" s="235"/>
-      <c r="V67" s="235"/>
-      <c r="W67" s="235"/>
-      <c r="X67" s="235"/>
-      <c r="Y67" s="235"/>
-      <c r="Z67" s="235"/>
-      <c r="AA67" s="235"/>
-      <c r="AB67" s="235"/>
-      <c r="AC67" s="235"/>
-      <c r="AD67" s="235"/>
-      <c r="AE67" s="235"/>
-      <c r="AF67" s="235"/>
-      <c r="AG67" s="235"/>
-      <c r="AH67" s="235"/>
-      <c r="AI67" s="236"/>
+      <c r="K67" s="196"/>
+      <c r="L67" s="196"/>
+      <c r="M67" s="196"/>
+      <c r="N67" s="196"/>
+      <c r="O67" s="196"/>
+      <c r="P67" s="196"/>
+      <c r="Q67" s="196"/>
+      <c r="R67" s="196"/>
+      <c r="S67" s="196"/>
+      <c r="T67" s="196"/>
+      <c r="U67" s="196"/>
+      <c r="V67" s="196"/>
+      <c r="W67" s="196"/>
+      <c r="X67" s="196"/>
+      <c r="Y67" s="196"/>
+      <c r="Z67" s="196"/>
+      <c r="AA67" s="196"/>
+      <c r="AB67" s="196"/>
+      <c r="AC67" s="196"/>
+      <c r="AD67" s="196"/>
+      <c r="AE67" s="196"/>
+      <c r="AF67" s="196"/>
+      <c r="AG67" s="196"/>
+      <c r="AH67" s="196"/>
+      <c r="AI67" s="197"/>
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="91">
         <v>14</v>
       </c>
-      <c r="C68" s="234" t="s">
+      <c r="C68" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="235"/>
-      <c r="E68" s="235"/>
-      <c r="F68" s="235"/>
-      <c r="G68" s="235"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="236"/>
-      <c r="J68" s="234" t="s">
+      <c r="D68" s="196"/>
+      <c r="E68" s="196"/>
+      <c r="F68" s="196"/>
+      <c r="G68" s="196"/>
+      <c r="H68" s="196"/>
+      <c r="I68" s="197"/>
+      <c r="J68" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="K68" s="235"/>
-      <c r="L68" s="235"/>
-      <c r="M68" s="235"/>
-      <c r="N68" s="235"/>
-      <c r="O68" s="235"/>
-      <c r="P68" s="235"/>
-      <c r="Q68" s="235"/>
-      <c r="R68" s="235"/>
-      <c r="S68" s="235"/>
-      <c r="T68" s="235"/>
-      <c r="U68" s="235"/>
-      <c r="V68" s="235"/>
-      <c r="W68" s="235"/>
-      <c r="X68" s="235"/>
-      <c r="Y68" s="235"/>
-      <c r="Z68" s="235"/>
-      <c r="AA68" s="235"/>
-      <c r="AB68" s="235"/>
-      <c r="AC68" s="235"/>
-      <c r="AD68" s="235"/>
-      <c r="AE68" s="235"/>
-      <c r="AF68" s="235"/>
-      <c r="AG68" s="235"/>
-      <c r="AH68" s="235"/>
-      <c r="AI68" s="236"/>
+      <c r="K68" s="196"/>
+      <c r="L68" s="196"/>
+      <c r="M68" s="196"/>
+      <c r="N68" s="196"/>
+      <c r="O68" s="196"/>
+      <c r="P68" s="196"/>
+      <c r="Q68" s="196"/>
+      <c r="R68" s="196"/>
+      <c r="S68" s="196"/>
+      <c r="T68" s="196"/>
+      <c r="U68" s="196"/>
+      <c r="V68" s="196"/>
+      <c r="W68" s="196"/>
+      <c r="X68" s="196"/>
+      <c r="Y68" s="196"/>
+      <c r="Z68" s="196"/>
+      <c r="AA68" s="196"/>
+      <c r="AB68" s="196"/>
+      <c r="AC68" s="196"/>
+      <c r="AD68" s="196"/>
+      <c r="AE68" s="196"/>
+      <c r="AF68" s="196"/>
+      <c r="AG68" s="196"/>
+      <c r="AH68" s="196"/>
+      <c r="AI68" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="J56:AI57"/>
-    <mergeCell ref="C53:I54"/>
-    <mergeCell ref="C56:I57"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J41:AI41"/>
-    <mergeCell ref="J42:AI42"/>
-    <mergeCell ref="J43:AI43"/>
-    <mergeCell ref="J44:AI44"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AB18:AD19"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="O18:S19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AX29:BF29"/>
+    <mergeCell ref="AX27:BF27"/>
+    <mergeCell ref="AX28:BF28"/>
+    <mergeCell ref="AP27:AS27"/>
+    <mergeCell ref="AX25:BF25"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AS26"/>
+    <mergeCell ref="AX26:BF26"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AP25:AS25"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT25:AW25"/>
+    <mergeCell ref="AT26:AW26"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AX18:BF19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AP19:AS19"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AS20"/>
+    <mergeCell ref="AX20:BF20"/>
+    <mergeCell ref="AN18:AS18"/>
+    <mergeCell ref="AT18:AW19"/>
+    <mergeCell ref="AT20:AW20"/>
+    <mergeCell ref="AX23:BF23"/>
+    <mergeCell ref="AX24:BF24"/>
+    <mergeCell ref="AX21:BF21"/>
+    <mergeCell ref="AP21:AS21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AT21:AW21"/>
+    <mergeCell ref="AT22:AW22"/>
+    <mergeCell ref="AT23:AW23"/>
+    <mergeCell ref="AP23:AS23"/>
+    <mergeCell ref="AT24:AW24"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T25:U25"/>
     <mergeCell ref="C67:I67"/>
     <mergeCell ref="C68:I68"/>
     <mergeCell ref="J67:AI67"/>
@@ -12322,180 +12483,19 @@
     <mergeCell ref="J63:AI66"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="J53:AI54"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="F18:L19"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AP24:AS24"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AX23:BF23"/>
-    <mergeCell ref="AX24:BF24"/>
-    <mergeCell ref="AX21:BF21"/>
-    <mergeCell ref="AP21:AS21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AP22:AS22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AT21:AW21"/>
-    <mergeCell ref="AT22:AW22"/>
-    <mergeCell ref="AT23:AW23"/>
-    <mergeCell ref="AP23:AS23"/>
-    <mergeCell ref="AT24:AW24"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AX18:BF19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AS19"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AP20:AS20"/>
-    <mergeCell ref="AX20:BF20"/>
-    <mergeCell ref="AN18:AS18"/>
-    <mergeCell ref="AT18:AW19"/>
-    <mergeCell ref="AT20:AW20"/>
-    <mergeCell ref="AX29:BF29"/>
-    <mergeCell ref="AX27:BF27"/>
-    <mergeCell ref="AX28:BF28"/>
-    <mergeCell ref="AP27:AS27"/>
-    <mergeCell ref="AX25:BF25"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AS26"/>
-    <mergeCell ref="AX26:BF26"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AP25:AS25"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT25:AW25"/>
-    <mergeCell ref="AT26:AW26"/>
-    <mergeCell ref="AT27:AW27"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="O18:S19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z18:AA19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AB18:AD19"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="J56:AI57"/>
+    <mergeCell ref="C53:I54"/>
+    <mergeCell ref="C56:I57"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J41:AI41"/>
+    <mergeCell ref="J42:AI42"/>
+    <mergeCell ref="J43:AI43"/>
+    <mergeCell ref="J44:AI44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">
